--- a/name/vnindex/20230117/VNINDEX_HOSE_5p_20230117.xlsx
+++ b/name/vnindex/20230117/VNINDEX_HOSE_5p_20230117.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1673946900000</v>
+        <v>1673946840000</v>
       </c>
       <c r="B2">
-        <v>3484800</v>
+        <v>1023500</v>
       </c>
       <c r="C2">
-        <v>7343700</v>
+        <v>1732600</v>
       </c>
       <c r="D2">
-        <v>2079100</v>
+        <v>2049000</v>
       </c>
       <c r="E2">
-        <v>55604212000</v>
+        <v>15418745000</v>
       </c>
       <c r="F2">
-        <v>134166539000</v>
+        <v>34439941000</v>
       </c>
       <c r="G2">
-        <v>36584689000</v>
+        <v>35639149000</v>
       </c>
       <c r="H2">
-        <v>12907600</v>
+        <v>4805100</v>
       </c>
       <c r="I2">
-        <v>226355440000</v>
+        <v>85497835000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-17T09:15:00.000Z</v>
+        <v>2023-01-17T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>226355440000</v>
+        <v>85497835000</v>
       </c>
       <c r="L2">
-        <v>12907600</v>
+        <v>4805100</v>
       </c>
       <c r="M2">
-        <v>3858900</v>
+        <v>709100</v>
       </c>
       <c r="N2">
-        <v>78562327000</v>
+        <v>19021196000</v>
       </c>
       <c r="O2">
-        <v>3858900</v>
+        <v>709100</v>
       </c>
       <c r="P2">
-        <v>78562327000</v>
+        <v>19021196000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1673947200000</v>
+        <v>1673946960000</v>
       </c>
       <c r="B3">
-        <v>4765300</v>
+        <v>860000</v>
       </c>
       <c r="C3">
-        <v>7820800</v>
+        <v>2600100</v>
       </c>
       <c r="D3">
-        <v>73800</v>
+        <v>19400</v>
       </c>
       <c r="E3">
-        <v>79302074000</v>
+        <v>14025522000</v>
       </c>
       <c r="F3">
-        <v>138169711000</v>
+        <v>45605175000</v>
       </c>
       <c r="G3">
-        <v>1415349000</v>
+        <v>750660000</v>
       </c>
       <c r="H3">
-        <v>12659900</v>
+        <v>3479500</v>
       </c>
       <c r="I3">
-        <v>218887134000</v>
+        <v>60381357000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-17T09:20:00.000Z</v>
+        <v>2023-01-17T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>445242574000</v>
+        <v>145879192000</v>
       </c>
       <c r="L3">
-        <v>25567500</v>
+        <v>8284600</v>
       </c>
       <c r="M3">
-        <v>3055500</v>
+        <v>1740100</v>
       </c>
       <c r="N3">
-        <v>58867637000</v>
+        <v>31579653000</v>
       </c>
       <c r="O3">
-        <v>6914400</v>
+        <v>2449200</v>
       </c>
       <c r="P3">
-        <v>137429964000</v>
+        <v>50600849000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1673947500000</v>
+        <v>1673947080000</v>
       </c>
       <c r="B4">
-        <v>4231900</v>
+        <v>1601300</v>
       </c>
       <c r="C4">
-        <v>6765400</v>
+        <v>3011000</v>
       </c>
       <c r="D4">
-        <v>118400</v>
+        <v>10700</v>
       </c>
       <c r="E4">
-        <v>73991117000</v>
+        <v>26159945000</v>
       </c>
       <c r="F4">
-        <v>112648981000</v>
+        <v>54121423000</v>
       </c>
       <c r="G4">
-        <v>907744000</v>
+        <v>194880000</v>
       </c>
       <c r="H4">
-        <v>11115700</v>
+        <v>4623000</v>
       </c>
       <c r="I4">
-        <v>187547842000</v>
+        <v>80476248000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-17T09:25:00.000Z</v>
+        <v>2023-01-17T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>632790416000</v>
+        <v>226355440000</v>
       </c>
       <c r="L4">
-        <v>36683200</v>
+        <v>12907600</v>
       </c>
       <c r="M4">
-        <v>2533500</v>
+        <v>1409700</v>
       </c>
       <c r="N4">
-        <v>38657864000</v>
+        <v>27961478000</v>
       </c>
       <c r="O4">
-        <v>9447900</v>
+        <v>3858900</v>
       </c>
       <c r="P4">
-        <v>176087828000</v>
+        <v>78562327000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1673947800000</v>
+        <v>1673947200000</v>
       </c>
       <c r="B5">
-        <v>4955000</v>
+        <v>1724700</v>
       </c>
       <c r="C5">
-        <v>7083200</v>
+        <v>3214200</v>
       </c>
       <c r="D5">
-        <v>54600</v>
+        <v>23400</v>
       </c>
       <c r="E5">
-        <v>85276470000</v>
+        <v>28192833000</v>
       </c>
       <c r="F5">
-        <v>118441705000</v>
+        <v>52626114000</v>
       </c>
       <c r="G5">
-        <v>562683000</v>
+        <v>338487000</v>
       </c>
       <c r="H5">
-        <v>12092800</v>
+        <v>4962300</v>
       </c>
       <c r="I5">
-        <v>204280858000</v>
+        <v>81157434000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-17T09:30:00.000Z</v>
+        <v>2023-01-17T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>837071274000</v>
+        <v>307512874000</v>
       </c>
       <c r="L5">
-        <v>48776000</v>
+        <v>17869900</v>
       </c>
       <c r="M5">
-        <v>2128200</v>
+        <v>1489500</v>
       </c>
       <c r="N5">
-        <v>33165235000</v>
+        <v>24433281000</v>
       </c>
       <c r="O5">
-        <v>11576100</v>
+        <v>5348400</v>
       </c>
       <c r="P5">
-        <v>209253063000</v>
+        <v>102995608000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1673948100000</v>
+        <v>1673947320000</v>
       </c>
       <c r="B6">
-        <v>6083200</v>
+        <v>1859200</v>
       </c>
       <c r="C6">
-        <v>5706200</v>
+        <v>3145600</v>
       </c>
       <c r="D6">
-        <v>19200</v>
+        <v>49000</v>
       </c>
       <c r="E6">
-        <v>110353974000</v>
+        <v>32043877000</v>
       </c>
       <c r="F6">
-        <v>97894844000</v>
+        <v>58823009000</v>
       </c>
       <c r="G6">
-        <v>351151000</v>
+        <v>1047259000</v>
       </c>
       <c r="H6">
-        <v>11808600</v>
+        <v>5053800</v>
       </c>
       <c r="I6">
-        <v>208599969000</v>
+        <v>91914145000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-17T09:35:00.000Z</v>
+        <v>2023-01-17T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1045671243000</v>
+        <v>399427019000</v>
       </c>
       <c r="L6">
-        <v>60584600</v>
+        <v>22923700</v>
       </c>
       <c r="M6">
-        <v>-377000</v>
+        <v>1286400</v>
       </c>
       <c r="N6">
-        <v>-12459130000</v>
+        <v>26779132000</v>
       </c>
       <c r="O6">
-        <v>11199100</v>
+        <v>6634800</v>
       </c>
       <c r="P6">
-        <v>196793933000</v>
+        <v>129774740000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1673948400000</v>
+        <v>1673947440000</v>
       </c>
       <c r="B7">
-        <v>3978100</v>
+        <v>1880700</v>
       </c>
       <c r="C7">
-        <v>5487200</v>
+        <v>2681200</v>
       </c>
       <c r="D7">
-        <v>24200</v>
+        <v>4100</v>
       </c>
       <c r="E7">
-        <v>68563370000</v>
+        <v>31081115000</v>
       </c>
       <c r="F7">
-        <v>95162617000</v>
+        <v>47330244000</v>
       </c>
       <c r="G7">
-        <v>327321000</v>
+        <v>42301000</v>
       </c>
       <c r="H7">
-        <v>9489500</v>
+        <v>4566000</v>
       </c>
       <c r="I7">
-        <v>164053308000</v>
+        <v>78453660000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-17T09:40:00.000Z</v>
+        <v>2023-01-17T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1209724551000</v>
+        <v>477880679000</v>
       </c>
       <c r="L7">
-        <v>70074100</v>
+        <v>27489700</v>
       </c>
       <c r="M7">
-        <v>1509100</v>
+        <v>800500</v>
       </c>
       <c r="N7">
-        <v>26599247000</v>
+        <v>16249129000</v>
       </c>
       <c r="O7">
-        <v>12708200</v>
+        <v>7435300</v>
       </c>
       <c r="P7">
-        <v>223393180000</v>
+        <v>146023869000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1673948700000</v>
+        <v>1673947560000</v>
       </c>
       <c r="B8">
-        <v>4082900</v>
+        <v>1575800</v>
       </c>
       <c r="C8">
-        <v>11553000</v>
+        <v>2143300</v>
       </c>
       <c r="D8">
-        <v>28000</v>
+        <v>106700</v>
       </c>
       <c r="E8">
-        <v>70286629000</v>
+        <v>29693200000</v>
       </c>
       <c r="F8">
-        <v>200400593000</v>
+        <v>39298661000</v>
       </c>
       <c r="G8">
-        <v>350683000</v>
+        <v>731345000</v>
       </c>
       <c r="H8">
-        <v>15663900</v>
+        <v>3825800</v>
       </c>
       <c r="I8">
-        <v>271037905000</v>
+        <v>69723206000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-17T09:45:00.000Z</v>
+        <v>2023-01-17T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1480762456000</v>
+        <v>547603885000</v>
       </c>
       <c r="L8">
-        <v>85738000</v>
+        <v>31315500</v>
       </c>
       <c r="M8">
-        <v>7470100</v>
+        <v>567500</v>
       </c>
       <c r="N8">
-        <v>130113964000</v>
+        <v>9605461000</v>
       </c>
       <c r="O8">
-        <v>20178300</v>
+        <v>8002800</v>
       </c>
       <c r="P8">
-        <v>353507144000</v>
+        <v>155629330000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1673949000000</v>
+        <v>1673947680000</v>
       </c>
       <c r="B9">
-        <v>3881900</v>
+        <v>1956800</v>
       </c>
       <c r="C9">
-        <v>15865300</v>
+        <v>3401900</v>
       </c>
       <c r="D9">
-        <v>59000</v>
+        <v>9000</v>
       </c>
       <c r="E9">
-        <v>69960813000</v>
+        <v>32282166000</v>
       </c>
       <c r="F9">
-        <v>276722222000</v>
+        <v>52740664000</v>
       </c>
       <c r="G9">
-        <v>1123256000</v>
+        <v>163701000</v>
       </c>
       <c r="H9">
-        <v>19806200</v>
+        <v>5367700</v>
       </c>
       <c r="I9">
-        <v>347806291000</v>
+        <v>85186531000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-17T09:50:00.000Z</v>
+        <v>2023-01-17T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1828568747000</v>
+        <v>632790416000</v>
       </c>
       <c r="L9">
-        <v>105544200</v>
+        <v>36683200</v>
       </c>
       <c r="M9">
-        <v>11983400</v>
+        <v>1445100</v>
       </c>
       <c r="N9">
-        <v>206761409000</v>
+        <v>20458498000</v>
       </c>
       <c r="O9">
-        <v>32161700</v>
+        <v>9447900</v>
       </c>
       <c r="P9">
-        <v>560268553000</v>
+        <v>176087828000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1673949300000</v>
+        <v>1673947800000</v>
       </c>
       <c r="B10">
-        <v>6075200</v>
+        <v>1801300</v>
       </c>
       <c r="C10">
-        <v>9637900</v>
+        <v>3571500</v>
       </c>
       <c r="D10">
-        <v>103000</v>
+        <v>9000</v>
       </c>
       <c r="E10">
-        <v>106588551000</v>
+        <v>32215062000</v>
       </c>
       <c r="F10">
-        <v>175217120000</v>
+        <v>61513830000</v>
       </c>
       <c r="G10">
-        <v>1757594000</v>
+        <v>92724000</v>
       </c>
       <c r="H10">
-        <v>15816100</v>
+        <v>5381800</v>
       </c>
       <c r="I10">
-        <v>283563265000</v>
+        <v>93821616000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-17T09:55:00.000Z</v>
+        <v>2023-01-17T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2112132012000</v>
+        <v>726612032000</v>
       </c>
       <c r="L10">
-        <v>121360300</v>
+        <v>42065000</v>
       </c>
       <c r="M10">
-        <v>3562700</v>
+        <v>1770200</v>
       </c>
       <c r="N10">
-        <v>68628569000</v>
+        <v>29298768000</v>
       </c>
       <c r="O10">
-        <v>35724400</v>
+        <v>11218100</v>
       </c>
       <c r="P10">
-        <v>628897122000</v>
+        <v>205386596000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1673949600000</v>
+        <v>1673947920000</v>
       </c>
       <c r="B11">
-        <v>5902300</v>
+        <v>2084000</v>
       </c>
       <c r="C11">
-        <v>4503700</v>
+        <v>2569800</v>
       </c>
       <c r="D11">
-        <v>42700</v>
+        <v>40800</v>
       </c>
       <c r="E11">
-        <v>109470189000</v>
+        <v>35376559000</v>
       </c>
       <c r="F11">
-        <v>82511590000</v>
+        <v>40580403000</v>
       </c>
       <c r="G11">
-        <v>616477000</v>
+        <v>427173000</v>
       </c>
       <c r="H11">
-        <v>10448700</v>
+        <v>4694600</v>
       </c>
       <c r="I11">
-        <v>192598256000</v>
+        <v>76384135000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-17T10:00:00.000Z</v>
+        <v>2023-01-17T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2304730268000</v>
+        <v>802996167000</v>
       </c>
       <c r="L11">
-        <v>131809000</v>
+        <v>46759600</v>
       </c>
       <c r="M11">
-        <v>-1398600</v>
+        <v>485800</v>
       </c>
       <c r="N11">
-        <v>-26958599000</v>
+        <v>5203844000</v>
       </c>
       <c r="O11">
-        <v>34325800</v>
+        <v>11703900</v>
       </c>
       <c r="P11">
-        <v>601938523000</v>
+        <v>210590440000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1673949900000</v>
+        <v>1673948040000</v>
       </c>
       <c r="B12">
-        <v>6308000</v>
+        <v>2398500</v>
       </c>
       <c r="C12">
-        <v>7220000</v>
+        <v>2537800</v>
       </c>
       <c r="D12">
-        <v>35800</v>
+        <v>6800</v>
       </c>
       <c r="E12">
-        <v>104528660000</v>
+        <v>41052280000</v>
       </c>
       <c r="F12">
-        <v>138653637000</v>
+        <v>44247329000</v>
       </c>
       <c r="G12">
-        <v>559892000</v>
+        <v>65781000</v>
       </c>
       <c r="H12">
-        <v>13563800</v>
+        <v>4943100</v>
       </c>
       <c r="I12">
-        <v>243742189000</v>
+        <v>85365390000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-17T10:05:00.000Z</v>
+        <v>2023-01-17T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2548472457000</v>
+        <v>888361557000</v>
       </c>
       <c r="L12">
-        <v>145372800</v>
+        <v>51702700</v>
       </c>
       <c r="M12">
-        <v>912000</v>
+        <v>139300</v>
       </c>
       <c r="N12">
-        <v>34124977000</v>
+        <v>3195049000</v>
       </c>
       <c r="O12">
-        <v>35237800</v>
+        <v>11843200</v>
       </c>
       <c r="P12">
-        <v>636063500000</v>
+        <v>213785489000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1673950200000</v>
+        <v>1673948160000</v>
       </c>
       <c r="B13">
-        <v>6150500</v>
+        <v>2385700</v>
       </c>
       <c r="C13">
-        <v>5839100</v>
+        <v>2065400</v>
       </c>
       <c r="D13">
-        <v>23800</v>
+        <v>4900</v>
       </c>
       <c r="E13">
-        <v>93753602000</v>
+        <v>46436970000</v>
       </c>
       <c r="F13">
-        <v>112261189000</v>
+        <v>38991843000</v>
       </c>
       <c r="G13">
-        <v>288589000</v>
+        <v>40241000</v>
       </c>
       <c r="H13">
-        <v>12013400</v>
+        <v>4456000</v>
       </c>
       <c r="I13">
-        <v>206303380000</v>
+        <v>85469054000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-17T10:10:00.000Z</v>
+        <v>2023-01-17T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2754775837000</v>
+        <v>973830611000</v>
       </c>
       <c r="L13">
-        <v>157386200</v>
+        <v>56158700</v>
       </c>
       <c r="M13">
-        <v>-311400</v>
+        <v>-320300</v>
       </c>
       <c r="N13">
-        <v>18507587000</v>
+        <v>-7445127000</v>
       </c>
       <c r="O13">
-        <v>34926400</v>
+        <v>11522900</v>
       </c>
       <c r="P13">
-        <v>654571087000</v>
+        <v>206340362000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1673950500000</v>
+        <v>1673948280000</v>
       </c>
       <c r="B14">
-        <v>3830300</v>
+        <v>2368700</v>
       </c>
       <c r="C14">
-        <v>4190300</v>
+        <v>2044900</v>
       </c>
       <c r="D14">
-        <v>15500</v>
+        <v>12300</v>
       </c>
       <c r="E14">
-        <v>69648213000</v>
+        <v>40549573000</v>
       </c>
       <c r="F14">
-        <v>90364649000</v>
+        <v>31003144000</v>
       </c>
       <c r="G14">
-        <v>333045000</v>
+        <v>287915000</v>
       </c>
       <c r="H14">
-        <v>8036100</v>
+        <v>4425900</v>
       </c>
       <c r="I14">
-        <v>160345907000</v>
+        <v>71840632000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-17T10:15:00.000Z</v>
+        <v>2023-01-17T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2915121744000</v>
+        <v>1045671243000</v>
       </c>
       <c r="L14">
-        <v>165422300</v>
+        <v>60584600</v>
       </c>
       <c r="M14">
-        <v>360000</v>
+        <v>-323800</v>
       </c>
       <c r="N14">
-        <v>20716436000</v>
+        <v>-9546429000</v>
       </c>
       <c r="O14">
-        <v>35286400</v>
+        <v>11199100</v>
       </c>
       <c r="P14">
-        <v>675287523000</v>
+        <v>196793933000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1673950800000</v>
+        <v>1673948400000</v>
       </c>
       <c r="B15">
-        <v>4832200</v>
+        <v>1825700</v>
       </c>
       <c r="C15">
-        <v>3808400</v>
+        <v>2107200</v>
       </c>
       <c r="D15">
-        <v>18000</v>
+        <v>5900</v>
       </c>
       <c r="E15">
-        <v>83872377000</v>
+        <v>29085387000</v>
       </c>
       <c r="F15">
-        <v>80747685000</v>
+        <v>37376686000</v>
       </c>
       <c r="G15">
-        <v>301343000</v>
+        <v>62089000</v>
       </c>
       <c r="H15">
-        <v>8658600</v>
+        <v>3938800</v>
       </c>
       <c r="I15">
-        <v>164921405000</v>
+        <v>66524162000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-17T10:20:00.000Z</v>
+        <v>2023-01-17T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3080043149000</v>
+        <v>1112195405000</v>
       </c>
       <c r="L15">
-        <v>174080900</v>
+        <v>64523400</v>
       </c>
       <c r="M15">
-        <v>-1023800</v>
+        <v>281500</v>
       </c>
       <c r="N15">
-        <v>-3124692000</v>
+        <v>8291299000</v>
       </c>
       <c r="O15">
-        <v>34262600</v>
+        <v>11480600</v>
       </c>
       <c r="P15">
-        <v>672162831000</v>
+        <v>205085232000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1673951100000</v>
+        <v>1673948520000</v>
       </c>
       <c r="B16">
-        <v>4025500</v>
+        <v>1477900</v>
       </c>
       <c r="C16">
-        <v>4018200</v>
+        <v>2379700</v>
       </c>
       <c r="D16">
-        <v>166800</v>
+        <v>14500</v>
       </c>
       <c r="E16">
-        <v>74107857000</v>
+        <v>27780176000</v>
       </c>
       <c r="F16">
-        <v>70159591000</v>
+        <v>39130937000</v>
       </c>
       <c r="G16">
-        <v>2175142000</v>
+        <v>137922000</v>
       </c>
       <c r="H16">
-        <v>8210500</v>
+        <v>3872100</v>
       </c>
       <c r="I16">
-        <v>146442590000</v>
+        <v>67049035000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-17T10:25:00.000Z</v>
+        <v>2023-01-17T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3226485739000</v>
+        <v>1179244440000</v>
       </c>
       <c r="L16">
-        <v>182291400</v>
+        <v>68395500</v>
       </c>
       <c r="M16">
-        <v>-7300</v>
+        <v>901800</v>
       </c>
       <c r="N16">
-        <v>-3948266000</v>
+        <v>11350761000</v>
       </c>
       <c r="O16">
-        <v>34255300</v>
+        <v>12382400</v>
       </c>
       <c r="P16">
-        <v>668214565000</v>
+        <v>216435993000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1673951400000</v>
+        <v>1673948640000</v>
       </c>
       <c r="B17">
-        <v>4669700</v>
+        <v>1792800</v>
       </c>
       <c r="C17">
-        <v>2583900</v>
+        <v>2319600</v>
       </c>
       <c r="D17">
-        <v>8300</v>
+        <v>11100</v>
       </c>
       <c r="E17">
-        <v>90120773000</v>
+        <v>30849375000</v>
       </c>
       <c r="F17">
-        <v>45829451000</v>
+        <v>45528588000</v>
       </c>
       <c r="G17">
-        <v>176888000</v>
+        <v>254380000</v>
       </c>
       <c r="H17">
-        <v>7261900</v>
+        <v>4123500</v>
       </c>
       <c r="I17">
-        <v>136127112000</v>
+        <v>76632343000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-17T10:30:00.000Z</v>
+        <v>2023-01-17T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3362612851000</v>
+        <v>1255876783000</v>
       </c>
       <c r="L17">
-        <v>189553300</v>
+        <v>72519000</v>
       </c>
       <c r="M17">
-        <v>-2085800</v>
+        <v>526800</v>
       </c>
       <c r="N17">
-        <v>-44291322000</v>
+        <v>14679213000</v>
       </c>
       <c r="O17">
-        <v>32169500</v>
+        <v>12909200</v>
       </c>
       <c r="P17">
-        <v>623923243000</v>
+        <v>231115206000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1673951700000</v>
+        <v>1673948760000</v>
       </c>
       <c r="B18">
-        <v>3113100</v>
+        <v>1470100</v>
       </c>
       <c r="C18">
-        <v>3366800</v>
+        <v>4765300</v>
       </c>
       <c r="D18">
-        <v>8400</v>
+        <v>9800</v>
       </c>
       <c r="E18">
-        <v>58645669000</v>
+        <v>26462232000</v>
       </c>
       <c r="F18">
-        <v>60767004000</v>
+        <v>83366266000</v>
       </c>
       <c r="G18">
-        <v>147035000</v>
+        <v>140634000</v>
       </c>
       <c r="H18">
-        <v>6488300</v>
+        <v>6245200</v>
       </c>
       <c r="I18">
-        <v>119559708000</v>
+        <v>109969132000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-17T10:35:00.000Z</v>
+        <v>2023-01-17T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3482172559000</v>
+        <v>1365845915000</v>
       </c>
       <c r="L18">
-        <v>196041600</v>
+        <v>78764200</v>
       </c>
       <c r="M18">
-        <v>253700</v>
+        <v>3295200</v>
       </c>
       <c r="N18">
-        <v>2121335000</v>
+        <v>56904034000</v>
       </c>
       <c r="O18">
-        <v>32423200</v>
+        <v>16204400</v>
       </c>
       <c r="P18">
-        <v>626044578000</v>
+        <v>288019240000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1673952000000</v>
+        <v>1673948880000</v>
       </c>
       <c r="B19">
-        <v>2853000</v>
+        <v>1494500</v>
       </c>
       <c r="C19">
-        <v>2491000</v>
+        <v>5468400</v>
       </c>
       <c r="D19">
-        <v>14900</v>
+        <v>10900</v>
       </c>
       <c r="E19">
-        <v>49821793000</v>
+        <v>24672829000</v>
       </c>
       <c r="F19">
-        <v>41956831000</v>
+        <v>90160733000</v>
       </c>
       <c r="G19">
-        <v>126360000</v>
+        <v>82979000</v>
       </c>
       <c r="H19">
-        <v>5358900</v>
+        <v>6973800</v>
       </c>
       <c r="I19">
-        <v>91904984000</v>
+        <v>114916541000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-17T10:40:00.000Z</v>
+        <v>2023-01-17T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3574077543000</v>
+        <v>1480762456000</v>
       </c>
       <c r="L19">
-        <v>201400500</v>
+        <v>85738000</v>
       </c>
       <c r="M19">
-        <v>-362000</v>
+        <v>3973900</v>
       </c>
       <c r="N19">
-        <v>-7864962000</v>
+        <v>65487904000</v>
       </c>
       <c r="O19">
-        <v>32061200</v>
+        <v>20178300</v>
       </c>
       <c r="P19">
-        <v>618179616000</v>
+        <v>353507144000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1673952300000</v>
+        <v>1673949000000</v>
       </c>
       <c r="B20">
-        <v>5781300</v>
+        <v>1590400</v>
       </c>
       <c r="C20">
-        <v>2417300</v>
+        <v>7224400</v>
       </c>
       <c r="D20">
-        <v>7400</v>
+        <v>40000</v>
       </c>
       <c r="E20">
-        <v>90453472000</v>
+        <v>29658596000</v>
       </c>
       <c r="F20">
-        <v>41840397000</v>
+        <v>112650745000</v>
       </c>
       <c r="G20">
-        <v>89872000</v>
+        <v>439624000</v>
       </c>
       <c r="H20">
-        <v>8206000</v>
+        <v>8854800</v>
       </c>
       <c r="I20">
-        <v>132383741000</v>
+        <v>142748965000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-17T10:45:00.000Z</v>
+        <v>2023-01-17T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>3706461284000</v>
+        <v>1623511421000</v>
       </c>
       <c r="L20">
-        <v>209606500</v>
+        <v>94592800</v>
       </c>
       <c r="M20">
-        <v>-3364000</v>
+        <v>5634000</v>
       </c>
       <c r="N20">
-        <v>-48613075000</v>
+        <v>82992149000</v>
       </c>
       <c r="O20">
-        <v>28697200</v>
+        <v>25812300</v>
       </c>
       <c r="P20">
-        <v>569566541000</v>
+        <v>436499293000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1673952600000</v>
+        <v>1673949120000</v>
       </c>
       <c r="B21">
-        <v>4089500</v>
+        <v>1323100</v>
       </c>
       <c r="C21">
-        <v>2770700</v>
+        <v>5253200</v>
       </c>
       <c r="D21">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="E21">
-        <v>68783928000</v>
+        <v>22393212000</v>
       </c>
       <c r="F21">
-        <v>54329928000</v>
+        <v>101731466000</v>
       </c>
       <c r="G21">
-        <v>762004000</v>
+        <v>635092000</v>
       </c>
       <c r="H21">
-        <v>6889200</v>
+        <v>6594300</v>
       </c>
       <c r="I21">
-        <v>123875860000</v>
+        <v>124759770000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-17T10:50:00.000Z</v>
+        <v>2023-01-17T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>3830337144000</v>
+        <v>1748271191000</v>
       </c>
       <c r="L21">
-        <v>216495700</v>
+        <v>101187100</v>
       </c>
       <c r="M21">
-        <v>-1318800</v>
+        <v>3930100</v>
       </c>
       <c r="N21">
-        <v>-14454000000</v>
+        <v>79338254000</v>
       </c>
       <c r="O21">
-        <v>27378400</v>
+        <v>29742400</v>
       </c>
       <c r="P21">
-        <v>555112541000</v>
+        <v>515837547000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1673952900000</v>
+        <v>1673949240000</v>
       </c>
       <c r="B22">
-        <v>2667200</v>
+        <v>1786800</v>
       </c>
       <c r="C22">
-        <v>3392000</v>
+        <v>6119500</v>
       </c>
       <c r="D22">
-        <v>4700</v>
+        <v>65400</v>
       </c>
       <c r="E22">
-        <v>46475384000</v>
+        <v>33005187000</v>
       </c>
       <c r="F22">
-        <v>62491696000</v>
+        <v>113589398000</v>
       </c>
       <c r="G22">
-        <v>182713000</v>
+        <v>1027143000</v>
       </c>
       <c r="H22">
-        <v>6063900</v>
+        <v>7971700</v>
       </c>
       <c r="I22">
-        <v>109149793000</v>
+        <v>147621728000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-17T10:55:00.000Z</v>
+        <v>2023-01-17T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>3939486937000</v>
+        <v>1895892919000</v>
       </c>
       <c r="L22">
-        <v>222559600</v>
+        <v>109158800</v>
       </c>
       <c r="M22">
-        <v>724800</v>
+        <v>4332700</v>
       </c>
       <c r="N22">
-        <v>16016312000</v>
+        <v>80584211000</v>
       </c>
       <c r="O22">
-        <v>28103200</v>
+        <v>34075100</v>
       </c>
       <c r="P22">
-        <v>571128853000</v>
+        <v>596421758000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1673953200000</v>
+        <v>1673949360000</v>
       </c>
       <c r="B23">
-        <v>1940400</v>
+        <v>2378800</v>
       </c>
       <c r="C23">
-        <v>3806800</v>
+        <v>3448700</v>
       </c>
       <c r="D23">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="E23">
-        <v>38955720000</v>
+        <v>39586652000</v>
       </c>
       <c r="F23">
-        <v>77786603000</v>
+        <v>61142271000</v>
       </c>
       <c r="G23">
-        <v>284360000</v>
+        <v>454850000</v>
       </c>
       <c r="H23">
-        <v>5767300</v>
+        <v>5846700</v>
       </c>
       <c r="I23">
-        <v>117026683000</v>
+        <v>101183773000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-17T11:00:00.000Z</v>
+        <v>2023-01-17T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4056513620000</v>
+        <v>1997076692000</v>
       </c>
       <c r="L23">
-        <v>228326900</v>
+        <v>115005500</v>
       </c>
       <c r="M23">
-        <v>1866400</v>
+        <v>1069900</v>
       </c>
       <c r="N23">
-        <v>38830883000</v>
+        <v>21555619000</v>
       </c>
       <c r="O23">
-        <v>29969600</v>
+        <v>35145000</v>
       </c>
       <c r="P23">
-        <v>609959736000</v>
+        <v>617977377000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1673953500000</v>
+        <v>1673949480000</v>
       </c>
       <c r="B24">
-        <v>3212300</v>
+        <v>2878000</v>
       </c>
       <c r="C24">
-        <v>2097800</v>
+        <v>3457400</v>
       </c>
       <c r="D24">
-        <v>13600</v>
+        <v>19400</v>
       </c>
       <c r="E24">
-        <v>63070483000</v>
+        <v>51905717000</v>
       </c>
       <c r="F24">
-        <v>38038839000</v>
+        <v>62825462000</v>
       </c>
       <c r="G24">
-        <v>162324000</v>
+        <v>324141000</v>
       </c>
       <c r="H24">
-        <v>5323700</v>
+        <v>6354800</v>
       </c>
       <c r="I24">
-        <v>101271646000</v>
+        <v>115055320000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-17T11:05:00.000Z</v>
+        <v>2023-01-17T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4157785266000</v>
+        <v>2112132012000</v>
       </c>
       <c r="L24">
-        <v>233650600</v>
+        <v>121360300</v>
       </c>
       <c r="M24">
-        <v>-1114500</v>
+        <v>579400</v>
       </c>
       <c r="N24">
-        <v>-25031644000</v>
+        <v>10919745000</v>
       </c>
       <c r="O24">
-        <v>28855100</v>
+        <v>35724400</v>
       </c>
       <c r="P24">
-        <v>584928092000</v>
+        <v>628897122000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1673953800000</v>
+        <v>1673949600000</v>
       </c>
       <c r="B25">
-        <v>2875900</v>
+        <v>2268900</v>
       </c>
       <c r="C25">
-        <v>2097000</v>
+        <v>1937700</v>
       </c>
       <c r="D25">
-        <v>41600</v>
+        <v>12000</v>
       </c>
       <c r="E25">
-        <v>53578019000</v>
+        <v>42386378000</v>
       </c>
       <c r="F25">
-        <v>38889429000</v>
+        <v>35256070000</v>
       </c>
       <c r="G25">
-        <v>1306663000</v>
+        <v>166841000</v>
       </c>
       <c r="H25">
-        <v>5014500</v>
+        <v>4218600</v>
       </c>
       <c r="I25">
-        <v>93774111000</v>
+        <v>77809289000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-17T11:10:00.000Z</v>
+        <v>2023-01-17T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4251559377000</v>
+        <v>2189941301000</v>
       </c>
       <c r="L25">
-        <v>238665100</v>
+        <v>125578900</v>
       </c>
       <c r="M25">
-        <v>-778900</v>
+        <v>-331200</v>
       </c>
       <c r="N25">
-        <v>-14688590000</v>
+        <v>-7130308000</v>
       </c>
       <c r="O25">
-        <v>28076200</v>
+        <v>35393200</v>
       </c>
       <c r="P25">
-        <v>570239502000</v>
+        <v>621766814000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1673954100000</v>
+        <v>1673949720000</v>
       </c>
       <c r="B26">
-        <v>2285000</v>
+        <v>2459900</v>
       </c>
       <c r="C26">
-        <v>4070400</v>
+        <v>1786700</v>
       </c>
       <c r="D26">
-        <v>52900</v>
+        <v>10100</v>
       </c>
       <c r="E26">
-        <v>43745093000</v>
+        <v>44162520000</v>
       </c>
       <c r="F26">
-        <v>77725970000</v>
+        <v>33756068000</v>
       </c>
       <c r="G26">
-        <v>726987000</v>
+        <v>234276000</v>
       </c>
       <c r="H26">
-        <v>6408300</v>
+        <v>4256700</v>
       </c>
       <c r="I26">
-        <v>122198050000</v>
+        <v>78152864000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-17T11:15:00.000Z</v>
+        <v>2023-01-17T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4373757427000</v>
+        <v>2268094165000</v>
       </c>
       <c r="L26">
-        <v>245073400</v>
+        <v>129835600</v>
       </c>
       <c r="M26">
-        <v>1785400</v>
+        <v>-673200</v>
       </c>
       <c r="N26">
-        <v>33980877000</v>
+        <v>-10406452000</v>
       </c>
       <c r="O26">
-        <v>29861600</v>
+        <v>34720000</v>
       </c>
       <c r="P26">
-        <v>604220379000</v>
+        <v>611360362000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1673954400000</v>
+        <v>1673949840000</v>
       </c>
       <c r="B27">
-        <v>3031900</v>
+        <v>2591400</v>
       </c>
       <c r="C27">
-        <v>3914800</v>
+        <v>1295600</v>
       </c>
       <c r="D27">
-        <v>26600</v>
+        <v>22200</v>
       </c>
       <c r="E27">
-        <v>57850112000</v>
+        <v>46413696000</v>
       </c>
       <c r="F27">
-        <v>85361032000</v>
+        <v>24043221000</v>
       </c>
       <c r="G27">
-        <v>588084000</v>
+        <v>248735000</v>
       </c>
       <c r="H27">
-        <v>6973300</v>
+        <v>3909200</v>
       </c>
       <c r="I27">
-        <v>143799228000</v>
+        <v>70705652000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-17T11:20:00.000Z</v>
+        <v>2023-01-17T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4517556655000</v>
+        <v>2338799817000</v>
       </c>
       <c r="L27">
-        <v>252046700</v>
+        <v>133744800</v>
       </c>
       <c r="M27">
-        <v>882900</v>
+        <v>-1295800</v>
       </c>
       <c r="N27">
-        <v>27510920000</v>
+        <v>-22370475000</v>
       </c>
       <c r="O27">
-        <v>30744500</v>
+        <v>33424200</v>
       </c>
       <c r="P27">
-        <v>631731299000</v>
+        <v>588989887000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1673954700000</v>
+        <v>1673949960000</v>
       </c>
       <c r="B28">
-        <v>2557700</v>
+        <v>3455600</v>
       </c>
       <c r="C28">
-        <v>4410800</v>
+        <v>4154400</v>
       </c>
       <c r="D28">
-        <v>8800</v>
+        <v>23000</v>
       </c>
       <c r="E28">
-        <v>48760212000</v>
+        <v>58316025000</v>
       </c>
       <c r="F28">
-        <v>82188355000</v>
+        <v>81347043000</v>
       </c>
       <c r="G28">
-        <v>131097000</v>
+        <v>356627000</v>
       </c>
       <c r="H28">
-        <v>6977300</v>
+        <v>7633000</v>
       </c>
       <c r="I28">
-        <v>131079664000</v>
+        <v>140019695000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-17T11:25:00.000Z</v>
+        <v>2023-01-17T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4648636319000</v>
+        <v>2478819512000</v>
       </c>
       <c r="L28">
-        <v>259024000</v>
+        <v>141377800</v>
       </c>
       <c r="M28">
-        <v>1853100</v>
+        <v>698800</v>
       </c>
       <c r="N28">
-        <v>33428143000</v>
+        <v>23031018000</v>
       </c>
       <c r="O28">
-        <v>32597600</v>
+        <v>34123000</v>
       </c>
       <c r="P28">
-        <v>665159442000</v>
+        <v>612020905000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1673955000000</v>
+        <v>1673950080000</v>
       </c>
       <c r="B29">
-        <v>11100</v>
+        <v>1434500</v>
       </c>
       <c r="C29">
-        <v>11400</v>
+        <v>2549300</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="E29">
-        <v>244130000</v>
+        <v>22720230000</v>
       </c>
       <c r="F29">
-        <v>274430000</v>
+        <v>46762825000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>169890000</v>
       </c>
       <c r="H29">
-        <v>22500</v>
+        <v>3995000</v>
       </c>
       <c r="I29">
-        <v>518560000</v>
+        <v>69652945000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-17T11:30:00.000Z</v>
+        <v>2023-01-17T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>4649154879000</v>
+        <v>2548472457000</v>
       </c>
       <c r="L29">
-        <v>259046500</v>
+        <v>145372800</v>
       </c>
       <c r="M29">
-        <v>300</v>
+        <v>1114800</v>
       </c>
       <c r="N29">
-        <v>30300000</v>
+        <v>24042595000</v>
       </c>
       <c r="O29">
-        <v>32597900</v>
+        <v>35237800</v>
       </c>
       <c r="P29">
-        <v>665189742000</v>
+        <v>636063500000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1673960400000</v>
+        <v>1673950200000</v>
       </c>
       <c r="B30">
-        <v>5384600</v>
+        <v>3150800</v>
       </c>
       <c r="C30">
-        <v>8386600</v>
+        <v>2311000</v>
       </c>
       <c r="D30">
-        <v>160600</v>
+        <v>2400</v>
       </c>
       <c r="E30">
-        <v>102561056000</v>
+        <v>42722149000</v>
       </c>
       <c r="F30">
-        <v>156654509000</v>
+        <v>41067021000</v>
       </c>
       <c r="G30">
-        <v>2349843000</v>
+        <v>42985000</v>
       </c>
       <c r="H30">
-        <v>13931800</v>
+        <v>5464200</v>
       </c>
       <c r="I30">
-        <v>261565408000</v>
+        <v>83832155000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-17T13:00:00.000Z</v>
+        <v>2023-01-17T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>4910720287000</v>
+        <v>2632304612000</v>
       </c>
       <c r="L30">
-        <v>272978300</v>
+        <v>150837000</v>
       </c>
       <c r="M30">
-        <v>3002000</v>
+        <v>-839800</v>
       </c>
       <c r="N30">
-        <v>54093453000</v>
+        <v>-1655128000</v>
       </c>
       <c r="O30">
-        <v>35599900</v>
+        <v>34398000</v>
       </c>
       <c r="P30">
-        <v>719283195000</v>
+        <v>634408372000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1673960700000</v>
+        <v>1673950320000</v>
       </c>
       <c r="B31">
-        <v>3213900</v>
+        <v>1994500</v>
       </c>
       <c r="C31">
-        <v>10075200</v>
+        <v>2494500</v>
       </c>
       <c r="D31">
-        <v>27600</v>
+        <v>14400</v>
       </c>
       <c r="E31">
-        <v>54351314000</v>
+        <v>36175203000</v>
       </c>
       <c r="F31">
-        <v>192534121000</v>
+        <v>50451083000</v>
       </c>
       <c r="G31">
-        <v>516030000</v>
+        <v>192584000</v>
       </c>
       <c r="H31">
-        <v>13316700</v>
+        <v>4503400</v>
       </c>
       <c r="I31">
-        <v>247401465000</v>
+        <v>86818870000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-17T13:05:00.000Z</v>
+        <v>2023-01-17T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5158121752000</v>
+        <v>2719123482000</v>
       </c>
       <c r="L31">
-        <v>286295000</v>
+        <v>155340400</v>
       </c>
       <c r="M31">
-        <v>6861300</v>
+        <v>500000</v>
       </c>
       <c r="N31">
-        <v>138182807000</v>
+        <v>14275880000</v>
       </c>
       <c r="O31">
-        <v>42461200</v>
+        <v>34898000</v>
       </c>
       <c r="P31">
-        <v>857466002000</v>
+        <v>648684252000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1673961000000</v>
+        <v>1673950440000</v>
       </c>
       <c r="B32">
-        <v>5788600</v>
+        <v>1827300</v>
       </c>
       <c r="C32">
-        <v>6070100</v>
+        <v>2103300</v>
       </c>
       <c r="D32">
-        <v>26800</v>
+        <v>9800</v>
       </c>
       <c r="E32">
-        <v>100412145000</v>
+        <v>28432022000</v>
       </c>
       <c r="F32">
-        <v>99286470000</v>
+        <v>40761705000</v>
       </c>
       <c r="G32">
-        <v>1011670000</v>
+        <v>97340000</v>
       </c>
       <c r="H32">
-        <v>11885500</v>
+        <v>3940400</v>
       </c>
       <c r="I32">
-        <v>200710285000</v>
+        <v>69291067000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-17T13:10:00.000Z</v>
+        <v>2023-01-17T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5358832037000</v>
+        <v>2788414549000</v>
       </c>
       <c r="L32">
-        <v>298180500</v>
+        <v>159280800</v>
       </c>
       <c r="M32">
-        <v>281500</v>
+        <v>276000</v>
       </c>
       <c r="N32">
-        <v>-1125675000</v>
+        <v>12329683000</v>
       </c>
       <c r="O32">
-        <v>42742700</v>
+        <v>35174000</v>
       </c>
       <c r="P32">
-        <v>856340327000</v>
+        <v>661013935000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1673961300000</v>
+        <v>1673950560000</v>
       </c>
       <c r="B33">
-        <v>4325500</v>
+        <v>1847000</v>
       </c>
       <c r="C33">
-        <v>6235100</v>
+        <v>1488100</v>
       </c>
       <c r="D33">
-        <v>29600</v>
+        <v>6900</v>
       </c>
       <c r="E33">
-        <v>70060891000</v>
+        <v>34109697000</v>
       </c>
       <c r="F33">
-        <v>116421967000</v>
+        <v>34161295000</v>
       </c>
       <c r="G33">
-        <v>414357000</v>
+        <v>216466000</v>
       </c>
       <c r="H33">
-        <v>10590200</v>
+        <v>3342000</v>
       </c>
       <c r="I33">
-        <v>186897215000</v>
+        <v>68487458000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-17T13:15:00.000Z</v>
+        <v>2023-01-17T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>5545729252000</v>
+        <v>2856902007000</v>
       </c>
       <c r="L33">
-        <v>308770700</v>
+        <v>162622800</v>
       </c>
       <c r="M33">
-        <v>1909600</v>
+        <v>-358900</v>
       </c>
       <c r="N33">
-        <v>46361076000</v>
+        <v>51598000</v>
       </c>
       <c r="O33">
-        <v>44652300</v>
+        <v>34815100</v>
       </c>
       <c r="P33">
-        <v>902701403000</v>
+        <v>661065533000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1673961600000</v>
+        <v>1673950680000</v>
       </c>
       <c r="B34">
-        <v>3469400</v>
+        <v>1161200</v>
       </c>
       <c r="C34">
-        <v>10222300</v>
+        <v>1632500</v>
       </c>
       <c r="D34">
-        <v>82200</v>
+        <v>5800</v>
       </c>
       <c r="E34">
-        <v>61871158000</v>
+        <v>21962744000</v>
       </c>
       <c r="F34">
-        <v>185802125000</v>
+        <v>36184734000</v>
       </c>
       <c r="G34">
-        <v>1355407000</v>
+        <v>72259000</v>
       </c>
       <c r="H34">
-        <v>13773900</v>
+        <v>2799500</v>
       </c>
       <c r="I34">
-        <v>249028690000</v>
+        <v>58219737000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-17T13:20:00.000Z</v>
+        <v>2023-01-17T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>5794757942000</v>
+        <v>2915121744000</v>
       </c>
       <c r="L34">
-        <v>322544600</v>
+        <v>165422300</v>
       </c>
       <c r="M34">
-        <v>6752900</v>
+        <v>471300</v>
       </c>
       <c r="N34">
-        <v>123930967000</v>
+        <v>14221990000</v>
       </c>
       <c r="O34">
-        <v>51405200</v>
+        <v>35286400</v>
       </c>
       <c r="P34">
-        <v>1026632370000</v>
+        <v>675287523000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1673961900000</v>
+        <v>1673950800000</v>
       </c>
       <c r="B35">
-        <v>3999500</v>
+        <v>2059900</v>
       </c>
       <c r="C35">
-        <v>7920300</v>
+        <v>1303700</v>
       </c>
       <c r="D35">
-        <v>85000</v>
+        <v>11400</v>
       </c>
       <c r="E35">
-        <v>65887145000</v>
+        <v>31903245000</v>
       </c>
       <c r="F35">
-        <v>143668231000</v>
+        <v>30942974000</v>
       </c>
       <c r="G35">
-        <v>917669000</v>
+        <v>197543000</v>
       </c>
       <c r="H35">
-        <v>12004800</v>
+        <v>3375000</v>
       </c>
       <c r="I35">
-        <v>210473045000</v>
+        <v>63043762000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-17T13:25:00.000Z</v>
+        <v>2023-01-17T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>6005230987000</v>
+        <v>2978165506000</v>
       </c>
       <c r="L35">
-        <v>334549400</v>
+        <v>168797300</v>
       </c>
       <c r="M35">
-        <v>3920800</v>
+        <v>-756200</v>
       </c>
       <c r="N35">
-        <v>77781086000</v>
+        <v>-960271000</v>
       </c>
       <c r="O35">
-        <v>55326000</v>
+        <v>34530200</v>
       </c>
       <c r="P35">
-        <v>1104413456000</v>
+        <v>674327252000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1673962200000</v>
+        <v>1673950920000</v>
       </c>
       <c r="B36">
-        <v>3749900</v>
+        <v>2159800</v>
       </c>
       <c r="C36">
-        <v>8071500</v>
+        <v>1795900</v>
       </c>
       <c r="D36">
-        <v>35400</v>
+        <v>5400</v>
       </c>
       <c r="E36">
-        <v>58109915000</v>
+        <v>39124485000</v>
       </c>
       <c r="F36">
-        <v>147589561000</v>
+        <v>36527022000</v>
       </c>
       <c r="G36">
-        <v>573502000</v>
+        <v>78800000</v>
       </c>
       <c r="H36">
-        <v>11856800</v>
+        <v>3961100</v>
       </c>
       <c r="I36">
-        <v>206272978000</v>
+        <v>75730307000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-17T13:30:00.000Z</v>
+        <v>2023-01-17T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>6211503965000</v>
+        <v>3053895813000</v>
       </c>
       <c r="L36">
-        <v>346406200</v>
+        <v>172758400</v>
       </c>
       <c r="M36">
-        <v>4321600</v>
+        <v>-363900</v>
       </c>
       <c r="N36">
-        <v>89479646000</v>
+        <v>-2597463000</v>
       </c>
       <c r="O36">
-        <v>59647600</v>
+        <v>34166300</v>
       </c>
       <c r="P36">
-        <v>1193893102000</v>
+        <v>671729789000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1673962500000</v>
+        <v>1673951040000</v>
       </c>
       <c r="B37">
-        <v>4770500</v>
+        <v>1211000</v>
       </c>
       <c r="C37">
-        <v>8900800</v>
+        <v>1467300</v>
       </c>
       <c r="D37">
-        <v>41700</v>
+        <v>2700</v>
       </c>
       <c r="E37">
-        <v>80517058000</v>
+        <v>24071045000</v>
       </c>
       <c r="F37">
-        <v>151978548000</v>
+        <v>26095631000</v>
       </c>
       <c r="G37">
-        <v>885379000</v>
+        <v>77400000</v>
       </c>
       <c r="H37">
-        <v>13713000</v>
+        <v>2681000</v>
       </c>
       <c r="I37">
-        <v>233380985000</v>
+        <v>50244076000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-17T13:35:00.000Z</v>
+        <v>2023-01-17T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>6444884950000</v>
+        <v>3104139889000</v>
       </c>
       <c r="L37">
-        <v>360119200</v>
+        <v>175439400</v>
       </c>
       <c r="M37">
-        <v>4130300</v>
+        <v>256300</v>
       </c>
       <c r="N37">
-        <v>71461490000</v>
+        <v>2024586000</v>
       </c>
       <c r="O37">
-        <v>63777900</v>
+        <v>34422600</v>
       </c>
       <c r="P37">
-        <v>1265354592000</v>
+        <v>673754375000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1673962800000</v>
+        <v>1673951160000</v>
       </c>
       <c r="B38">
-        <v>7285400</v>
+        <v>1578700</v>
       </c>
       <c r="C38">
-        <v>12466400</v>
+        <v>2156200</v>
       </c>
       <c r="D38">
-        <v>16300</v>
+        <v>147900</v>
       </c>
       <c r="E38">
-        <v>120587643000</v>
+        <v>29227978000</v>
       </c>
       <c r="F38">
-        <v>192835400000</v>
+        <v>40115878000</v>
       </c>
       <c r="G38">
-        <v>511012000</v>
+        <v>1868860000</v>
       </c>
       <c r="H38">
-        <v>19768100</v>
+        <v>3882800</v>
       </c>
       <c r="I38">
-        <v>313934055000</v>
+        <v>71212716000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-17T13:40:00.000Z</v>
+        <v>2023-01-17T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>6758819005000</v>
+        <v>3175352605000</v>
       </c>
       <c r="L38">
-        <v>379887300</v>
+        <v>179322200</v>
       </c>
       <c r="M38">
-        <v>5181000</v>
+        <v>577500</v>
       </c>
       <c r="N38">
-        <v>72247757000</v>
+        <v>10887900000</v>
       </c>
       <c r="O38">
-        <v>68958900</v>
+        <v>35000100</v>
       </c>
       <c r="P38">
-        <v>1337602349000</v>
+        <v>684642275000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1673963100000</v>
+        <v>1673951280000</v>
       </c>
       <c r="B39">
-        <v>7330000</v>
+        <v>1848300</v>
       </c>
       <c r="C39">
-        <v>5678800</v>
+        <v>1103500</v>
       </c>
       <c r="D39">
-        <v>27500</v>
+        <v>17400</v>
       </c>
       <c r="E39">
-        <v>111271195000</v>
+        <v>33653481000</v>
       </c>
       <c r="F39">
-        <v>101518690000</v>
+        <v>17225771000</v>
       </c>
       <c r="G39">
-        <v>389283000</v>
+        <v>253882000</v>
       </c>
       <c r="H39">
-        <v>13036300</v>
+        <v>2969200</v>
       </c>
       <c r="I39">
-        <v>213179168000</v>
+        <v>51133134000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-17T13:45:00.000Z</v>
+        <v>2023-01-17T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6971998173000</v>
+        <v>3226485739000</v>
       </c>
       <c r="L39">
-        <v>392923600</v>
+        <v>182291400</v>
       </c>
       <c r="M39">
-        <v>-1651200</v>
+        <v>-744800</v>
       </c>
       <c r="N39">
-        <v>-9752505000</v>
+        <v>-16427710000</v>
       </c>
       <c r="O39">
-        <v>67307700</v>
+        <v>34255300</v>
       </c>
       <c r="P39">
-        <v>1327849844000</v>
+        <v>668214565000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1673963400000</v>
+        <v>1673951400000</v>
       </c>
       <c r="B40">
-        <v>9359500</v>
+        <v>1976200</v>
       </c>
       <c r="C40">
-        <v>4300900</v>
+        <v>988900</v>
       </c>
       <c r="D40">
-        <v>38500</v>
+        <v>3800</v>
       </c>
       <c r="E40">
-        <v>166501996000</v>
+        <v>39017001000</v>
       </c>
       <c r="F40">
-        <v>69883809000</v>
+        <v>16537650000</v>
       </c>
       <c r="G40">
-        <v>526069000</v>
+        <v>46650000</v>
       </c>
       <c r="H40">
-        <v>13698900</v>
+        <v>2968900</v>
       </c>
       <c r="I40">
-        <v>236911874000</v>
+        <v>55601301000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-17T13:50:00.000Z</v>
+        <v>2023-01-17T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>7208910047000</v>
+        <v>3282087040000</v>
       </c>
       <c r="L40">
-        <v>406622500</v>
+        <v>185260300</v>
       </c>
       <c r="M40">
-        <v>-5058600</v>
+        <v>-987300</v>
       </c>
       <c r="N40">
-        <v>-96618187000</v>
+        <v>-22479351000</v>
       </c>
       <c r="O40">
-        <v>62249100</v>
+        <v>33268000</v>
       </c>
       <c r="P40">
-        <v>1231231657000</v>
+        <v>645735214000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1673963700000</v>
+        <v>1673951520000</v>
       </c>
       <c r="B41">
-        <v>5177500</v>
+        <v>1838000</v>
       </c>
       <c r="C41">
-        <v>3147100</v>
+        <v>833000</v>
       </c>
       <c r="D41">
-        <v>37500</v>
+        <v>3900</v>
       </c>
       <c r="E41">
-        <v>87911644000</v>
+        <v>35420399000</v>
       </c>
       <c r="F41">
-        <v>53005958000</v>
+        <v>15049633000</v>
       </c>
       <c r="G41">
-        <v>628154000</v>
+        <v>94984000</v>
       </c>
       <c r="H41">
-        <v>8362100</v>
+        <v>2674900</v>
       </c>
       <c r="I41">
-        <v>141545756000</v>
+        <v>50565016000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-17T13:55:00.000Z</v>
+        <v>2023-01-17T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>7350455803000</v>
+        <v>3332652056000</v>
       </c>
       <c r="L41">
-        <v>414984600</v>
+        <v>187935200</v>
       </c>
       <c r="M41">
-        <v>-2030400</v>
+        <v>-1005000</v>
       </c>
       <c r="N41">
-        <v>-34905686000</v>
+        <v>-20370766000</v>
       </c>
       <c r="O41">
-        <v>60218700</v>
+        <v>32263000</v>
       </c>
       <c r="P41">
-        <v>1196325971000</v>
+        <v>625364448000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1673964000000</v>
+        <v>1673951640000</v>
       </c>
       <c r="B42">
-        <v>6001300</v>
+        <v>1660100</v>
       </c>
       <c r="C42">
-        <v>4844200</v>
+        <v>1565100</v>
       </c>
       <c r="D42">
-        <v>25600</v>
+        <v>2800</v>
       </c>
       <c r="E42">
-        <v>108581941000</v>
+        <v>30878125000</v>
       </c>
       <c r="F42">
-        <v>89474096000</v>
+        <v>27230361000</v>
       </c>
       <c r="G42">
-        <v>562366000</v>
+        <v>69956000</v>
       </c>
       <c r="H42">
-        <v>10871100</v>
+        <v>3228000</v>
       </c>
       <c r="I42">
-        <v>198618403000</v>
+        <v>58178442000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-17T14:00:00.000Z</v>
+        <v>2023-01-17T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>7549074206000</v>
+        <v>3390830498000</v>
       </c>
       <c r="L42">
-        <v>425855700</v>
+        <v>191163200</v>
       </c>
       <c r="M42">
-        <v>-1157100</v>
+        <v>-95000</v>
       </c>
       <c r="N42">
-        <v>-19107845000</v>
+        <v>-3647764000</v>
       </c>
       <c r="O42">
-        <v>59061600</v>
+        <v>32168000</v>
       </c>
       <c r="P42">
-        <v>1177218126000</v>
+        <v>621716684000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1673964300000</v>
+        <v>1673951760000</v>
       </c>
       <c r="B43">
-        <v>5394700</v>
+        <v>1200200</v>
       </c>
       <c r="C43">
-        <v>8284700</v>
+        <v>1250500</v>
       </c>
       <c r="D43">
-        <v>43200</v>
+        <v>3000</v>
       </c>
       <c r="E43">
-        <v>94603477000</v>
+        <v>21312582000</v>
       </c>
       <c r="F43">
-        <v>140308618000</v>
+        <v>23889120000</v>
       </c>
       <c r="G43">
-        <v>373393000</v>
+        <v>27150000.000000004</v>
       </c>
       <c r="H43">
-        <v>13722600</v>
+        <v>2453700</v>
       </c>
       <c r="I43">
-        <v>235285488000</v>
+        <v>45228852000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-17T14:05:00.000Z</v>
+        <v>2023-01-17T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>7784359694000</v>
+        <v>3436059350000</v>
       </c>
       <c r="L43">
-        <v>439578300</v>
+        <v>193616900</v>
       </c>
       <c r="M43">
-        <v>2890000</v>
+        <v>50300</v>
       </c>
       <c r="N43">
-        <v>45705141000</v>
+        <v>2576538000</v>
       </c>
       <c r="O43">
-        <v>61951600</v>
+        <v>32218300</v>
       </c>
       <c r="P43">
-        <v>1222923267000</v>
+        <v>624293222000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1673964600000</v>
+        <v>1673951880000</v>
       </c>
       <c r="B44">
-        <v>4765800</v>
+        <v>1108300</v>
       </c>
       <c r="C44">
-        <v>11676100</v>
+        <v>1313200</v>
       </c>
       <c r="D44">
-        <v>141500</v>
+        <v>3200</v>
       </c>
       <c r="E44">
-        <v>74762516000</v>
+        <v>22138335000</v>
       </c>
       <c r="F44">
-        <v>198338469000</v>
+        <v>23889691000</v>
       </c>
       <c r="G44">
-        <v>2628688000</v>
+        <v>85183000</v>
       </c>
       <c r="H44">
-        <v>16583400</v>
+        <v>2424700</v>
       </c>
       <c r="I44">
-        <v>275729673000</v>
+        <v>46113209000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-17T14:10:00.000Z</v>
+        <v>2023-01-17T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>8060089367000</v>
+        <v>3482172559000</v>
       </c>
       <c r="L44">
-        <v>456161700</v>
+        <v>196041600</v>
       </c>
       <c r="M44">
-        <v>6910300</v>
+        <v>204900</v>
       </c>
       <c r="N44">
-        <v>123575953000</v>
+        <v>1751356000</v>
       </c>
       <c r="O44">
-        <v>68861900</v>
+        <v>32423200</v>
       </c>
       <c r="P44">
-        <v>1346499220000</v>
+        <v>626044578000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1673964900000</v>
+        <v>1673952000000</v>
       </c>
       <c r="B45">
-        <v>4886500</v>
+        <v>897000</v>
       </c>
       <c r="C45">
-        <v>18638200</v>
+        <v>1465500</v>
       </c>
       <c r="D45">
-        <v>57100</v>
+        <v>3500</v>
       </c>
       <c r="E45">
-        <v>80270928000</v>
+        <v>16777776000</v>
       </c>
       <c r="F45">
-        <v>359249564000</v>
+        <v>24608093000</v>
       </c>
       <c r="G45">
-        <v>785061000</v>
+        <v>35980000</v>
       </c>
       <c r="H45">
-        <v>23581800</v>
+        <v>2366000</v>
       </c>
       <c r="I45">
-        <v>440305553000</v>
+        <v>41421849000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-17T14:15:00.000Z</v>
+        <v>2023-01-17T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>8500394920000</v>
+        <v>3523594408000</v>
       </c>
       <c r="L45">
-        <v>479743500</v>
+        <v>198407600</v>
       </c>
       <c r="M45">
-        <v>13751700</v>
+        <v>568500</v>
       </c>
       <c r="N45">
-        <v>278978636000</v>
+        <v>7830317000</v>
       </c>
       <c r="O45">
-        <v>82613600</v>
+        <v>32991700</v>
       </c>
       <c r="P45">
-        <v>1625477856000</v>
+        <v>633874895000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1673965200000</v>
+        <v>1673952120000</v>
       </c>
       <c r="B46">
-        <v>6860300</v>
+        <v>1338900</v>
       </c>
       <c r="C46">
-        <v>22090700</v>
+        <v>761300</v>
       </c>
       <c r="D46">
-        <v>71000</v>
+        <v>10600</v>
       </c>
       <c r="E46">
-        <v>115193518000</v>
+        <v>21842897000</v>
       </c>
       <c r="F46">
-        <v>406039850000</v>
+        <v>12690558000</v>
       </c>
       <c r="G46">
-        <v>1530180000</v>
+        <v>83535000</v>
       </c>
       <c r="H46">
-        <v>29022000</v>
+        <v>2110800</v>
       </c>
       <c r="I46">
-        <v>522763548000</v>
+        <v>34616990000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-17T14:20:00.000Z</v>
+        <v>2023-01-17T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>9023158468000</v>
+        <v>3558211398000</v>
       </c>
       <c r="L46">
-        <v>508765500</v>
+        <v>200518400</v>
       </c>
       <c r="M46">
-        <v>15230400</v>
+        <v>-577600</v>
       </c>
       <c r="N46">
-        <v>290846332000</v>
+        <v>-9152339000</v>
       </c>
       <c r="O46">
-        <v>97844000</v>
+        <v>32414100</v>
       </c>
       <c r="P46">
-        <v>1916324188000</v>
+        <v>624722556000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1673965500000</v>
+        <v>1673952240000</v>
       </c>
       <c r="B47">
-        <v>9268700</v>
+        <v>1564000</v>
       </c>
       <c r="C47">
-        <v>14025400</v>
+        <v>561500</v>
       </c>
       <c r="D47">
-        <v>112100</v>
+        <v>2500</v>
       </c>
       <c r="E47">
-        <v>152101288000</v>
+        <v>24079918000</v>
       </c>
       <c r="F47">
-        <v>303131533000</v>
+        <v>9244395000</v>
       </c>
       <c r="G47">
-        <v>3056145000</v>
+        <v>14605000</v>
       </c>
       <c r="H47">
-        <v>23406200</v>
+        <v>2128000</v>
       </c>
       <c r="I47">
-        <v>458288966000</v>
+        <v>33338918000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-17T14:25:00.000Z</v>
+        <v>2023-01-17T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>9481447434000</v>
+        <v>3591550316000</v>
       </c>
       <c r="L47">
-        <v>532171700</v>
+        <v>202646400</v>
       </c>
       <c r="M47">
-        <v>4756700</v>
+        <v>-1002500</v>
       </c>
       <c r="N47">
-        <v>151030245000</v>
+        <v>-14835523000</v>
       </c>
       <c r="O47">
-        <v>102600700</v>
+        <v>31411600</v>
       </c>
       <c r="P47">
-        <v>2067354433000</v>
+        <v>609887033000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1673965800000</v>
+        <v>1673952360000</v>
       </c>
       <c r="B48">
-        <v>8800</v>
+        <v>1802600</v>
       </c>
       <c r="C48">
-        <v>76500</v>
+        <v>1034500</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E48">
-        <v>209298000</v>
+        <v>33606361000</v>
       </c>
       <c r="F48">
-        <v>1742624000</v>
+        <v>18421476000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>70648000</v>
       </c>
       <c r="H48">
-        <v>85300</v>
+        <v>2841900</v>
       </c>
       <c r="I48">
-        <v>1951922000</v>
+        <v>52098485000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-17T14:30:00.000Z</v>
+        <v>2023-01-17T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>9483399356000</v>
+        <v>3643648801000</v>
       </c>
       <c r="L48">
-        <v>532257000</v>
+        <v>205488300</v>
       </c>
       <c r="M48">
-        <v>67700</v>
+        <v>-768100</v>
       </c>
       <c r="N48">
-        <v>1533326000</v>
+        <v>-15184885000</v>
       </c>
       <c r="O48">
-        <v>102668400</v>
+        <v>30643500</v>
       </c>
       <c r="P48">
-        <v>2068887759000</v>
+        <v>594702148000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1673966700000</v>
+        <v>1673952480000</v>
       </c>
       <c r="B49">
+        <v>3031800</v>
+      </c>
+      <c r="C49">
+        <v>1085500</v>
+      </c>
+      <c r="D49">
+        <v>900</v>
+      </c>
+      <c r="E49">
+        <v>43968313000</v>
+      </c>
+      <c r="F49">
+        <v>18832706000</v>
+      </c>
+      <c r="G49">
+        <v>11464000</v>
+      </c>
+      <c r="H49">
+        <v>4118200</v>
+      </c>
+      <c r="I49">
+        <v>62812483000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-17T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>3706461284000</v>
+      </c>
+      <c r="L49">
+        <v>209606500</v>
+      </c>
+      <c r="M49">
+        <v>-1946300</v>
+      </c>
+      <c r="N49">
+        <v>-25135607000</v>
+      </c>
+      <c r="O49">
+        <v>28697200</v>
+      </c>
+      <c r="P49">
+        <v>569566541000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1673952600000</v>
+      </c>
+      <c r="B50">
+        <v>1659500</v>
+      </c>
+      <c r="C50">
+        <v>1413800</v>
+      </c>
+      <c r="D50">
+        <v>2900</v>
+      </c>
+      <c r="E50">
+        <v>28538272000</v>
+      </c>
+      <c r="F50">
+        <v>25709274000</v>
+      </c>
+      <c r="G50">
+        <v>81387000</v>
+      </c>
+      <c r="H50">
+        <v>3076200</v>
+      </c>
+      <c r="I50">
+        <v>54328933000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-17T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>3760790217000</v>
+      </c>
+      <c r="L50">
+        <v>212682700</v>
+      </c>
+      <c r="M50">
+        <v>-245700</v>
+      </c>
+      <c r="N50">
+        <v>-2828998000</v>
+      </c>
+      <c r="O50">
+        <v>28451500</v>
+      </c>
+      <c r="P50">
+        <v>566737543000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1673952720000</v>
+      </c>
+      <c r="B51">
+        <v>1674500</v>
+      </c>
+      <c r="C51">
+        <v>949500</v>
+      </c>
+      <c r="D51">
+        <v>14900</v>
+      </c>
+      <c r="E51">
+        <v>28163785000</v>
+      </c>
+      <c r="F51">
+        <v>20560067000</v>
+      </c>
+      <c r="G51">
+        <v>217525000</v>
+      </c>
+      <c r="H51">
+        <v>2638900</v>
+      </c>
+      <c r="I51">
+        <v>48941377000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-17T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>3809731594000</v>
+      </c>
+      <c r="L51">
+        <v>215321600</v>
+      </c>
+      <c r="M51">
+        <v>-725000</v>
+      </c>
+      <c r="N51">
+        <v>-7603718000</v>
+      </c>
+      <c r="O51">
+        <v>27726500</v>
+      </c>
+      <c r="P51">
+        <v>559133825000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1673952840000</v>
+      </c>
+      <c r="B52">
+        <v>1111500</v>
+      </c>
+      <c r="C52">
+        <v>1086900</v>
+      </c>
+      <c r="D52">
+        <v>11600</v>
+      </c>
+      <c r="E52">
+        <v>17273735000</v>
+      </c>
+      <c r="F52">
+        <v>20388813000</v>
+      </c>
+      <c r="G52">
+        <v>466662000</v>
+      </c>
+      <c r="H52">
+        <v>2210000</v>
+      </c>
+      <c r="I52">
+        <v>38129210000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-17T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>3847860804000</v>
+      </c>
+      <c r="L52">
+        <v>217531600</v>
+      </c>
+      <c r="M52">
+        <v>-24600</v>
+      </c>
+      <c r="N52">
+        <v>3115078000</v>
+      </c>
+      <c r="O52">
+        <v>27701900</v>
+      </c>
+      <c r="P52">
+        <v>562248903000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1673952960000</v>
+      </c>
+      <c r="B53">
+        <v>1310600</v>
+      </c>
+      <c r="C53">
+        <v>1318500</v>
+      </c>
+      <c r="D53">
+        <v>4300</v>
+      </c>
+      <c r="E53">
+        <v>23559011000</v>
+      </c>
+      <c r="F53">
+        <v>25352952000</v>
+      </c>
+      <c r="G53">
+        <v>179143000</v>
+      </c>
+      <c r="H53">
+        <v>2633400</v>
+      </c>
+      <c r="I53">
+        <v>49091106000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-17T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>3896951910000</v>
+      </c>
+      <c r="L53">
+        <v>220165000</v>
+      </c>
+      <c r="M53">
+        <v>7900</v>
+      </c>
+      <c r="N53">
+        <v>1793941000</v>
+      </c>
+      <c r="O53">
+        <v>27709800</v>
+      </c>
+      <c r="P53">
+        <v>564042844000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1673953080000</v>
+      </c>
+      <c r="B54">
+        <v>1000600</v>
+      </c>
+      <c r="C54">
+        <v>1394000</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>17724509000</v>
+      </c>
+      <c r="F54">
+        <v>24810518000</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>2394600</v>
+      </c>
+      <c r="I54">
+        <v>42535027000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-17T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>3939486937000</v>
+      </c>
+      <c r="L54">
+        <v>222559600</v>
+      </c>
+      <c r="M54">
+        <v>393400</v>
+      </c>
+      <c r="N54">
+        <v>7086009000</v>
+      </c>
+      <c r="O54">
+        <v>28103200</v>
+      </c>
+      <c r="P54">
+        <v>571128853000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1673953200000</v>
+      </c>
+      <c r="B55">
+        <v>583100</v>
+      </c>
+      <c r="C55">
+        <v>1766200</v>
+      </c>
+      <c r="D55">
+        <v>3800</v>
+      </c>
+      <c r="E55">
+        <v>13404903000</v>
+      </c>
+      <c r="F55">
+        <v>35662807000</v>
+      </c>
+      <c r="G55">
+        <v>33997000</v>
+      </c>
+      <c r="H55">
+        <v>2353100</v>
+      </c>
+      <c r="I55">
+        <v>49101707000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-17T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>3988588644000</v>
+      </c>
+      <c r="L55">
+        <v>224912700</v>
+      </c>
+      <c r="M55">
+        <v>1183100</v>
+      </c>
+      <c r="N55">
+        <v>22257904000</v>
+      </c>
+      <c r="O55">
+        <v>29286300</v>
+      </c>
+      <c r="P55">
+        <v>593386757000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1673953320000</v>
+      </c>
+      <c r="B56">
+        <v>772300</v>
+      </c>
+      <c r="C56">
+        <v>1300900</v>
+      </c>
+      <c r="D56">
+        <v>13800</v>
+      </c>
+      <c r="E56">
+        <v>13829650000</v>
+      </c>
+      <c r="F56">
+        <v>26956801000</v>
+      </c>
+      <c r="G56">
+        <v>232680000</v>
+      </c>
+      <c r="H56">
+        <v>2087000</v>
+      </c>
+      <c r="I56">
+        <v>41019131000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-17T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4029607775000</v>
+      </c>
+      <c r="L56">
+        <v>226999700</v>
+      </c>
+      <c r="M56">
+        <v>528600</v>
+      </c>
+      <c r="N56">
+        <v>13127151000</v>
+      </c>
+      <c r="O56">
+        <v>29814900</v>
+      </c>
+      <c r="P56">
+        <v>606513908000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1673953440000</v>
+      </c>
+      <c r="B57">
+        <v>1241800</v>
+      </c>
+      <c r="C57">
+        <v>1325000</v>
+      </c>
+      <c r="D57">
+        <v>6800</v>
+      </c>
+      <c r="E57">
+        <v>26572341000</v>
+      </c>
+      <c r="F57">
+        <v>25724971000</v>
+      </c>
+      <c r="G57">
+        <v>50148000</v>
+      </c>
+      <c r="H57">
+        <v>2573600</v>
+      </c>
+      <c r="I57">
+        <v>52347460000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-17T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4081955235000</v>
+      </c>
+      <c r="L57">
+        <v>229573300</v>
+      </c>
+      <c r="M57">
+        <v>83200</v>
+      </c>
+      <c r="N57">
+        <v>-847370000</v>
+      </c>
+      <c r="O57">
+        <v>29898100</v>
+      </c>
+      <c r="P57">
+        <v>605666538000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1673953560000</v>
+      </c>
+      <c r="B58">
+        <v>1422600</v>
+      </c>
+      <c r="C58">
+        <v>850400</v>
+      </c>
+      <c r="D58">
+        <v>1900</v>
+      </c>
+      <c r="E58">
+        <v>29694188000</v>
+      </c>
+      <c r="F58">
+        <v>15560593000</v>
+      </c>
+      <c r="G58">
+        <v>53890000</v>
+      </c>
+      <c r="H58">
+        <v>2274900</v>
+      </c>
+      <c r="I58">
+        <v>45308671000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-17T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4127263906000</v>
+      </c>
+      <c r="L58">
+        <v>231848200</v>
+      </c>
+      <c r="M58">
+        <v>-572200</v>
+      </c>
+      <c r="N58">
+        <v>-14133595000</v>
+      </c>
+      <c r="O58">
+        <v>29325900</v>
+      </c>
+      <c r="P58">
+        <v>591532943000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1673953680000</v>
+      </c>
+      <c r="B59">
+        <v>1132900</v>
+      </c>
+      <c r="C59">
+        <v>662100</v>
+      </c>
+      <c r="D59">
+        <v>7400</v>
+      </c>
+      <c r="E59">
+        <v>18525121000</v>
+      </c>
+      <c r="F59">
+        <v>11920270000</v>
+      </c>
+      <c r="G59">
+        <v>75969000</v>
+      </c>
+      <c r="H59">
+        <v>1802400</v>
+      </c>
+      <c r="I59">
+        <v>30521360000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-17T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4157785266000</v>
+      </c>
+      <c r="L59">
+        <v>233650600</v>
+      </c>
+      <c r="M59">
+        <v>-470800</v>
+      </c>
+      <c r="N59">
+        <v>-6604851000</v>
+      </c>
+      <c r="O59">
+        <v>28855100</v>
+      </c>
+      <c r="P59">
+        <v>584928092000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1673953800000</v>
+      </c>
+      <c r="B60">
+        <v>1253600</v>
+      </c>
+      <c r="C60">
+        <v>1039800</v>
+      </c>
+      <c r="D60">
+        <v>2500</v>
+      </c>
+      <c r="E60">
+        <v>26303572000</v>
+      </c>
+      <c r="F60">
+        <v>19444451000</v>
+      </c>
+      <c r="G60">
+        <v>80437000</v>
+      </c>
+      <c r="H60">
+        <v>2295900</v>
+      </c>
+      <c r="I60">
+        <v>45828460000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-17T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4203613726000</v>
+      </c>
+      <c r="L60">
+        <v>235946500</v>
+      </c>
+      <c r="M60">
+        <v>-213800</v>
+      </c>
+      <c r="N60">
+        <v>-6859121000</v>
+      </c>
+      <c r="O60">
+        <v>28641300</v>
+      </c>
+      <c r="P60">
+        <v>578068971000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1673953920000</v>
+      </c>
+      <c r="B61">
+        <v>1235300</v>
+      </c>
+      <c r="C61">
+        <v>720900</v>
+      </c>
+      <c r="D61">
+        <v>37700</v>
+      </c>
+      <c r="E61">
+        <v>20415342000</v>
+      </c>
+      <c r="F61">
+        <v>13929332000</v>
+      </c>
+      <c r="G61">
+        <v>1167210000</v>
+      </c>
+      <c r="H61">
+        <v>1993900</v>
+      </c>
+      <c r="I61">
+        <v>35511884000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-17T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4239125610000</v>
+      </c>
+      <c r="L61">
+        <v>237940400</v>
+      </c>
+      <c r="M61">
+        <v>-514400</v>
+      </c>
+      <c r="N61">
+        <v>-6486010000</v>
+      </c>
+      <c r="O61">
+        <v>28126900</v>
+      </c>
+      <c r="P61">
+        <v>571582961000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1673954040000</v>
+      </c>
+      <c r="B62">
+        <v>755200</v>
+      </c>
+      <c r="C62">
+        <v>776500</v>
+      </c>
+      <c r="D62">
+        <v>7400</v>
+      </c>
+      <c r="E62">
+        <v>13451288000</v>
+      </c>
+      <c r="F62">
+        <v>13659716000</v>
+      </c>
+      <c r="G62">
+        <v>77096000</v>
+      </c>
+      <c r="H62">
+        <v>1539100</v>
+      </c>
+      <c r="I62">
+        <v>27188100000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-17T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4266313710000</v>
+      </c>
+      <c r="L62">
+        <v>239479500</v>
+      </c>
+      <c r="M62">
+        <v>21300</v>
+      </c>
+      <c r="N62">
+        <v>208428000</v>
+      </c>
+      <c r="O62">
+        <v>28148200</v>
+      </c>
+      <c r="P62">
+        <v>571791389000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1673954160000</v>
+      </c>
+      <c r="B63">
+        <v>1095700</v>
+      </c>
+      <c r="C63">
+        <v>1514500</v>
+      </c>
+      <c r="D63">
+        <v>1100</v>
+      </c>
+      <c r="E63">
+        <v>21442526000</v>
+      </c>
+      <c r="F63">
+        <v>30100190000</v>
+      </c>
+      <c r="G63">
+        <v>35460000</v>
+      </c>
+      <c r="H63">
+        <v>2611300</v>
+      </c>
+      <c r="I63">
+        <v>51578176000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-17T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4317891886000</v>
+      </c>
+      <c r="L63">
+        <v>242090800</v>
+      </c>
+      <c r="M63">
+        <v>418800</v>
+      </c>
+      <c r="N63">
+        <v>8657664000</v>
+      </c>
+      <c r="O63">
+        <v>28567000</v>
+      </c>
+      <c r="P63">
+        <v>580449053000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1673954280000</v>
+      </c>
+      <c r="B64">
+        <v>821100</v>
+      </c>
+      <c r="C64">
+        <v>2115700</v>
+      </c>
+      <c r="D64">
+        <v>45800</v>
+      </c>
+      <c r="E64">
+        <v>15710384000</v>
+      </c>
+      <c r="F64">
+        <v>39481710000</v>
+      </c>
+      <c r="G64">
+        <v>673447000</v>
+      </c>
+      <c r="H64">
+        <v>2982600</v>
+      </c>
+      <c r="I64">
+        <v>55865541000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-17T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4373757427000</v>
+      </c>
+      <c r="L64">
+        <v>245073400</v>
+      </c>
+      <c r="M64">
+        <v>1294600</v>
+      </c>
+      <c r="N64">
+        <v>23771326000</v>
+      </c>
+      <c r="O64">
+        <v>29861600</v>
+      </c>
+      <c r="P64">
+        <v>604220379000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1673954400000</v>
+      </c>
+      <c r="B65">
+        <v>1614100</v>
+      </c>
+      <c r="C65">
+        <v>1347000</v>
+      </c>
+      <c r="D65">
+        <v>4100</v>
+      </c>
+      <c r="E65">
+        <v>32239790000</v>
+      </c>
+      <c r="F65">
+        <v>27986253000</v>
+      </c>
+      <c r="G65">
+        <v>205900000</v>
+      </c>
+      <c r="H65">
+        <v>2965200</v>
+      </c>
+      <c r="I65">
+        <v>60431943000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-17T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4434189370000</v>
+      </c>
+      <c r="L65">
+        <v>248038600</v>
+      </c>
+      <c r="M65">
+        <v>-267100</v>
+      </c>
+      <c r="N65">
+        <v>-4253537000</v>
+      </c>
+      <c r="O65">
+        <v>29594500</v>
+      </c>
+      <c r="P65">
+        <v>599966842000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1673954520000</v>
+      </c>
+      <c r="B66">
+        <v>1108000</v>
+      </c>
+      <c r="C66">
+        <v>1923300</v>
+      </c>
+      <c r="D66">
+        <v>22500</v>
+      </c>
+      <c r="E66">
+        <v>19844797000</v>
+      </c>
+      <c r="F66">
+        <v>42817927000</v>
+      </c>
+      <c r="G66">
+        <v>382184000</v>
+      </c>
+      <c r="H66">
+        <v>3053800</v>
+      </c>
+      <c r="I66">
+        <v>63044908000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-17T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4497234278000</v>
+      </c>
+      <c r="L66">
+        <v>251092400</v>
+      </c>
+      <c r="M66">
+        <v>815300</v>
+      </c>
+      <c r="N66">
+        <v>22973130000</v>
+      </c>
+      <c r="O66">
+        <v>30409800</v>
+      </c>
+      <c r="P66">
+        <v>622939972000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1673954640000</v>
+      </c>
+      <c r="B67">
+        <v>700800</v>
+      </c>
+      <c r="C67">
+        <v>1328800</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>14559085000</v>
+      </c>
+      <c r="F67">
+        <v>30932496000</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>2029600</v>
+      </c>
+      <c r="I67">
+        <v>45491581000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-17T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4542725859000</v>
+      </c>
+      <c r="L67">
+        <v>253122000</v>
+      </c>
+      <c r="M67">
+        <v>628000</v>
+      </c>
+      <c r="N67">
+        <v>16373411000</v>
+      </c>
+      <c r="O67">
+        <v>31037800</v>
+      </c>
+      <c r="P67">
+        <v>639313383000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1673954760000</v>
+      </c>
+      <c r="B68">
+        <v>1359500</v>
+      </c>
+      <c r="C68">
+        <v>1495000</v>
+      </c>
+      <c r="D68">
+        <v>2000</v>
+      </c>
+      <c r="E68">
+        <v>24232094000</v>
+      </c>
+      <c r="F68">
+        <v>28624846000</v>
+      </c>
+      <c r="G68">
+        <v>31871000</v>
+      </c>
+      <c r="H68">
+        <v>2856500</v>
+      </c>
+      <c r="I68">
+        <v>52888811000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-17T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>4595614670000</v>
+      </c>
+      <c r="L68">
+        <v>255978500</v>
+      </c>
+      <c r="M68">
+        <v>135500</v>
+      </c>
+      <c r="N68">
+        <v>4392752000</v>
+      </c>
+      <c r="O68">
+        <v>31173300</v>
+      </c>
+      <c r="P68">
+        <v>643706135000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1673954880000</v>
+      </c>
+      <c r="B69">
+        <v>807200</v>
+      </c>
+      <c r="C69">
+        <v>2231500</v>
+      </c>
+      <c r="D69">
+        <v>6800</v>
+      </c>
+      <c r="E69">
+        <v>15734558000</v>
+      </c>
+      <c r="F69">
+        <v>37187865000</v>
+      </c>
+      <c r="G69">
+        <v>99226000</v>
+      </c>
+      <c r="H69">
+        <v>3045500</v>
+      </c>
+      <c r="I69">
+        <v>53021649000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-17T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>4648636319000</v>
+      </c>
+      <c r="L69">
+        <v>259024000</v>
+      </c>
+      <c r="M69">
+        <v>1424300</v>
+      </c>
+      <c r="N69">
+        <v>21453307000</v>
+      </c>
+      <c r="O69">
+        <v>32597600</v>
+      </c>
+      <c r="P69">
+        <v>665159442000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1673955000000</v>
+      </c>
+      <c r="B70">
+        <v>11100</v>
+      </c>
+      <c r="C70">
+        <v>11400</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>244130000</v>
+      </c>
+      <c r="F70">
+        <v>274430000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>22500</v>
+      </c>
+      <c r="I70">
+        <v>518560000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-17T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>4649154879000</v>
+      </c>
+      <c r="L70">
+        <v>259046500</v>
+      </c>
+      <c r="M70">
+        <v>300</v>
+      </c>
+      <c r="N70">
+        <v>30300000</v>
+      </c>
+      <c r="O70">
+        <v>32597900</v>
+      </c>
+      <c r="P70">
+        <v>665189742000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1673960400000</v>
+      </c>
+      <c r="B71">
+        <v>3217700</v>
+      </c>
+      <c r="C71">
+        <v>3621800</v>
+      </c>
+      <c r="D71">
+        <v>156500</v>
+      </c>
+      <c r="E71">
+        <v>60366281000</v>
+      </c>
+      <c r="F71">
+        <v>60697850000</v>
+      </c>
+      <c r="G71">
+        <v>2255114000</v>
+      </c>
+      <c r="H71">
+        <v>6996000</v>
+      </c>
+      <c r="I71">
+        <v>123319245000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-17T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>4772474124000</v>
+      </c>
+      <c r="L71">
+        <v>266042500</v>
+      </c>
+      <c r="M71">
+        <v>404100</v>
+      </c>
+      <c r="N71">
+        <v>331569000</v>
+      </c>
+      <c r="O71">
+        <v>33002000</v>
+      </c>
+      <c r="P71">
+        <v>665521311000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1673960520000</v>
+      </c>
+      <c r="B72">
+        <v>1129500</v>
+      </c>
+      <c r="C72">
+        <v>2933900</v>
+      </c>
+      <c r="D72">
+        <v>2600</v>
+      </c>
+      <c r="E72">
+        <v>21632911000</v>
+      </c>
+      <c r="F72">
+        <v>60603037000</v>
+      </c>
+      <c r="G72">
+        <v>48129000</v>
+      </c>
+      <c r="H72">
+        <v>4066000</v>
+      </c>
+      <c r="I72">
+        <v>82284077000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-17T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>4854758201000</v>
+      </c>
+      <c r="L72">
+        <v>270108500</v>
+      </c>
+      <c r="M72">
+        <v>1804400</v>
+      </c>
+      <c r="N72">
+        <v>38970126000</v>
+      </c>
+      <c r="O72">
+        <v>34806400</v>
+      </c>
+      <c r="P72">
+        <v>704491437000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1673960640000</v>
+      </c>
+      <c r="B73">
+        <v>1825200</v>
+      </c>
+      <c r="C73">
+        <v>3488100</v>
+      </c>
+      <c r="D73">
+        <v>4900</v>
+      </c>
+      <c r="E73">
+        <v>35937795000</v>
+      </c>
+      <c r="F73">
+        <v>75935178000</v>
+      </c>
+      <c r="G73">
+        <v>115323000</v>
+      </c>
+      <c r="H73">
+        <v>5318200</v>
+      </c>
+      <c r="I73">
+        <v>111988296000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-17T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>4966746497000</v>
+      </c>
+      <c r="L73">
+        <v>275426700</v>
+      </c>
+      <c r="M73">
+        <v>1662900</v>
+      </c>
+      <c r="N73">
+        <v>39997383000</v>
+      </c>
+      <c r="O73">
+        <v>36469300</v>
+      </c>
+      <c r="P73">
+        <v>744488820000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1673960760000</v>
+      </c>
+      <c r="B74">
+        <v>797900</v>
+      </c>
+      <c r="C74">
+        <v>4024900</v>
+      </c>
+      <c r="D74">
+        <v>21300</v>
+      </c>
+      <c r="E74">
+        <v>13541170000</v>
+      </c>
+      <c r="F74">
+        <v>82050137000</v>
+      </c>
+      <c r="G74">
+        <v>346967000</v>
+      </c>
+      <c r="H74">
+        <v>4844100</v>
+      </c>
+      <c r="I74">
+        <v>95938274000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-17T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>5062684771000</v>
+      </c>
+      <c r="L74">
+        <v>280270800</v>
+      </c>
+      <c r="M74">
+        <v>3227000</v>
+      </c>
+      <c r="N74">
+        <v>68508967000</v>
+      </c>
+      <c r="O74">
+        <v>39696300</v>
+      </c>
+      <c r="P74">
+        <v>812997787000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1673960880000</v>
+      </c>
+      <c r="B75">
+        <v>1628200</v>
+      </c>
+      <c r="C75">
+        <v>4393100</v>
+      </c>
+      <c r="D75">
+        <v>2900</v>
+      </c>
+      <c r="E75">
+        <v>25434213000</v>
+      </c>
+      <c r="F75">
+        <v>69902428000</v>
+      </c>
+      <c r="G75">
+        <v>100340000</v>
+      </c>
+      <c r="H75">
+        <v>6024200</v>
+      </c>
+      <c r="I75">
+        <v>95436981000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-17T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>5158121752000</v>
+      </c>
+      <c r="L75">
+        <v>286295000</v>
+      </c>
+      <c r="M75">
+        <v>2764900</v>
+      </c>
+      <c r="N75">
+        <v>44468215000</v>
+      </c>
+      <c r="O75">
+        <v>42461200</v>
+      </c>
+      <c r="P75">
+        <v>857466002000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1673961000000</v>
+      </c>
+      <c r="B76">
+        <v>1953000</v>
+      </c>
+      <c r="C76">
+        <v>2567200</v>
+      </c>
+      <c r="D76">
+        <v>7900</v>
+      </c>
+      <c r="E76">
+        <v>33574357000</v>
+      </c>
+      <c r="F76">
+        <v>43976951000</v>
+      </c>
+      <c r="G76">
+        <v>363522000</v>
+      </c>
+      <c r="H76">
+        <v>4528100</v>
+      </c>
+      <c r="I76">
+        <v>77914830000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-17T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5236036582000</v>
+      </c>
+      <c r="L76">
+        <v>290823100</v>
+      </c>
+      <c r="M76">
+        <v>614200</v>
+      </c>
+      <c r="N76">
+        <v>10402594000</v>
+      </c>
+      <c r="O76">
+        <v>43075400</v>
+      </c>
+      <c r="P76">
+        <v>867868596000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1673961120000</v>
+      </c>
+      <c r="B77">
+        <v>2400900</v>
+      </c>
+      <c r="C77">
+        <v>2834800</v>
+      </c>
+      <c r="D77">
+        <v>8900</v>
+      </c>
+      <c r="E77">
+        <v>41584030000</v>
+      </c>
+      <c r="F77">
+        <v>42533046000</v>
+      </c>
+      <c r="G77">
+        <v>202861000</v>
+      </c>
+      <c r="H77">
+        <v>5244600</v>
+      </c>
+      <c r="I77">
+        <v>84319937000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-17T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5320356519000</v>
+      </c>
+      <c r="L77">
+        <v>296067700</v>
+      </c>
+      <c r="M77">
+        <v>433900</v>
+      </c>
+      <c r="N77">
+        <v>949016000</v>
+      </c>
+      <c r="O77">
+        <v>43509300</v>
+      </c>
+      <c r="P77">
+        <v>868817612000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1673961240000</v>
+      </c>
+      <c r="B78">
+        <v>2486100</v>
+      </c>
+      <c r="C78">
+        <v>1542200</v>
+      </c>
+      <c r="D78">
+        <v>13000</v>
+      </c>
+      <c r="E78">
+        <v>40259320000</v>
+      </c>
+      <c r="F78">
+        <v>28389099000</v>
+      </c>
+      <c r="G78">
+        <v>551247000</v>
+      </c>
+      <c r="H78">
+        <v>4041300</v>
+      </c>
+      <c r="I78">
+        <v>69199666000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-17T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5389556185000</v>
+      </c>
+      <c r="L78">
+        <v>300109000</v>
+      </c>
+      <c r="M78">
+        <v>-943900</v>
+      </c>
+      <c r="N78">
+        <v>-11870221000</v>
+      </c>
+      <c r="O78">
+        <v>42565400</v>
+      </c>
+      <c r="P78">
+        <v>856947391000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1673961360000</v>
+      </c>
+      <c r="B79">
+        <v>1655200</v>
+      </c>
+      <c r="C79">
+        <v>2722400</v>
+      </c>
+      <c r="D79">
+        <v>1200</v>
+      </c>
+      <c r="E79">
+        <v>26355188000</v>
+      </c>
+      <c r="F79">
+        <v>53818471000</v>
+      </c>
+      <c r="G79">
+        <v>52081000</v>
+      </c>
+      <c r="H79">
+        <v>4378800</v>
+      </c>
+      <c r="I79">
+        <v>80225740000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-17T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>5469781925000</v>
+      </c>
+      <c r="L79">
+        <v>304487800</v>
+      </c>
+      <c r="M79">
+        <v>1067200</v>
+      </c>
+      <c r="N79">
+        <v>27463283000</v>
+      </c>
+      <c r="O79">
+        <v>43632600</v>
+      </c>
+      <c r="P79">
+        <v>884410674000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1673961480000</v>
+      </c>
+      <c r="B80">
+        <v>1618900</v>
+      </c>
+      <c r="C80">
+        <v>2638600</v>
+      </c>
+      <c r="D80">
+        <v>25400</v>
+      </c>
+      <c r="E80">
+        <v>28700141000</v>
+      </c>
+      <c r="F80">
+        <v>46990870000</v>
+      </c>
+      <c r="G80">
+        <v>256316000</v>
+      </c>
+      <c r="H80">
+        <v>4282900</v>
+      </c>
+      <c r="I80">
+        <v>75947327000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-17T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>5545729252000</v>
+      </c>
+      <c r="L80">
+        <v>308770700</v>
+      </c>
+      <c r="M80">
+        <v>1019700</v>
+      </c>
+      <c r="N80">
+        <v>18290729000</v>
+      </c>
+      <c r="O80">
+        <v>44652300</v>
+      </c>
+      <c r="P80">
+        <v>902701403000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1673961600000</v>
+      </c>
+      <c r="B81">
+        <v>1692200</v>
+      </c>
+      <c r="C81">
+        <v>3638200</v>
+      </c>
+      <c r="D81">
+        <v>13200</v>
+      </c>
+      <c r="E81">
+        <v>31903889000</v>
+      </c>
+      <c r="F81">
+        <v>67783044000</v>
+      </c>
+      <c r="G81">
+        <v>188361000</v>
+      </c>
+      <c r="H81">
+        <v>5343600</v>
+      </c>
+      <c r="I81">
+        <v>99875294000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-17T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>5645604546000</v>
+      </c>
+      <c r="L81">
+        <v>314114300</v>
+      </c>
+      <c r="M81">
+        <v>1946000</v>
+      </c>
+      <c r="N81">
+        <v>35879155000</v>
+      </c>
+      <c r="O81">
+        <v>46598300</v>
+      </c>
+      <c r="P81">
+        <v>938580558000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1673961720000</v>
+      </c>
+      <c r="B82">
+        <v>1268700</v>
+      </c>
+      <c r="C82">
+        <v>4056000</v>
+      </c>
+      <c r="D82">
+        <v>22600</v>
+      </c>
+      <c r="E82">
+        <v>21447303000</v>
+      </c>
+      <c r="F82">
+        <v>73969903000</v>
+      </c>
+      <c r="G82">
+        <v>452628000</v>
+      </c>
+      <c r="H82">
+        <v>5347300</v>
+      </c>
+      <c r="I82">
+        <v>95869834000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-17T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>5741474380000</v>
+      </c>
+      <c r="L82">
+        <v>319461600</v>
+      </c>
+      <c r="M82">
+        <v>2787300</v>
+      </c>
+      <c r="N82">
+        <v>52522600000</v>
+      </c>
+      <c r="O82">
+        <v>49385600</v>
+      </c>
+      <c r="P82">
+        <v>991103158000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1673961840000</v>
+      </c>
+      <c r="B83">
+        <v>1236300</v>
+      </c>
+      <c r="C83">
+        <v>4079100</v>
+      </c>
+      <c r="D83">
+        <v>46900</v>
+      </c>
+      <c r="E83">
+        <v>20452516000</v>
+      </c>
+      <c r="F83">
+        <v>68160670000</v>
+      </c>
+      <c r="G83">
+        <v>733093000</v>
+      </c>
+      <c r="H83">
+        <v>5362300</v>
+      </c>
+      <c r="I83">
+        <v>89346279000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-17T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>5830820659000</v>
+      </c>
+      <c r="L83">
+        <v>324823900</v>
+      </c>
+      <c r="M83">
+        <v>2842800</v>
+      </c>
+      <c r="N83">
+        <v>47708154000</v>
+      </c>
+      <c r="O83">
+        <v>52228400</v>
+      </c>
+      <c r="P83">
+        <v>1038811312000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1673961960000</v>
+      </c>
+      <c r="B84">
+        <v>1751200</v>
+      </c>
+      <c r="C84">
+        <v>2839100</v>
+      </c>
+      <c r="D84">
+        <v>4500</v>
+      </c>
+      <c r="E84">
+        <v>30703948000</v>
+      </c>
+      <c r="F84">
+        <v>51496014000</v>
+      </c>
+      <c r="G84">
+        <v>175507000</v>
+      </c>
+      <c r="H84">
+        <v>4594800</v>
+      </c>
+      <c r="I84">
+        <v>82375469000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-17T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>5913196128000</v>
+      </c>
+      <c r="L84">
+        <v>329418700</v>
+      </c>
+      <c r="M84">
+        <v>1087900</v>
+      </c>
+      <c r="N84">
+        <v>20792066000</v>
+      </c>
+      <c r="O84">
+        <v>53316300</v>
+      </c>
+      <c r="P84">
+        <v>1059603378000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1673962080000</v>
+      </c>
+      <c r="B85">
+        <v>1520500</v>
+      </c>
+      <c r="C85">
+        <v>3530200</v>
+      </c>
+      <c r="D85">
+        <v>80000</v>
+      </c>
+      <c r="E85">
+        <v>23250647000</v>
+      </c>
+      <c r="F85">
+        <v>68060725000</v>
+      </c>
+      <c r="G85">
+        <v>723487000</v>
+      </c>
+      <c r="H85">
+        <v>5130700</v>
+      </c>
+      <c r="I85">
+        <v>92034859000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-17T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>6005230987000</v>
+      </c>
+      <c r="L85">
+        <v>334549400</v>
+      </c>
+      <c r="M85">
+        <v>2009700</v>
+      </c>
+      <c r="N85">
+        <v>44810078000</v>
+      </c>
+      <c r="O85">
+        <v>55326000</v>
+      </c>
+      <c r="P85">
+        <v>1104413456000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1673962200000</v>
+      </c>
+      <c r="B86">
+        <v>1263700</v>
+      </c>
+      <c r="C86">
+        <v>2664700</v>
+      </c>
+      <c r="D86">
+        <v>12400</v>
+      </c>
+      <c r="E86">
+        <v>21545604000</v>
+      </c>
+      <c r="F86">
+        <v>50422414000</v>
+      </c>
+      <c r="G86">
+        <v>99740000</v>
+      </c>
+      <c r="H86">
+        <v>3940800</v>
+      </c>
+      <c r="I86">
+        <v>72067758000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-17T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>6077298745000</v>
+      </c>
+      <c r="L86">
+        <v>338490200</v>
+      </c>
+      <c r="M86">
+        <v>1401000</v>
+      </c>
+      <c r="N86">
+        <v>28876810000</v>
+      </c>
+      <c r="O86">
+        <v>56727000</v>
+      </c>
+      <c r="P86">
+        <v>1133290266000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1673962320000</v>
+      </c>
+      <c r="B87">
+        <v>1429800</v>
+      </c>
+      <c r="C87">
+        <v>3310400</v>
+      </c>
+      <c r="D87">
+        <v>16600</v>
+      </c>
+      <c r="E87">
+        <v>24398004000</v>
+      </c>
+      <c r="F87">
+        <v>64389003000</v>
+      </c>
+      <c r="G87">
+        <v>280164000</v>
+      </c>
+      <c r="H87">
+        <v>4756800</v>
+      </c>
+      <c r="I87">
+        <v>89067171000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-17T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>6166365916000</v>
+      </c>
+      <c r="L87">
+        <v>343247000</v>
+      </c>
+      <c r="M87">
+        <v>1880600</v>
+      </c>
+      <c r="N87">
+        <v>39990999000</v>
+      </c>
+      <c r="O87">
+        <v>58607600</v>
+      </c>
+      <c r="P87">
+        <v>1173281265000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1673962440000</v>
+      </c>
+      <c r="B88">
+        <v>1718500</v>
+      </c>
+      <c r="C88">
+        <v>3709800</v>
+      </c>
+      <c r="D88">
+        <v>28100</v>
+      </c>
+      <c r="E88">
+        <v>23394161000</v>
+      </c>
+      <c r="F88">
+        <v>57745606000</v>
+      </c>
+      <c r="G88">
+        <v>491994000</v>
+      </c>
+      <c r="H88">
+        <v>5456400</v>
+      </c>
+      <c r="I88">
+        <v>81631761000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-17T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>6247997677000</v>
+      </c>
+      <c r="L88">
+        <v>348703400</v>
+      </c>
+      <c r="M88">
+        <v>1991300</v>
+      </c>
+      <c r="N88">
+        <v>34351445000</v>
+      </c>
+      <c r="O88">
+        <v>60598900</v>
+      </c>
+      <c r="P88">
+        <v>1207632710000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1673962560000</v>
+      </c>
+      <c r="B89">
+        <v>2018400</v>
+      </c>
+      <c r="C89">
+        <v>3235900</v>
+      </c>
+      <c r="D89">
+        <v>15300</v>
+      </c>
+      <c r="E89">
+        <v>32934926000</v>
+      </c>
+      <c r="F89">
+        <v>60101113000</v>
+      </c>
+      <c r="G89">
+        <v>541210000</v>
+      </c>
+      <c r="H89">
+        <v>5269600</v>
+      </c>
+      <c r="I89">
+        <v>93577249000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-17T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>6341574926000</v>
+      </c>
+      <c r="L89">
+        <v>353973000</v>
+      </c>
+      <c r="M89">
+        <v>1217500</v>
+      </c>
+      <c r="N89">
+        <v>27166187000</v>
+      </c>
+      <c r="O89">
+        <v>61816400</v>
+      </c>
+      <c r="P89">
+        <v>1234798897000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1673962680000</v>
+      </c>
+      <c r="B90">
+        <v>2090000</v>
+      </c>
+      <c r="C90">
+        <v>4051500</v>
+      </c>
+      <c r="D90">
+        <v>4700</v>
+      </c>
+      <c r="E90">
+        <v>36354278000</v>
+      </c>
+      <c r="F90">
+        <v>66909973000</v>
+      </c>
+      <c r="G90">
+        <v>45773000</v>
+      </c>
+      <c r="H90">
+        <v>6146200</v>
+      </c>
+      <c r="I90">
+        <v>103310024000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-17T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>6444884950000</v>
+      </c>
+      <c r="L90">
+        <v>360119200</v>
+      </c>
+      <c r="M90">
+        <v>1961500</v>
+      </c>
+      <c r="N90">
+        <v>30555695000</v>
+      </c>
+      <c r="O90">
+        <v>63777900</v>
+      </c>
+      <c r="P90">
+        <v>1265354592000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1673962800000</v>
+      </c>
+      <c r="B91">
+        <v>2481500</v>
+      </c>
+      <c r="C91">
+        <v>7661400</v>
+      </c>
+      <c r="D91">
+        <v>4800</v>
+      </c>
+      <c r="E91">
+        <v>40658327000</v>
+      </c>
+      <c r="F91">
+        <v>114791760000</v>
+      </c>
+      <c r="G91">
+        <v>148085000</v>
+      </c>
+      <c r="H91">
+        <v>10147700</v>
+      </c>
+      <c r="I91">
+        <v>155598172000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-17T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>6600483122000</v>
+      </c>
+      <c r="L91">
+        <v>370266900</v>
+      </c>
+      <c r="M91">
+        <v>5179900</v>
+      </c>
+      <c r="N91">
+        <v>74133433000</v>
+      </c>
+      <c r="O91">
+        <v>68957800</v>
+      </c>
+      <c r="P91">
+        <v>1339488025000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1673962920000</v>
+      </c>
+      <c r="B92">
+        <v>3218900</v>
+      </c>
+      <c r="C92">
+        <v>3419400</v>
+      </c>
+      <c r="D92">
+        <v>8700</v>
+      </c>
+      <c r="E92">
+        <v>54742971000</v>
+      </c>
+      <c r="F92">
+        <v>53112475000</v>
+      </c>
+      <c r="G92">
+        <v>278577000</v>
+      </c>
+      <c r="H92">
+        <v>6647000</v>
+      </c>
+      <c r="I92">
+        <v>108134023000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-17T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>6708617145000</v>
+      </c>
+      <c r="L92">
+        <v>376913900</v>
+      </c>
+      <c r="M92">
+        <v>200500</v>
+      </c>
+      <c r="N92">
+        <v>-1630496000</v>
+      </c>
+      <c r="O92">
+        <v>69158300</v>
+      </c>
+      <c r="P92">
+        <v>1337857529000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1673963040000</v>
+      </c>
+      <c r="B93">
+        <v>2879500</v>
+      </c>
+      <c r="C93">
+        <v>2582200</v>
+      </c>
+      <c r="D93">
+        <v>3400</v>
+      </c>
+      <c r="E93">
+        <v>46092890000</v>
+      </c>
+      <c r="F93">
+        <v>50706576000</v>
+      </c>
+      <c r="G93">
+        <v>93395000</v>
+      </c>
+      <c r="H93">
+        <v>5465100</v>
+      </c>
+      <c r="I93">
+        <v>96892861000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-17T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>6805510006000</v>
+      </c>
+      <c r="L93">
+        <v>382379000</v>
+      </c>
+      <c r="M93">
+        <v>-297300</v>
+      </c>
+      <c r="N93">
+        <v>4613686000</v>
+      </c>
+      <c r="O93">
+        <v>68861000</v>
+      </c>
+      <c r="P93">
+        <v>1342471215000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1673963160000</v>
+      </c>
+      <c r="B94">
+        <v>3211400</v>
+      </c>
+      <c r="C94">
+        <v>1919400</v>
+      </c>
+      <c r="D94">
+        <v>6700</v>
+      </c>
+      <c r="E94">
+        <v>45728917000</v>
+      </c>
+      <c r="F94">
+        <v>33658754000</v>
+      </c>
+      <c r="G94">
+        <v>125868000</v>
+      </c>
+      <c r="H94">
+        <v>5137500</v>
+      </c>
+      <c r="I94">
+        <v>79513539000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-17T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>6885023545000</v>
+      </c>
+      <c r="L94">
+        <v>387516500</v>
+      </c>
+      <c r="M94">
+        <v>-1292000</v>
+      </c>
+      <c r="N94">
+        <v>-12070163000</v>
+      </c>
+      <c r="O94">
+        <v>67569000</v>
+      </c>
+      <c r="P94">
+        <v>1330401052000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1673963280000</v>
+      </c>
+      <c r="B95">
+        <v>2824100</v>
+      </c>
+      <c r="C95">
+        <v>2562800</v>
+      </c>
+      <c r="D95">
+        <v>20200</v>
+      </c>
+      <c r="E95">
+        <v>44635733000</v>
+      </c>
+      <c r="F95">
+        <v>42084525000</v>
+      </c>
+      <c r="G95">
+        <v>254370000</v>
+      </c>
+      <c r="H95">
+        <v>5407100</v>
+      </c>
+      <c r="I95">
+        <v>86974628000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-17T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6971998173000</v>
+      </c>
+      <c r="L95">
+        <v>392923600</v>
+      </c>
+      <c r="M95">
+        <v>-261300</v>
+      </c>
+      <c r="N95">
+        <v>-2551208000</v>
+      </c>
+      <c r="O95">
+        <v>67307700</v>
+      </c>
+      <c r="P95">
+        <v>1327849844000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1673963400000</v>
+      </c>
+      <c r="B96">
+        <v>3854400</v>
+      </c>
+      <c r="C96">
+        <v>1763500</v>
+      </c>
+      <c r="D96">
+        <v>16300</v>
+      </c>
+      <c r="E96">
+        <v>68875415000</v>
+      </c>
+      <c r="F96">
+        <v>27926913000</v>
+      </c>
+      <c r="G96">
+        <v>230731000</v>
+      </c>
+      <c r="H96">
+        <v>5634200</v>
+      </c>
+      <c r="I96">
+        <v>97033059000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-17T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>7069031232000</v>
+      </c>
+      <c r="L96">
+        <v>398557800</v>
+      </c>
+      <c r="M96">
+        <v>-2090900</v>
+      </c>
+      <c r="N96">
+        <v>-40948502000</v>
+      </c>
+      <c r="O96">
+        <v>65216800</v>
+      </c>
+      <c r="P96">
+        <v>1286901342000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1673963520000</v>
+      </c>
+      <c r="B97">
+        <v>3518500</v>
+      </c>
+      <c r="C97">
+        <v>1480500</v>
+      </c>
+      <c r="D97">
+        <v>16700</v>
+      </c>
+      <c r="E97">
+        <v>62129551000</v>
+      </c>
+      <c r="F97">
+        <v>24020591000</v>
+      </c>
+      <c r="G97">
+        <v>172918000</v>
+      </c>
+      <c r="H97">
+        <v>5015700</v>
+      </c>
+      <c r="I97">
+        <v>86323060000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-17T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>7155354292000</v>
+      </c>
+      <c r="L97">
+        <v>403573500</v>
+      </c>
+      <c r="M97">
+        <v>-2038000</v>
+      </c>
+      <c r="N97">
+        <v>-38108960000</v>
+      </c>
+      <c r="O97">
+        <v>63178800</v>
+      </c>
+      <c r="P97">
+        <v>1248792382000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1673963640000</v>
+      </c>
+      <c r="B98">
+        <v>2923800</v>
+      </c>
+      <c r="C98">
+        <v>1649900</v>
+      </c>
+      <c r="D98">
+        <v>13400</v>
+      </c>
+      <c r="E98">
+        <v>50673915000</v>
+      </c>
+      <c r="F98">
+        <v>27761934000</v>
+      </c>
+      <c r="G98">
+        <v>217135000</v>
+      </c>
+      <c r="H98">
+        <v>4587100</v>
+      </c>
+      <c r="I98">
+        <v>78652984000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-17T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>7234007276000</v>
+      </c>
+      <c r="L98">
+        <v>408160600</v>
+      </c>
+      <c r="M98">
+        <v>-1273900</v>
+      </c>
+      <c r="N98">
+        <v>-22911981000</v>
+      </c>
+      <c r="O98">
+        <v>61904900</v>
+      </c>
+      <c r="P98">
+        <v>1225880401000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1673963760000</v>
+      </c>
+      <c r="B99">
+        <v>2819200</v>
+      </c>
+      <c r="C99">
+        <v>1057600</v>
+      </c>
+      <c r="D99">
+        <v>29400</v>
+      </c>
+      <c r="E99">
+        <v>47706602000</v>
+      </c>
+      <c r="F99">
+        <v>17030851000</v>
+      </c>
+      <c r="G99">
+        <v>531062000</v>
+      </c>
+      <c r="H99">
+        <v>3906200</v>
+      </c>
+      <c r="I99">
+        <v>65268515000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-17T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>7299275791000</v>
+      </c>
+      <c r="L99">
+        <v>412066800</v>
+      </c>
+      <c r="M99">
+        <v>-1761600</v>
+      </c>
+      <c r="N99">
+        <v>-30675751000</v>
+      </c>
+      <c r="O99">
+        <v>60143300</v>
+      </c>
+      <c r="P99">
+        <v>1195204650000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1673963880000</v>
+      </c>
+      <c r="B100">
+        <v>1421100</v>
+      </c>
+      <c r="C100">
+        <v>1496500</v>
+      </c>
+      <c r="D100">
+        <v>200</v>
+      </c>
+      <c r="E100">
+        <v>25028157000</v>
+      </c>
+      <c r="F100">
+        <v>26149478000</v>
+      </c>
+      <c r="G100">
+        <v>2377000</v>
+      </c>
+      <c r="H100">
+        <v>2917800</v>
+      </c>
+      <c r="I100">
+        <v>51180012000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-17T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>7350455803000</v>
+      </c>
+      <c r="L100">
+        <v>414984600</v>
+      </c>
+      <c r="M100">
+        <v>75400</v>
+      </c>
+      <c r="N100">
+        <v>1121321000</v>
+      </c>
+      <c r="O100">
+        <v>60218700</v>
+      </c>
+      <c r="P100">
+        <v>1196325971000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1673964000000</v>
+      </c>
+      <c r="B101">
+        <v>2199300</v>
+      </c>
+      <c r="C101">
+        <v>1753900</v>
+      </c>
+      <c r="D101">
+        <v>9800</v>
+      </c>
+      <c r="E101">
+        <v>41167669000</v>
+      </c>
+      <c r="F101">
+        <v>32097368000</v>
+      </c>
+      <c r="G101">
+        <v>163770000</v>
+      </c>
+      <c r="H101">
+        <v>3963000</v>
+      </c>
+      <c r="I101">
+        <v>73428807000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-17T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>7423884610000</v>
+      </c>
+      <c r="L101">
+        <v>418947600</v>
+      </c>
+      <c r="M101">
+        <v>-445400</v>
+      </c>
+      <c r="N101">
+        <v>-9070301000</v>
+      </c>
+      <c r="O101">
+        <v>59773300</v>
+      </c>
+      <c r="P101">
+        <v>1187255670000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1673964120000</v>
+      </c>
+      <c r="B102">
+        <v>2555800</v>
+      </c>
+      <c r="C102">
+        <v>1385600</v>
+      </c>
+      <c r="D102">
+        <v>10600</v>
+      </c>
+      <c r="E102">
+        <v>48047282000</v>
+      </c>
+      <c r="F102">
+        <v>25342202000</v>
+      </c>
+      <c r="G102">
+        <v>157526000</v>
+      </c>
+      <c r="H102">
+        <v>3952000</v>
+      </c>
+      <c r="I102">
+        <v>73547010000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-17T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>7497431620000</v>
+      </c>
+      <c r="L102">
+        <v>422899600</v>
+      </c>
+      <c r="M102">
+        <v>-1170200</v>
+      </c>
+      <c r="N102">
+        <v>-22705080000</v>
+      </c>
+      <c r="O102">
+        <v>58603100</v>
+      </c>
+      <c r="P102">
+        <v>1164550590000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1673964240000</v>
+      </c>
+      <c r="B103">
+        <v>2621200</v>
+      </c>
+      <c r="C103">
+        <v>2485100</v>
+      </c>
+      <c r="D103">
+        <v>9900</v>
+      </c>
+      <c r="E103">
+        <v>43439280000</v>
+      </c>
+      <c r="F103">
+        <v>46005725000</v>
+      </c>
+      <c r="G103">
+        <v>276978000</v>
+      </c>
+      <c r="H103">
+        <v>5116200</v>
+      </c>
+      <c r="I103">
+        <v>89721983000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-17T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>7587153603000</v>
+      </c>
+      <c r="L103">
+        <v>428015800</v>
+      </c>
+      <c r="M103">
+        <v>-136100</v>
+      </c>
+      <c r="N103">
+        <v>2566445000</v>
+      </c>
+      <c r="O103">
+        <v>58467000</v>
+      </c>
+      <c r="P103">
+        <v>1167117035000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1673964360000</v>
+      </c>
+      <c r="B104">
+        <v>2427500</v>
+      </c>
+      <c r="C104">
+        <v>2821400</v>
+      </c>
+      <c r="D104">
+        <v>12600</v>
+      </c>
+      <c r="E104">
+        <v>40852083000</v>
+      </c>
+      <c r="F104">
+        <v>54230961000</v>
+      </c>
+      <c r="G104">
+        <v>212880000</v>
+      </c>
+      <c r="H104">
+        <v>5261500</v>
+      </c>
+      <c r="I104">
+        <v>95295924000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-17T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>7682449527000</v>
+      </c>
+      <c r="L104">
+        <v>433277300</v>
+      </c>
+      <c r="M104">
+        <v>393900</v>
+      </c>
+      <c r="N104">
+        <v>13378878000</v>
+      </c>
+      <c r="O104">
+        <v>58860900</v>
+      </c>
+      <c r="P104">
+        <v>1180495913000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1673964480000</v>
+      </c>
+      <c r="B105">
+        <v>1592200</v>
+      </c>
+      <c r="C105">
+        <v>4682900</v>
+      </c>
+      <c r="D105">
+        <v>25900</v>
+      </c>
+      <c r="E105">
+        <v>29679104000</v>
+      </c>
+      <c r="F105">
+        <v>72106458000</v>
+      </c>
+      <c r="G105">
+        <v>124605000</v>
+      </c>
+      <c r="H105">
+        <v>6301000</v>
+      </c>
+      <c r="I105">
+        <v>101910167000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-17T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>7784359694000</v>
+      </c>
+      <c r="L105">
+        <v>439578300</v>
+      </c>
+      <c r="M105">
+        <v>3090700</v>
+      </c>
+      <c r="N105">
+        <v>42427354000</v>
+      </c>
+      <c r="O105">
+        <v>61951600</v>
+      </c>
+      <c r="P105">
+        <v>1222923267000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1673964600000</v>
+      </c>
+      <c r="B106">
+        <v>1809000</v>
+      </c>
+      <c r="C106">
+        <v>4738600</v>
+      </c>
+      <c r="D106">
+        <v>18600</v>
+      </c>
+      <c r="E106">
+        <v>29418375000</v>
+      </c>
+      <c r="F106">
+        <v>70032734000</v>
+      </c>
+      <c r="G106">
+        <v>216185000</v>
+      </c>
+      <c r="H106">
+        <v>6566200</v>
+      </c>
+      <c r="I106">
+        <v>99667294000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-17T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>7884026988000</v>
+      </c>
+      <c r="L106">
+        <v>446144500</v>
+      </c>
+      <c r="M106">
+        <v>2929600</v>
+      </c>
+      <c r="N106">
+        <v>40614359000</v>
+      </c>
+      <c r="O106">
+        <v>64881200</v>
+      </c>
+      <c r="P106">
+        <v>1263537626000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1673964720000</v>
+      </c>
+      <c r="B107">
+        <v>1456000</v>
+      </c>
+      <c r="C107">
+        <v>4287800</v>
+      </c>
+      <c r="D107">
+        <v>111200</v>
+      </c>
+      <c r="E107">
+        <v>25299106000</v>
+      </c>
+      <c r="F107">
+        <v>77044142000</v>
+      </c>
+      <c r="G107">
+        <v>2278577000</v>
+      </c>
+      <c r="H107">
+        <v>5855000</v>
+      </c>
+      <c r="I107">
+        <v>104621825000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-17T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7988648813000</v>
+      </c>
+      <c r="L107">
+        <v>451999500</v>
+      </c>
+      <c r="M107">
+        <v>2831800</v>
+      </c>
+      <c r="N107">
+        <v>51745036000</v>
+      </c>
+      <c r="O107">
+        <v>67713000</v>
+      </c>
+      <c r="P107">
+        <v>1315282662000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1673964840000</v>
+      </c>
+      <c r="B108">
+        <v>2534300</v>
+      </c>
+      <c r="C108">
+        <v>4253600</v>
+      </c>
+      <c r="D108">
+        <v>16300</v>
+      </c>
+      <c r="E108">
+        <v>35693008000</v>
+      </c>
+      <c r="F108">
+        <v>80238558000</v>
+      </c>
+      <c r="G108">
+        <v>194331000</v>
+      </c>
+      <c r="H108">
+        <v>6804200</v>
+      </c>
+      <c r="I108">
+        <v>116125897000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-17T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>8104774710000</v>
+      </c>
+      <c r="L108">
+        <v>458803700</v>
+      </c>
+      <c r="M108">
+        <v>1719300</v>
+      </c>
+      <c r="N108">
+        <v>44545550000</v>
+      </c>
+      <c r="O108">
+        <v>69432300</v>
+      </c>
+      <c r="P108">
+        <v>1359828212000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1673964960000</v>
+      </c>
+      <c r="B109">
+        <v>2192500</v>
+      </c>
+      <c r="C109">
+        <v>7671600</v>
+      </c>
+      <c r="D109">
+        <v>5100</v>
+      </c>
+      <c r="E109">
+        <v>36175246000</v>
+      </c>
+      <c r="F109">
+        <v>141305980000</v>
+      </c>
+      <c r="G109">
+        <v>63603000</v>
+      </c>
+      <c r="H109">
+        <v>9869200</v>
+      </c>
+      <c r="I109">
+        <v>177544829000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-17T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>8282319539000</v>
+      </c>
+      <c r="L109">
+        <v>468672900</v>
+      </c>
+      <c r="M109">
+        <v>5479100</v>
+      </c>
+      <c r="N109">
+        <v>105130734000</v>
+      </c>
+      <c r="O109">
+        <v>74911400</v>
+      </c>
+      <c r="P109">
+        <v>1464958946000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1673965080000</v>
+      </c>
+      <c r="B110">
+        <v>1660500</v>
+      </c>
+      <c r="C110">
+        <v>9362700</v>
+      </c>
+      <c r="D110">
+        <v>47400</v>
+      </c>
+      <c r="E110">
+        <v>28447709000</v>
+      </c>
+      <c r="F110">
+        <v>188966619000</v>
+      </c>
+      <c r="G110">
+        <v>661053000</v>
+      </c>
+      <c r="H110">
+        <v>11070600</v>
+      </c>
+      <c r="I110">
+        <v>218075381000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-17T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>8500394920000</v>
+      </c>
+      <c r="L110">
+        <v>479743500</v>
+      </c>
+      <c r="M110">
+        <v>7702200</v>
+      </c>
+      <c r="N110">
+        <v>160518910000</v>
+      </c>
+      <c r="O110">
+        <v>82613600</v>
+      </c>
+      <c r="P110">
+        <v>1625477856000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1673965200000</v>
+      </c>
+      <c r="B111">
+        <v>2516500</v>
+      </c>
+      <c r="C111">
+        <v>10337900</v>
+      </c>
+      <c r="D111">
+        <v>16800</v>
+      </c>
+      <c r="E111">
+        <v>42373189000</v>
+      </c>
+      <c r="F111">
+        <v>197825303000</v>
+      </c>
+      <c r="G111">
+        <v>212664000</v>
+      </c>
+      <c r="H111">
+        <v>12871200</v>
+      </c>
+      <c r="I111">
+        <v>240411156000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-17T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>8740806076000</v>
+      </c>
+      <c r="L111">
+        <v>492614700</v>
+      </c>
+      <c r="M111">
+        <v>7821400</v>
+      </c>
+      <c r="N111">
+        <v>155452114000</v>
+      </c>
+      <c r="O111">
+        <v>90435000</v>
+      </c>
+      <c r="P111">
+        <v>1780929970000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1673965320000</v>
+      </c>
+      <c r="B112">
+        <v>3264400</v>
+      </c>
+      <c r="C112">
+        <v>9467600</v>
+      </c>
+      <c r="D112">
+        <v>40000</v>
+      </c>
+      <c r="E112">
+        <v>52773332000</v>
+      </c>
+      <c r="F112">
+        <v>167627622000</v>
+      </c>
+      <c r="G112">
+        <v>1105506000</v>
+      </c>
+      <c r="H112">
+        <v>12772000</v>
+      </c>
+      <c r="I112">
+        <v>221506460000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-17T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>8962312536000</v>
+      </c>
+      <c r="L112">
+        <v>505386700</v>
+      </c>
+      <c r="M112">
+        <v>6203200</v>
+      </c>
+      <c r="N112">
+        <v>114854290000</v>
+      </c>
+      <c r="O112">
+        <v>96638200</v>
+      </c>
+      <c r="P112">
+        <v>1895784260000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1673965440000</v>
+      </c>
+      <c r="B113">
+        <v>2911800</v>
+      </c>
+      <c r="C113">
+        <v>4800400</v>
+      </c>
+      <c r="D113">
+        <v>17600</v>
+      </c>
+      <c r="E113">
+        <v>52446655000</v>
+      </c>
+      <c r="F113">
+        <v>89879019000</v>
+      </c>
+      <c r="G113">
+        <v>385890000</v>
+      </c>
+      <c r="H113">
+        <v>7729800</v>
+      </c>
+      <c r="I113">
+        <v>142711564000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-17T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>9105024100000</v>
+      </c>
+      <c r="L113">
+        <v>513116500</v>
+      </c>
+      <c r="M113">
+        <v>1888600</v>
+      </c>
+      <c r="N113">
+        <v>37432364000</v>
+      </c>
+      <c r="O113">
+        <v>98526800</v>
+      </c>
+      <c r="P113">
+        <v>1933216624000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1673965560000</v>
+      </c>
+      <c r="B114">
+        <v>3351400</v>
+      </c>
+      <c r="C114">
+        <v>5082400</v>
+      </c>
+      <c r="D114">
+        <v>56600</v>
+      </c>
+      <c r="E114">
+        <v>57777007000</v>
+      </c>
+      <c r="F114">
+        <v>116966772000</v>
+      </c>
+      <c r="G114">
+        <v>1587366000</v>
+      </c>
+      <c r="H114">
+        <v>8490400</v>
+      </c>
+      <c r="I114">
+        <v>176331145000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-17T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>9281355245000</v>
+      </c>
+      <c r="L114">
+        <v>521606900</v>
+      </c>
+      <c r="M114">
+        <v>1731000</v>
+      </c>
+      <c r="N114">
+        <v>59189765000</v>
+      </c>
+      <c r="O114">
+        <v>100257800</v>
+      </c>
+      <c r="P114">
+        <v>1992406389000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1673965680000</v>
+      </c>
+      <c r="B115">
+        <v>4084900</v>
+      </c>
+      <c r="C115">
+        <v>6427800</v>
+      </c>
+      <c r="D115">
+        <v>52100</v>
+      </c>
+      <c r="E115">
+        <v>61924623000</v>
+      </c>
+      <c r="F115">
+        <v>136872667000</v>
+      </c>
+      <c r="G115">
+        <v>1294899000</v>
+      </c>
+      <c r="H115">
+        <v>10564800</v>
+      </c>
+      <c r="I115">
+        <v>200092189000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-17T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>9481447434000</v>
+      </c>
+      <c r="L115">
+        <v>532171700</v>
+      </c>
+      <c r="M115">
+        <v>2342900</v>
+      </c>
+      <c r="N115">
+        <v>74948044000</v>
+      </c>
+      <c r="O115">
+        <v>102600700</v>
+      </c>
+      <c r="P115">
+        <v>2067354433000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1673965800000</v>
+      </c>
+      <c r="B116">
+        <v>8800</v>
+      </c>
+      <c r="C116">
+        <v>76500</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>209298000</v>
+      </c>
+      <c r="F116">
+        <v>1742624000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>85300</v>
+      </c>
+      <c r="I116">
+        <v>1951922000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-17T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>9483399356000</v>
+      </c>
+      <c r="L116">
+        <v>532257000</v>
+      </c>
+      <c r="M116">
+        <v>67700</v>
+      </c>
+      <c r="N116">
+        <v>1533326000</v>
+      </c>
+      <c r="O116">
+        <v>102668400</v>
+      </c>
+      <c r="P116">
+        <v>2068887759000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1673966640000</v>
+      </c>
+      <c r="B117">
         <v>2625000</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>3432700</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>25186100</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>35708926000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>92173904000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>493658324000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>31243800</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>621541154000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-17T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-17T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>10104940510000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>563500800</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>807700</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>56464978000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>103476100</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>2125352737000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230117/VNINDEX_HOSE_5p_20230117.xlsx
+++ b/name/vnindex/20230117/VNINDEX_HOSE_5p_20230117.xlsx
@@ -466,25 +466,25 @@
         <v>2049000</v>
       </c>
       <c r="E2">
-        <v>15418745000</v>
+        <v>13509356300</v>
       </c>
       <c r="F2">
-        <v>34439941000</v>
+        <v>30224460700</v>
       </c>
       <c r="G2">
-        <v>35639149000</v>
+        <v>33011079700</v>
       </c>
       <c r="H2">
         <v>4805100</v>
       </c>
       <c r="I2">
-        <v>85497835000</v>
+        <v>76744896700</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-17T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>85497835000</v>
+        <v>76744896700</v>
       </c>
       <c r="L2">
         <v>4805100</v>
@@ -493,13 +493,13 @@
         <v>709100</v>
       </c>
       <c r="N2">
-        <v>19021196000</v>
+        <v>16715104400</v>
       </c>
       <c r="O2">
         <v>709100</v>
       </c>
       <c r="P2">
-        <v>19021196000</v>
+        <v>16715104400</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>19400</v>
       </c>
       <c r="E3">
-        <v>14025522000</v>
+        <v>12019030500</v>
       </c>
       <c r="F3">
-        <v>45605175000</v>
+        <v>38019468300</v>
       </c>
       <c r="G3">
         <v>750660000</v>
@@ -528,13 +528,13 @@
         <v>3479500</v>
       </c>
       <c r="I3">
-        <v>60381357000</v>
+        <v>50789158800</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-17T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>145879192000</v>
+        <v>127534055500</v>
       </c>
       <c r="L3">
         <v>8284600</v>
@@ -543,13 +543,13 @@
         <v>1740100</v>
       </c>
       <c r="N3">
-        <v>31579653000</v>
+        <v>26000437800</v>
       </c>
       <c r="O3">
         <v>2449200</v>
       </c>
       <c r="P3">
-        <v>50600849000</v>
+        <v>42715542200</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>10700</v>
       </c>
       <c r="E4">
-        <v>26159945000</v>
+        <v>23205202700</v>
       </c>
       <c r="F4">
-        <v>54121423000</v>
+        <v>49650498400</v>
       </c>
       <c r="G4">
-        <v>194880000</v>
+        <v>179895000</v>
       </c>
       <c r="H4">
         <v>4623000</v>
       </c>
       <c r="I4">
-        <v>80476248000</v>
+        <v>73035596100</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-17T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>226355440000</v>
+        <v>200569651600</v>
       </c>
       <c r="L4">
         <v>12907600</v>
@@ -593,13 +593,13 @@
         <v>1409700</v>
       </c>
       <c r="N4">
-        <v>27961478000</v>
+        <v>26445295700</v>
       </c>
       <c r="O4">
         <v>3858900</v>
       </c>
       <c r="P4">
-        <v>78562327000</v>
+        <v>69160837900</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>23400</v>
       </c>
       <c r="E5">
-        <v>28192833000</v>
+        <v>25816911300</v>
       </c>
       <c r="F5">
-        <v>52626114000</v>
+        <v>50141601000</v>
       </c>
       <c r="G5">
-        <v>338487000</v>
+        <v>322003500</v>
       </c>
       <c r="H5">
         <v>4962300</v>
       </c>
       <c r="I5">
-        <v>81157434000</v>
+        <v>76280515800</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-17T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>307512874000</v>
+        <v>276850167400</v>
       </c>
       <c r="L5">
         <v>17869900</v>
@@ -643,13 +643,13 @@
         <v>1489500</v>
       </c>
       <c r="N5">
-        <v>24433281000</v>
+        <v>24324689700</v>
       </c>
       <c r="O5">
         <v>5348400</v>
       </c>
       <c r="P5">
-        <v>102995608000</v>
+        <v>93485527600</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>49000</v>
       </c>
       <c r="E6">
-        <v>32043877000</v>
+        <v>31470351100</v>
       </c>
       <c r="F6">
-        <v>58823009000</v>
+        <v>48198044600</v>
       </c>
       <c r="G6">
-        <v>1047259000</v>
+        <v>1040765500</v>
       </c>
       <c r="H6">
         <v>5053800</v>
       </c>
       <c r="I6">
-        <v>91914145000</v>
+        <v>80709161200</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-17T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>399427019000</v>
+        <v>357559328600</v>
       </c>
       <c r="L6">
         <v>22923700</v>
@@ -693,13 +693,13 @@
         <v>1286400</v>
       </c>
       <c r="N6">
-        <v>26779132000</v>
+        <v>16727693500</v>
       </c>
       <c r="O6">
         <v>6634800</v>
       </c>
       <c r="P6">
-        <v>129774740000</v>
+        <v>110213221100</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>4100</v>
       </c>
       <c r="E7">
-        <v>31081115000</v>
+        <v>29899098200</v>
       </c>
       <c r="F7">
-        <v>47330244000</v>
+        <v>45061115400</v>
       </c>
       <c r="G7">
         <v>42301000</v>
@@ -728,13 +728,13 @@
         <v>4566000</v>
       </c>
       <c r="I7">
-        <v>78453660000</v>
+        <v>75002514600</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-17T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>477880679000</v>
+        <v>432561843200</v>
       </c>
       <c r="L7">
         <v>27489700</v>
@@ -743,13 +743,13 @@
         <v>800500</v>
       </c>
       <c r="N7">
-        <v>16249129000</v>
+        <v>15162017200</v>
       </c>
       <c r="O7">
         <v>7435300</v>
       </c>
       <c r="P7">
-        <v>146023869000</v>
+        <v>125375238300</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>106700</v>
       </c>
       <c r="E8">
-        <v>29693200000</v>
+        <v>27617577700</v>
       </c>
       <c r="F8">
-        <v>39298661000</v>
+        <v>38280080600</v>
       </c>
       <c r="G8">
         <v>731345000</v>
@@ -778,13 +778,13 @@
         <v>3825800</v>
       </c>
       <c r="I8">
-        <v>69723206000</v>
+        <v>66629003300</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-17T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>547603885000</v>
+        <v>499190846500</v>
       </c>
       <c r="L8">
         <v>31315500</v>
@@ -793,13 +793,13 @@
         <v>567500</v>
       </c>
       <c r="N8">
-        <v>9605461000</v>
+        <v>10662502900</v>
       </c>
       <c r="O8">
         <v>8002800</v>
       </c>
       <c r="P8">
-        <v>155629330000</v>
+        <v>136037741200</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>9000</v>
       </c>
       <c r="E9">
-        <v>32282166000</v>
+        <v>31834114500</v>
       </c>
       <c r="F9">
-        <v>52740664000</v>
+        <v>52355849200</v>
       </c>
       <c r="G9">
-        <v>163701000</v>
+        <v>135529200</v>
       </c>
       <c r="H9">
         <v>5367700</v>
       </c>
       <c r="I9">
-        <v>85186531000</v>
+        <v>84325492900</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-17T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>632790416000</v>
+        <v>583516339400</v>
       </c>
       <c r="L9">
         <v>36683200</v>
@@ -843,13 +843,13 @@
         <v>1445100</v>
       </c>
       <c r="N9">
-        <v>20458498000</v>
+        <v>20521734700</v>
       </c>
       <c r="O9">
         <v>9447900</v>
       </c>
       <c r="P9">
-        <v>176087828000</v>
+        <v>156559475900</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>9000</v>
       </c>
       <c r="E10">
-        <v>32215062000</v>
+        <v>31148329800</v>
       </c>
       <c r="F10">
-        <v>61513830000</v>
+        <v>50172882300</v>
       </c>
       <c r="G10">
-        <v>92724000</v>
+        <v>76540200</v>
       </c>
       <c r="H10">
         <v>5381800</v>
       </c>
       <c r="I10">
-        <v>93821616000</v>
+        <v>81397752300</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-17T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>726612032000</v>
+        <v>664914091700</v>
       </c>
       <c r="L10">
         <v>42065000</v>
@@ -893,13 +893,13 @@
         <v>1770200</v>
       </c>
       <c r="N10">
-        <v>29298768000</v>
+        <v>19024552500</v>
       </c>
       <c r="O10">
         <v>11218100</v>
       </c>
       <c r="P10">
-        <v>205386596000</v>
+        <v>175584028400</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>40800</v>
       </c>
       <c r="E11">
-        <v>35376559000</v>
+        <v>34469766700</v>
       </c>
       <c r="F11">
-        <v>40580403000</v>
+        <v>38706179100</v>
       </c>
       <c r="G11">
         <v>427173000</v>
@@ -928,13 +928,13 @@
         <v>4694600</v>
       </c>
       <c r="I11">
-        <v>76384135000</v>
+        <v>73603118800</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-17T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>802996167000</v>
+        <v>738517210500</v>
       </c>
       <c r="L11">
         <v>46759600</v>
@@ -943,13 +943,13 @@
         <v>485800</v>
       </c>
       <c r="N11">
-        <v>5203844000</v>
+        <v>4236412400</v>
       </c>
       <c r="O11">
         <v>11703900</v>
       </c>
       <c r="P11">
-        <v>210590440000</v>
+        <v>179820440800</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>6800</v>
       </c>
       <c r="E12">
-        <v>41052280000</v>
+        <v>39750682900</v>
       </c>
       <c r="F12">
-        <v>44247329000</v>
+        <v>41109270200</v>
       </c>
       <c r="G12">
         <v>65781000</v>
@@ -978,13 +978,13 @@
         <v>4943100</v>
       </c>
       <c r="I12">
-        <v>85365390000</v>
+        <v>80925734100</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-17T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>888361557000</v>
+        <v>819442944600</v>
       </c>
       <c r="L12">
         <v>51702700</v>
@@ -993,13 +993,13 @@
         <v>139300</v>
       </c>
       <c r="N12">
-        <v>3195049000</v>
+        <v>1358587300</v>
       </c>
       <c r="O12">
         <v>11843200</v>
       </c>
       <c r="P12">
-        <v>213785489000</v>
+        <v>181179028100</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>4900</v>
       </c>
       <c r="E13">
-        <v>46436970000</v>
+        <v>43039570800</v>
       </c>
       <c r="F13">
-        <v>38991843000</v>
+        <v>36232505100</v>
       </c>
       <c r="G13">
         <v>40241000</v>
@@ -1028,13 +1028,13 @@
         <v>4456000</v>
       </c>
       <c r="I13">
-        <v>85469054000</v>
+        <v>79312316900</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-17T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>973830611000</v>
+        <v>898755261500</v>
       </c>
       <c r="L13">
         <v>56158700</v>
@@ -1043,13 +1043,13 @@
         <v>-320300</v>
       </c>
       <c r="N13">
-        <v>-7445127000</v>
+        <v>-6807065700</v>
       </c>
       <c r="O13">
         <v>11522900</v>
       </c>
       <c r="P13">
-        <v>206340362000</v>
+        <v>174371962400</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>12300</v>
       </c>
       <c r="E14">
-        <v>40549573000</v>
+        <v>35160767200</v>
       </c>
       <c r="F14">
-        <v>31003144000</v>
+        <v>29404044700</v>
       </c>
       <c r="G14">
         <v>287915000</v>
@@ -1078,13 +1078,13 @@
         <v>4425900</v>
       </c>
       <c r="I14">
-        <v>71840632000</v>
+        <v>64852726900</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-17T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1045671243000</v>
+        <v>963607988400</v>
       </c>
       <c r="L14">
         <v>60584600</v>
@@ -1093,13 +1093,13 @@
         <v>-323800</v>
       </c>
       <c r="N14">
-        <v>-9546429000</v>
+        <v>-5756722500</v>
       </c>
       <c r="O14">
         <v>11199100</v>
       </c>
       <c r="P14">
-        <v>196793933000</v>
+        <v>168615239900</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>5900</v>
       </c>
       <c r="E15">
-        <v>29085387000</v>
+        <v>24337339800</v>
       </c>
       <c r="F15">
-        <v>37376686000</v>
+        <v>35730533800</v>
       </c>
       <c r="G15">
         <v>62089000</v>
@@ -1128,13 +1128,13 @@
         <v>3938800</v>
       </c>
       <c r="I15">
-        <v>66524162000</v>
+        <v>60129962600</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-17T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1112195405000</v>
+        <v>1023737951000</v>
       </c>
       <c r="L15">
         <v>64523400</v>
@@ -1143,13 +1143,13 @@
         <v>281500</v>
       </c>
       <c r="N15">
-        <v>8291299000</v>
+        <v>11393194000</v>
       </c>
       <c r="O15">
         <v>11480600</v>
       </c>
       <c r="P15">
-        <v>205085232000</v>
+        <v>180008433900</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>14500</v>
       </c>
       <c r="E16">
-        <v>27780176000</v>
+        <v>25335123500</v>
       </c>
       <c r="F16">
-        <v>39130937000</v>
+        <v>35916354800</v>
       </c>
       <c r="G16">
-        <v>137922000</v>
+        <v>123436500</v>
       </c>
       <c r="H16">
         <v>3872100</v>
       </c>
       <c r="I16">
-        <v>67049035000</v>
+        <v>61374914800</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-17T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1179244440000</v>
+        <v>1085112865800</v>
       </c>
       <c r="L16">
         <v>68395500</v>
@@ -1193,13 +1193,13 @@
         <v>901800</v>
       </c>
       <c r="N16">
-        <v>11350761000</v>
+        <v>10581231300</v>
       </c>
       <c r="O16">
         <v>12382400</v>
       </c>
       <c r="P16">
-        <v>216435993000</v>
+        <v>190589665200</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>11100</v>
       </c>
       <c r="E17">
-        <v>30849375000</v>
+        <v>29705120400</v>
       </c>
       <c r="F17">
-        <v>45528588000</v>
+        <v>39633089400</v>
       </c>
       <c r="G17">
         <v>254380000</v>
@@ -1228,13 +1228,13 @@
         <v>4123500</v>
       </c>
       <c r="I17">
-        <v>76632343000</v>
+        <v>69592589800</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-17T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1255876783000</v>
+        <v>1154705455600</v>
       </c>
       <c r="L17">
         <v>72519000</v>
@@ -1243,13 +1243,13 @@
         <v>526800</v>
       </c>
       <c r="N17">
-        <v>14679213000</v>
+        <v>9927969000</v>
       </c>
       <c r="O17">
         <v>12909200</v>
       </c>
       <c r="P17">
-        <v>231115206000</v>
+        <v>200517634200</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>9800</v>
       </c>
       <c r="E18">
-        <v>26462232000</v>
+        <v>24282713700</v>
       </c>
       <c r="F18">
-        <v>83366266000</v>
+        <v>81351682600</v>
       </c>
       <c r="G18">
         <v>140634000</v>
@@ -1278,13 +1278,13 @@
         <v>6245200</v>
       </c>
       <c r="I18">
-        <v>109969132000</v>
+        <v>105775030300</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-17T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1365845915000</v>
+        <v>1260480485900</v>
       </c>
       <c r="L18">
         <v>78764200</v>
@@ -1293,13 +1293,13 @@
         <v>3295200</v>
       </c>
       <c r="N18">
-        <v>56904034000</v>
+        <v>57068968900</v>
       </c>
       <c r="O18">
         <v>16204400</v>
       </c>
       <c r="P18">
-        <v>288019240000</v>
+        <v>257586603100</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>10900</v>
       </c>
       <c r="E19">
-        <v>24672829000</v>
+        <v>20033872600</v>
       </c>
       <c r="F19">
-        <v>90160733000</v>
+        <v>77130076700</v>
       </c>
       <c r="G19">
         <v>82979000</v>
@@ -1328,13 +1328,13 @@
         <v>6973800</v>
       </c>
       <c r="I19">
-        <v>114916541000</v>
+        <v>97246928300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-17T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1480762456000</v>
+        <v>1357727414200</v>
       </c>
       <c r="L19">
         <v>85738000</v>
@@ -1343,13 +1343,13 @@
         <v>3973900</v>
       </c>
       <c r="N19">
-        <v>65487904000</v>
+        <v>57096204100</v>
       </c>
       <c r="O19">
         <v>20178300</v>
       </c>
       <c r="P19">
-        <v>353507144000</v>
+        <v>314682807200</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>40000</v>
       </c>
       <c r="E20">
-        <v>29658596000</v>
+        <v>29051403800</v>
       </c>
       <c r="F20">
-        <v>112650745000</v>
+        <v>108336163900</v>
       </c>
       <c r="G20">
         <v>439624000</v>
@@ -1378,13 +1378,13 @@
         <v>8854800</v>
       </c>
       <c r="I20">
-        <v>142748965000</v>
+        <v>137827191700</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-17T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1623511421000</v>
+        <v>1495554605900</v>
       </c>
       <c r="L20">
         <v>94592800</v>
@@ -1393,13 +1393,13 @@
         <v>5634000</v>
       </c>
       <c r="N20">
-        <v>82992149000</v>
+        <v>79284760100</v>
       </c>
       <c r="O20">
         <v>25812300</v>
       </c>
       <c r="P20">
-        <v>436499293000</v>
+        <v>393967567300</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>18000</v>
       </c>
       <c r="E21">
-        <v>22393212000</v>
+        <v>19340967300</v>
       </c>
       <c r="F21">
-        <v>101731466000</v>
+        <v>91406801000</v>
       </c>
       <c r="G21">
         <v>635092000</v>
@@ -1428,13 +1428,13 @@
         <v>6594300</v>
       </c>
       <c r="I21">
-        <v>124759770000</v>
+        <v>111382860300</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-17T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1748271191000</v>
+        <v>1606937466200</v>
       </c>
       <c r="L21">
         <v>101187100</v>
@@ -1443,13 +1443,13 @@
         <v>3930100</v>
       </c>
       <c r="N21">
-        <v>79338254000</v>
+        <v>72065833700</v>
       </c>
       <c r="O21">
         <v>29742400</v>
       </c>
       <c r="P21">
-        <v>515837547000</v>
+        <v>466033401000</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>65400</v>
       </c>
       <c r="E22">
-        <v>33005187000</v>
+        <v>29088108000</v>
       </c>
       <c r="F22">
-        <v>113589398000</v>
+        <v>96452052500</v>
       </c>
       <c r="G22">
-        <v>1027143000</v>
+        <v>896973300</v>
       </c>
       <c r="H22">
         <v>7971700</v>
       </c>
       <c r="I22">
-        <v>147621728000</v>
+        <v>126437133800</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-17T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1895892919000</v>
+        <v>1733374600000</v>
       </c>
       <c r="L22">
         <v>109158800</v>
@@ -1493,13 +1493,13 @@
         <v>4332700</v>
       </c>
       <c r="N22">
-        <v>80584211000</v>
+        <v>67363944500</v>
       </c>
       <c r="O22">
         <v>34075100</v>
       </c>
       <c r="P22">
-        <v>596421758000</v>
+        <v>533397345500</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>19200</v>
       </c>
       <c r="E23">
-        <v>39586652000</v>
+        <v>36898642700</v>
       </c>
       <c r="F23">
-        <v>61142271000</v>
+        <v>60030284100</v>
       </c>
       <c r="G23">
         <v>454850000</v>
@@ -1528,13 +1528,13 @@
         <v>5846700</v>
       </c>
       <c r="I23">
-        <v>101183773000</v>
+        <v>97383776800</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-17T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1997076692000</v>
+        <v>1830758376800</v>
       </c>
       <c r="L23">
         <v>115005500</v>
@@ -1543,13 +1543,13 @@
         <v>1069900</v>
       </c>
       <c r="N23">
-        <v>21555619000</v>
+        <v>23131641400</v>
       </c>
       <c r="O23">
         <v>35145000</v>
       </c>
       <c r="P23">
-        <v>617977377000</v>
+        <v>556528986900</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>19400</v>
       </c>
       <c r="E24">
-        <v>51905717000</v>
+        <v>36598339700</v>
       </c>
       <c r="F24">
-        <v>62825462000</v>
+        <v>60392197700</v>
       </c>
       <c r="G24">
         <v>324141000</v>
@@ -1578,13 +1578,13 @@
         <v>6354800</v>
       </c>
       <c r="I24">
-        <v>115055320000</v>
+        <v>97314678400</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-17T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2112132012000</v>
+        <v>1928073055200</v>
       </c>
       <c r="L24">
         <v>121360300</v>
@@ -1593,13 +1593,13 @@
         <v>579400</v>
       </c>
       <c r="N24">
-        <v>10919745000</v>
+        <v>23793858000</v>
       </c>
       <c r="O24">
         <v>35724400</v>
       </c>
       <c r="P24">
-        <v>628897122000</v>
+        <v>580322844900</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>12000</v>
       </c>
       <c r="E25">
-        <v>42386378000</v>
+        <v>37084185500</v>
       </c>
       <c r="F25">
-        <v>35256070000</v>
+        <v>31108321900</v>
       </c>
       <c r="G25">
         <v>166841000</v>
@@ -1628,13 +1628,13 @@
         <v>4218600</v>
       </c>
       <c r="I25">
-        <v>77809289000</v>
+        <v>68359348400</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-17T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2189941301000</v>
+        <v>1996432403600</v>
       </c>
       <c r="L25">
         <v>125578900</v>
@@ -1643,13 +1643,13 @@
         <v>-331200</v>
       </c>
       <c r="N25">
-        <v>-7130308000</v>
+        <v>-5975863600</v>
       </c>
       <c r="O25">
         <v>35393200</v>
       </c>
       <c r="P25">
-        <v>621766814000</v>
+        <v>574346981300</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>10100</v>
       </c>
       <c r="E26">
-        <v>44162520000</v>
+        <v>43091492100</v>
       </c>
       <c r="F26">
-        <v>33756068000</v>
+        <v>32814610400</v>
       </c>
       <c r="G26">
-        <v>234276000</v>
+        <v>109401000</v>
       </c>
       <c r="H26">
         <v>4256700</v>
       </c>
       <c r="I26">
-        <v>78152864000</v>
+        <v>76015503500</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-17T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2268094165000</v>
+        <v>2072447907100</v>
       </c>
       <c r="L26">
         <v>129835600</v>
@@ -1693,13 +1693,13 @@
         <v>-673200</v>
       </c>
       <c r="N26">
-        <v>-10406452000</v>
+        <v>-10276881700</v>
       </c>
       <c r="O26">
         <v>34720000</v>
       </c>
       <c r="P26">
-        <v>611360362000</v>
+        <v>564070099600</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>22200</v>
       </c>
       <c r="E27">
-        <v>46413696000</v>
+        <v>44203108800</v>
       </c>
       <c r="F27">
-        <v>24043221000</v>
+        <v>22380185700</v>
       </c>
       <c r="G27">
-        <v>248735000</v>
+        <v>242341400</v>
       </c>
       <c r="H27">
         <v>3909200</v>
       </c>
       <c r="I27">
-        <v>70705652000</v>
+        <v>66825635900</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-17T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2338799817000</v>
+        <v>2139273543000</v>
       </c>
       <c r="L27">
         <v>133744800</v>
@@ -1743,13 +1743,13 @@
         <v>-1295800</v>
       </c>
       <c r="N27">
-        <v>-22370475000</v>
+        <v>-21822923100</v>
       </c>
       <c r="O27">
         <v>33424200</v>
       </c>
       <c r="P27">
-        <v>588989887000</v>
+        <v>542247176500</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>23000</v>
       </c>
       <c r="E28">
-        <v>58316025000</v>
+        <v>53756089500</v>
       </c>
       <c r="F28">
-        <v>81347043000</v>
+        <v>47809414200</v>
       </c>
       <c r="G28">
-        <v>356627000</v>
+        <v>346137500</v>
       </c>
       <c r="H28">
         <v>7633000</v>
       </c>
       <c r="I28">
-        <v>140019695000</v>
+        <v>101911641200</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-17T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2478819512000</v>
+        <v>2241185184200</v>
       </c>
       <c r="L28">
         <v>141377800</v>
@@ -1793,13 +1793,13 @@
         <v>698800</v>
       </c>
       <c r="N28">
-        <v>23031018000</v>
+        <v>-5946675300</v>
       </c>
       <c r="O28">
         <v>34123000</v>
       </c>
       <c r="P28">
-        <v>612020905000</v>
+        <v>536300501200</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>11200</v>
       </c>
       <c r="E29">
-        <v>22720230000</v>
+        <v>22314735900</v>
       </c>
       <c r="F29">
-        <v>46762825000</v>
+        <v>45725763100</v>
       </c>
       <c r="G29">
-        <v>169890000</v>
+        <v>158501400</v>
       </c>
       <c r="H29">
         <v>3995000</v>
       </c>
       <c r="I29">
-        <v>69652945000</v>
+        <v>68199000400</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-17T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2548472457000</v>
+        <v>2309384184600</v>
       </c>
       <c r="L29">
         <v>145372800</v>
@@ -1843,13 +1843,13 @@
         <v>1114800</v>
       </c>
       <c r="N29">
-        <v>24042595000</v>
+        <v>23411027200</v>
       </c>
       <c r="O29">
         <v>35237800</v>
       </c>
       <c r="P29">
-        <v>636063500000</v>
+        <v>559711528400</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>2400</v>
       </c>
       <c r="E30">
-        <v>42722149000</v>
+        <v>41636236000</v>
       </c>
       <c r="F30">
-        <v>41067021000</v>
+        <v>33787308000</v>
       </c>
       <c r="G30">
         <v>42985000</v>
@@ -1878,13 +1878,13 @@
         <v>5464200</v>
       </c>
       <c r="I30">
-        <v>83832155000</v>
+        <v>75466529000</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-17T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2632304612000</v>
+        <v>2384850713600</v>
       </c>
       <c r="L30">
         <v>150837000</v>
@@ -1893,13 +1893,13 @@
         <v>-839800</v>
       </c>
       <c r="N30">
-        <v>-1655128000</v>
+        <v>-7848928000</v>
       </c>
       <c r="O30">
         <v>34398000</v>
       </c>
       <c r="P30">
-        <v>634408372000</v>
+        <v>551862600400</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>14400</v>
       </c>
       <c r="E31">
-        <v>36175203000</v>
+        <v>35263415700</v>
       </c>
       <c r="F31">
-        <v>50451083000</v>
+        <v>46624413500</v>
       </c>
       <c r="G31">
-        <v>192584000</v>
+        <v>181495100</v>
       </c>
       <c r="H31">
         <v>4503400</v>
       </c>
       <c r="I31">
-        <v>86818870000</v>
+        <v>82069324300</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-17T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2719123482000</v>
+        <v>2466920037900</v>
       </c>
       <c r="L31">
         <v>155340400</v>
@@ -1943,13 +1943,13 @@
         <v>500000</v>
       </c>
       <c r="N31">
-        <v>14275880000</v>
+        <v>11360997800</v>
       </c>
       <c r="O31">
         <v>34898000</v>
       </c>
       <c r="P31">
-        <v>648684252000</v>
+        <v>563223598200</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>9800</v>
       </c>
       <c r="E32">
-        <v>28432022000</v>
+        <v>25726630100</v>
       </c>
       <c r="F32">
-        <v>40761705000</v>
+        <v>39180587700</v>
       </c>
       <c r="G32">
         <v>97340000</v>
@@ -1978,13 +1978,13 @@
         <v>3940400</v>
       </c>
       <c r="I32">
-        <v>69291067000</v>
+        <v>65004557800</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-17T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2788414549000</v>
+        <v>2531924595700</v>
       </c>
       <c r="L32">
         <v>159280800</v>
@@ -1993,13 +1993,13 @@
         <v>276000</v>
       </c>
       <c r="N32">
-        <v>12329683000</v>
+        <v>13453957600</v>
       </c>
       <c r="O32">
         <v>35174000</v>
       </c>
       <c r="P32">
-        <v>661013935000</v>
+        <v>576677555800</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>6900</v>
       </c>
       <c r="E33">
-        <v>34109697000</v>
+        <v>24767348700</v>
       </c>
       <c r="F33">
-        <v>34161295000</v>
+        <v>29174886400</v>
       </c>
       <c r="G33">
-        <v>216466000</v>
+        <v>87095500</v>
       </c>
       <c r="H33">
         <v>3342000</v>
       </c>
       <c r="I33">
-        <v>68487458000</v>
+        <v>54029330600</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-17T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2856902007000</v>
+        <v>2585953926300</v>
       </c>
       <c r="L33">
         <v>162622800</v>
@@ -2043,13 +2043,13 @@
         <v>-358900</v>
       </c>
       <c r="N33">
-        <v>51598000</v>
+        <v>4407537700</v>
       </c>
       <c r="O33">
         <v>34815100</v>
       </c>
       <c r="P33">
-        <v>661065533000</v>
+        <v>581085093500</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>5800</v>
       </c>
       <c r="E34">
-        <v>21962744000</v>
+        <v>20296911500</v>
       </c>
       <c r="F34">
-        <v>36184734000</v>
+        <v>31681341900</v>
       </c>
       <c r="G34">
         <v>72259000</v>
@@ -2078,13 +2078,13 @@
         <v>2799500</v>
       </c>
       <c r="I34">
-        <v>58219737000</v>
+        <v>52050512400</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-17T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2915121744000</v>
+        <v>2638004438700</v>
       </c>
       <c r="L34">
         <v>165422300</v>
@@ -2093,13 +2093,13 @@
         <v>471300</v>
       </c>
       <c r="N34">
-        <v>14221990000</v>
+        <v>11384430400</v>
       </c>
       <c r="O34">
         <v>35286400</v>
       </c>
       <c r="P34">
-        <v>675287523000</v>
+        <v>592469523900</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>11400</v>
       </c>
       <c r="E35">
-        <v>31903245000</v>
+        <v>28892159100</v>
       </c>
       <c r="F35">
-        <v>30942974000</v>
+        <v>26846574500</v>
       </c>
       <c r="G35">
         <v>197543000</v>
@@ -2128,13 +2128,13 @@
         <v>3375000</v>
       </c>
       <c r="I35">
-        <v>63043762000</v>
+        <v>55936276600</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-17T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2978165506000</v>
+        <v>2693940715300</v>
       </c>
       <c r="L35">
         <v>168797300</v>
@@ -2143,13 +2143,13 @@
         <v>-756200</v>
       </c>
       <c r="N35">
-        <v>-960271000</v>
+        <v>-2045584600</v>
       </c>
       <c r="O35">
         <v>34530200</v>
       </c>
       <c r="P35">
-        <v>674327252000</v>
+        <v>590423939300</v>
       </c>
     </row>
     <row r="36">
@@ -2166,25 +2166,25 @@
         <v>5400</v>
       </c>
       <c r="E36">
-        <v>39124485000</v>
+        <v>36493418700</v>
       </c>
       <c r="F36">
-        <v>36527022000</v>
+        <v>29534221800</v>
       </c>
       <c r="G36">
-        <v>78800000</v>
+        <v>78000800</v>
       </c>
       <c r="H36">
         <v>3961100</v>
       </c>
       <c r="I36">
-        <v>75730307000</v>
+        <v>66105641300</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-17T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3053895813000</v>
+        <v>2760046356600</v>
       </c>
       <c r="L36">
         <v>172758400</v>
@@ -2193,13 +2193,13 @@
         <v>-363900</v>
       </c>
       <c r="N36">
-        <v>-2597463000</v>
+        <v>-6959196900</v>
       </c>
       <c r="O36">
         <v>34166300</v>
       </c>
       <c r="P36">
-        <v>671729789000</v>
+        <v>583464742400</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>2700</v>
       </c>
       <c r="E37">
-        <v>24071045000</v>
+        <v>19330790000</v>
       </c>
       <c r="F37">
-        <v>26095631000</v>
+        <v>24930497300</v>
       </c>
       <c r="G37">
         <v>77400000</v>
@@ -2228,13 +2228,13 @@
         <v>2681000</v>
       </c>
       <c r="I37">
-        <v>50244076000</v>
+        <v>44338687300</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-17T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3104139889000</v>
+        <v>2804385043900</v>
       </c>
       <c r="L37">
         <v>175439400</v>
@@ -2243,13 +2243,13 @@
         <v>256300</v>
       </c>
       <c r="N37">
-        <v>2024586000</v>
+        <v>5599707300</v>
       </c>
       <c r="O37">
         <v>34422600</v>
       </c>
       <c r="P37">
-        <v>673754375000</v>
+        <v>589064449700</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>147900</v>
       </c>
       <c r="E38">
-        <v>29227978000</v>
+        <v>25979729500</v>
       </c>
       <c r="F38">
-        <v>40115878000</v>
+        <v>35567530900</v>
       </c>
       <c r="G38">
-        <v>1868860000</v>
+        <v>1813815100</v>
       </c>
       <c r="H38">
         <v>3882800</v>
       </c>
       <c r="I38">
-        <v>71212716000</v>
+        <v>63361075500</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-17T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3175352605000</v>
+        <v>2867746119400</v>
       </c>
       <c r="L38">
         <v>179322200</v>
@@ -2293,13 +2293,13 @@
         <v>577500</v>
       </c>
       <c r="N38">
-        <v>10887900000</v>
+        <v>9587801400</v>
       </c>
       <c r="O38">
         <v>35000100</v>
       </c>
       <c r="P38">
-        <v>684642275000</v>
+        <v>598652251100</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>17400</v>
       </c>
       <c r="E39">
-        <v>33653481000</v>
+        <v>30956181000</v>
       </c>
       <c r="F39">
-        <v>17225771000</v>
+        <v>16452844700</v>
       </c>
       <c r="G39">
         <v>253882000</v>
@@ -2328,13 +2328,13 @@
         <v>2969200</v>
       </c>
       <c r="I39">
-        <v>51133134000</v>
+        <v>47662907700</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-17T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3226485739000</v>
+        <v>2915409027100</v>
       </c>
       <c r="L39">
         <v>182291400</v>
@@ -2343,13 +2343,13 @@
         <v>-744800</v>
       </c>
       <c r="N39">
-        <v>-16427710000</v>
+        <v>-14503336300</v>
       </c>
       <c r="O39">
         <v>34255300</v>
       </c>
       <c r="P39">
-        <v>668214565000</v>
+        <v>584148914800</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>3800</v>
       </c>
       <c r="E40">
-        <v>39017001000</v>
+        <v>29377050600</v>
       </c>
       <c r="F40">
-        <v>16537650000</v>
+        <v>15264924000</v>
       </c>
       <c r="G40">
-        <v>46650000</v>
+        <v>42953700</v>
       </c>
       <c r="H40">
         <v>2968900</v>
       </c>
       <c r="I40">
-        <v>55601301000</v>
+        <v>44684928300</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-17T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3282087040000</v>
+        <v>2960093955400</v>
       </c>
       <c r="L40">
         <v>185260300</v>
@@ -2393,13 +2393,13 @@
         <v>-987300</v>
       </c>
       <c r="N40">
-        <v>-22479351000</v>
+        <v>-14112126600</v>
       </c>
       <c r="O40">
         <v>33268000</v>
       </c>
       <c r="P40">
-        <v>645735214000</v>
+        <v>570036788200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>3900</v>
       </c>
       <c r="E41">
-        <v>35420399000</v>
+        <v>33608712500</v>
       </c>
       <c r="F41">
-        <v>15049633000</v>
+        <v>14405377900</v>
       </c>
       <c r="G41">
-        <v>94984000</v>
+        <v>50029000</v>
       </c>
       <c r="H41">
         <v>2674900</v>
       </c>
       <c r="I41">
-        <v>50565016000</v>
+        <v>48064119400</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-17T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3332652056000</v>
+        <v>3008158074800</v>
       </c>
       <c r="L41">
         <v>187935200</v>
@@ -2443,13 +2443,13 @@
         <v>-1005000</v>
       </c>
       <c r="N41">
-        <v>-20370766000</v>
+        <v>-19203334600</v>
       </c>
       <c r="O41">
         <v>32263000</v>
       </c>
       <c r="P41">
-        <v>625364448000</v>
+        <v>550833453600</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>2800</v>
       </c>
       <c r="E42">
-        <v>30878125000</v>
+        <v>29025979000</v>
       </c>
       <c r="F42">
-        <v>27230361000</v>
+        <v>19977121500</v>
       </c>
       <c r="G42">
         <v>69956000</v>
@@ -2478,13 +2478,13 @@
         <v>3228000</v>
       </c>
       <c r="I42">
-        <v>58178442000</v>
+        <v>49073056500</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-17T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3390830498000</v>
+        <v>3057231131300</v>
       </c>
       <c r="L42">
         <v>191163200</v>
@@ -2493,13 +2493,13 @@
         <v>-95000</v>
       </c>
       <c r="N42">
-        <v>-3647764000</v>
+        <v>-9048857500</v>
       </c>
       <c r="O42">
         <v>32168000</v>
       </c>
       <c r="P42">
-        <v>621716684000</v>
+        <v>541784596100</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>3000</v>
       </c>
       <c r="E43">
-        <v>21312582000</v>
+        <v>20092103700</v>
       </c>
       <c r="F43">
-        <v>23889120000</v>
+        <v>18333481200</v>
       </c>
       <c r="G43">
         <v>27150000.000000004</v>
@@ -2528,13 +2528,13 @@
         <v>2453700</v>
       </c>
       <c r="I43">
-        <v>45228852000</v>
+        <v>38452734900</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-17T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3436059350000</v>
+        <v>3095683866200</v>
       </c>
       <c r="L43">
         <v>193616900</v>
@@ -2543,13 +2543,13 @@
         <v>50300</v>
       </c>
       <c r="N43">
-        <v>2576538000</v>
+        <v>-1758622500</v>
       </c>
       <c r="O43">
         <v>32218300</v>
       </c>
       <c r="P43">
-        <v>624293222000</v>
+        <v>540025973600</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>3200</v>
       </c>
       <c r="E44">
-        <v>22138335000</v>
+        <v>20307168000</v>
       </c>
       <c r="F44">
-        <v>23889691000</v>
+        <v>20241742600</v>
       </c>
       <c r="G44">
         <v>85183000</v>
@@ -2578,13 +2578,13 @@
         <v>2424700</v>
       </c>
       <c r="I44">
-        <v>46113209000</v>
+        <v>40634093600</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-17T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3482172559000</v>
+        <v>3136317959800</v>
       </c>
       <c r="L44">
         <v>196041600</v>
@@ -2593,13 +2593,13 @@
         <v>204900</v>
       </c>
       <c r="N44">
-        <v>1751356000</v>
+        <v>-65425400</v>
       </c>
       <c r="O44">
         <v>32423200</v>
       </c>
       <c r="P44">
-        <v>626044578000</v>
+        <v>539960548200</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>3500</v>
       </c>
       <c r="E45">
-        <v>16777776000</v>
+        <v>14132723700</v>
       </c>
       <c r="F45">
-        <v>24608093000</v>
+        <v>20896108700</v>
       </c>
       <c r="G45">
         <v>35980000</v>
@@ -2628,13 +2628,13 @@
         <v>2366000</v>
       </c>
       <c r="I45">
-        <v>41421849000</v>
+        <v>35064812400</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-17T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3523594408000</v>
+        <v>3171382772200</v>
       </c>
       <c r="L45">
         <v>198407600</v>
@@ -2643,13 +2643,13 @@
         <v>568500</v>
       </c>
       <c r="N45">
-        <v>7830317000</v>
+        <v>6763385000</v>
       </c>
       <c r="O45">
         <v>32991700</v>
       </c>
       <c r="P45">
-        <v>633874895000</v>
+        <v>546723933200</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>10600</v>
       </c>
       <c r="E46">
-        <v>21842897000</v>
+        <v>16700844200</v>
       </c>
       <c r="F46">
-        <v>12690558000</v>
+        <v>11610539100</v>
       </c>
       <c r="G46">
         <v>83535000</v>
@@ -2678,13 +2678,13 @@
         <v>2110800</v>
       </c>
       <c r="I46">
-        <v>34616990000</v>
+        <v>28394918300</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-17T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3558211398000</v>
+        <v>3199777690500</v>
       </c>
       <c r="L46">
         <v>200518400</v>
@@ -2693,13 +2693,13 @@
         <v>-577600</v>
       </c>
       <c r="N46">
-        <v>-9152339000</v>
+        <v>-5090305100</v>
       </c>
       <c r="O46">
         <v>32414100</v>
       </c>
       <c r="P46">
-        <v>624722556000</v>
+        <v>541633628100</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>2500</v>
       </c>
       <c r="E47">
-        <v>24079918000</v>
+        <v>19578823600</v>
       </c>
       <c r="F47">
-        <v>9244395000</v>
+        <v>8608032000</v>
       </c>
       <c r="G47">
         <v>14605000</v>
@@ -2728,13 +2728,13 @@
         <v>2128000</v>
       </c>
       <c r="I47">
-        <v>33338918000</v>
+        <v>28201460600</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-17T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3591550316000</v>
+        <v>3227979151100</v>
       </c>
       <c r="L47">
         <v>202646400</v>
@@ -2743,13 +2743,13 @@
         <v>-1002500</v>
       </c>
       <c r="N47">
-        <v>-14835523000</v>
+        <v>-10970791600</v>
       </c>
       <c r="O47">
         <v>31411600</v>
       </c>
       <c r="P47">
-        <v>609887033000</v>
+        <v>530662836500</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>4800</v>
       </c>
       <c r="E48">
-        <v>33606361000</v>
+        <v>30355015600</v>
       </c>
       <c r="F48">
-        <v>18421476000</v>
+        <v>16443555900</v>
       </c>
       <c r="G48">
         <v>70648000</v>
@@ -2778,13 +2778,13 @@
         <v>2841900</v>
       </c>
       <c r="I48">
-        <v>52098485000</v>
+        <v>46869219500</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-17T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3643648801000</v>
+        <v>3274848370600</v>
       </c>
       <c r="L48">
         <v>205488300</v>
@@ -2793,13 +2793,13 @@
         <v>-768100</v>
       </c>
       <c r="N48">
-        <v>-15184885000</v>
+        <v>-13911459700</v>
       </c>
       <c r="O48">
         <v>30643500</v>
       </c>
       <c r="P48">
-        <v>594702148000</v>
+        <v>516751376800</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>900</v>
       </c>
       <c r="E49">
-        <v>43968313000</v>
+        <v>39672213400</v>
       </c>
       <c r="F49">
-        <v>18832706000</v>
+        <v>17703836000</v>
       </c>
       <c r="G49">
         <v>11464000</v>
@@ -2828,13 +2828,13 @@
         <v>4118200</v>
       </c>
       <c r="I49">
-        <v>62812483000</v>
+        <v>57387513400</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-17T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>3706461284000</v>
+        <v>3332235884000</v>
       </c>
       <c r="L49">
         <v>209606500</v>
@@ -2843,13 +2843,13 @@
         <v>-1946300</v>
       </c>
       <c r="N49">
-        <v>-25135607000</v>
+        <v>-21968377400</v>
       </c>
       <c r="O49">
         <v>28697200</v>
       </c>
       <c r="P49">
-        <v>569566541000</v>
+        <v>494782999400</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>2900</v>
       </c>
       <c r="E50">
-        <v>28538272000</v>
+        <v>25838074900</v>
       </c>
       <c r="F50">
-        <v>25709274000</v>
+        <v>18090999900</v>
       </c>
       <c r="G50">
         <v>81387000</v>
@@ -2878,13 +2878,13 @@
         <v>3076200</v>
       </c>
       <c r="I50">
-        <v>54328933000</v>
+        <v>44010461800</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-17T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>3760790217000</v>
+        <v>3376246345800</v>
       </c>
       <c r="L50">
         <v>212682700</v>
@@ -2893,13 +2893,13 @@
         <v>-245700</v>
       </c>
       <c r="N50">
-        <v>-2828998000</v>
+        <v>-7747075000</v>
       </c>
       <c r="O50">
         <v>28451500</v>
       </c>
       <c r="P50">
-        <v>566737543000</v>
+        <v>487035924400</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>14900</v>
       </c>
       <c r="E51">
-        <v>28163785000</v>
+        <v>25925525500</v>
       </c>
       <c r="F51">
-        <v>20560067000</v>
+        <v>19517710400</v>
       </c>
       <c r="G51">
-        <v>217525000</v>
+        <v>191451100</v>
       </c>
       <c r="H51">
         <v>2638900</v>
       </c>
       <c r="I51">
-        <v>48941377000</v>
+        <v>45634687000</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-17T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>3809731594000</v>
+        <v>3421881032800</v>
       </c>
       <c r="L51">
         <v>215321600</v>
@@ -2943,13 +2943,13 @@
         <v>-725000</v>
       </c>
       <c r="N51">
-        <v>-7603718000</v>
+        <v>-6407815100</v>
       </c>
       <c r="O51">
         <v>27726500</v>
       </c>
       <c r="P51">
-        <v>559133825000</v>
+        <v>480628109300</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>11600</v>
       </c>
       <c r="E52">
-        <v>17273735000</v>
+        <v>16449759800</v>
       </c>
       <c r="F52">
-        <v>20388813000</v>
+        <v>19458444300</v>
       </c>
       <c r="G52">
         <v>466662000</v>
@@ -2978,13 +2978,13 @@
         <v>2210000</v>
       </c>
       <c r="I52">
-        <v>38129210000</v>
+        <v>36374866100</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-17T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>3847860804000</v>
+        <v>3458255898900</v>
       </c>
       <c r="L52">
         <v>217531600</v>
@@ -2993,13 +2993,13 @@
         <v>-24600</v>
       </c>
       <c r="N52">
-        <v>3115078000</v>
+        <v>3008684500</v>
       </c>
       <c r="O52">
         <v>27701900</v>
       </c>
       <c r="P52">
-        <v>562248903000</v>
+        <v>483636793800</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>4300</v>
       </c>
       <c r="E53">
-        <v>23559011000</v>
+        <v>21519852200</v>
       </c>
       <c r="F53">
-        <v>25352952000</v>
+        <v>24405900000</v>
       </c>
       <c r="G53">
         <v>179143000</v>
@@ -3028,13 +3028,13 @@
         <v>2633400</v>
       </c>
       <c r="I53">
-        <v>49091106000</v>
+        <v>46104895200</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-17T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>3896951910000</v>
+        <v>3504360794100</v>
       </c>
       <c r="L53">
         <v>220165000</v>
@@ -3043,13 +3043,13 @@
         <v>7900</v>
       </c>
       <c r="N53">
-        <v>1793941000</v>
+        <v>2886047800</v>
       </c>
       <c r="O53">
         <v>27709800</v>
       </c>
       <c r="P53">
-        <v>564042844000</v>
+        <v>486522841600</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>17724509000</v>
+        <v>17043191000</v>
       </c>
       <c r="F54">
-        <v>24810518000</v>
+        <v>21360771200</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3078,13 +3078,13 @@
         <v>2394600</v>
       </c>
       <c r="I54">
-        <v>42535027000</v>
+        <v>38403962200</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-17T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>3939486937000</v>
+        <v>3542764756300</v>
       </c>
       <c r="L54">
         <v>222559600</v>
@@ -3093,13 +3093,13 @@
         <v>393400</v>
       </c>
       <c r="N54">
-        <v>7086009000</v>
+        <v>4317580200</v>
       </c>
       <c r="O54">
         <v>28103200</v>
       </c>
       <c r="P54">
-        <v>571128853000</v>
+        <v>490840421800</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>3800</v>
       </c>
       <c r="E55">
-        <v>13404903000</v>
+        <v>11159950200</v>
       </c>
       <c r="F55">
-        <v>35662807000</v>
+        <v>35189380900</v>
       </c>
       <c r="G55">
         <v>33997000</v>
@@ -3128,13 +3128,13 @@
         <v>2353100</v>
       </c>
       <c r="I55">
-        <v>49101707000</v>
+        <v>46383328100</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-17T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>3988588644000</v>
+        <v>3589148084400</v>
       </c>
       <c r="L55">
         <v>224912700</v>
@@ -3143,13 +3143,13 @@
         <v>1183100</v>
       </c>
       <c r="N55">
-        <v>22257904000</v>
+        <v>24029430700</v>
       </c>
       <c r="O55">
         <v>29286300</v>
       </c>
       <c r="P55">
-        <v>593386757000</v>
+        <v>514869852500</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>13800</v>
       </c>
       <c r="E56">
-        <v>13829650000</v>
+        <v>12933147400</v>
       </c>
       <c r="F56">
-        <v>26956801000</v>
+        <v>26181876700</v>
       </c>
       <c r="G56">
         <v>232680000</v>
@@ -3178,13 +3178,13 @@
         <v>2087000</v>
       </c>
       <c r="I56">
-        <v>41019131000</v>
+        <v>39347704100</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-17T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4029607775000</v>
+        <v>3628495788500</v>
       </c>
       <c r="L56">
         <v>226999700</v>
@@ -3193,13 +3193,13 @@
         <v>528600</v>
       </c>
       <c r="N56">
-        <v>13127151000</v>
+        <v>13248729300</v>
       </c>
       <c r="O56">
         <v>29814900</v>
       </c>
       <c r="P56">
-        <v>606513908000</v>
+        <v>528118581800</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>6800</v>
       </c>
       <c r="E57">
-        <v>26572341000</v>
+        <v>22002815100</v>
       </c>
       <c r="F57">
-        <v>25724971000</v>
+        <v>21442657600</v>
       </c>
       <c r="G57">
         <v>50148000</v>
@@ -3228,13 +3228,13 @@
         <v>2573600</v>
       </c>
       <c r="I57">
-        <v>52347460000</v>
+        <v>43495620700</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-17T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4081955235000</v>
+        <v>3671991409200</v>
       </c>
       <c r="L57">
         <v>229573300</v>
@@ -3243,13 +3243,13 @@
         <v>83200</v>
       </c>
       <c r="N57">
-        <v>-847370000</v>
+        <v>-560157500</v>
       </c>
       <c r="O57">
         <v>29898100</v>
       </c>
       <c r="P57">
-        <v>605666538000</v>
+        <v>527558424300</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>1900</v>
       </c>
       <c r="E58">
-        <v>29694188000</v>
+        <v>26605779500</v>
       </c>
       <c r="F58">
-        <v>15560593000</v>
+        <v>14502751900</v>
       </c>
       <c r="G58">
-        <v>53890000</v>
+        <v>8935000</v>
       </c>
       <c r="H58">
         <v>2274900</v>
       </c>
       <c r="I58">
-        <v>45308671000</v>
+        <v>41117466400</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-17T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4127263906000</v>
+        <v>3713108875600</v>
       </c>
       <c r="L58">
         <v>231848200</v>
@@ -3293,13 +3293,13 @@
         <v>-572200</v>
       </c>
       <c r="N58">
-        <v>-14133595000</v>
+        <v>-12103027600</v>
       </c>
       <c r="O58">
         <v>29325900</v>
       </c>
       <c r="P58">
-        <v>591532943000</v>
+        <v>515455396700</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>7400</v>
       </c>
       <c r="E59">
-        <v>18525121000</v>
+        <v>18366280000</v>
       </c>
       <c r="F59">
-        <v>11920270000</v>
+        <v>11663626900</v>
       </c>
       <c r="G59">
         <v>75969000</v>
@@ -3328,13 +3328,13 @@
         <v>1802400</v>
       </c>
       <c r="I59">
-        <v>30521360000</v>
+        <v>30105875900</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-17T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4157785266000</v>
+        <v>3743214751500</v>
       </c>
       <c r="L59">
         <v>233650600</v>
@@ -3343,13 +3343,13 @@
         <v>-470800</v>
       </c>
       <c r="N59">
-        <v>-6604851000</v>
+        <v>-6702653100</v>
       </c>
       <c r="O59">
         <v>28855100</v>
       </c>
       <c r="P59">
-        <v>584928092000</v>
+        <v>508752743600</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>2500</v>
       </c>
       <c r="E60">
-        <v>26303572000</v>
+        <v>22592586700</v>
       </c>
       <c r="F60">
-        <v>19444451000</v>
+        <v>18249647000</v>
       </c>
       <c r="G60">
         <v>80437000</v>
@@ -3378,13 +3378,13 @@
         <v>2295900</v>
       </c>
       <c r="I60">
-        <v>45828460000</v>
+        <v>40922670700</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-17T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4203613726000</v>
+        <v>3784137422200</v>
       </c>
       <c r="L60">
         <v>235946500</v>
@@ -3393,13 +3393,13 @@
         <v>-213800</v>
       </c>
       <c r="N60">
-        <v>-6859121000</v>
+        <v>-4342939700</v>
       </c>
       <c r="O60">
         <v>28641300</v>
       </c>
       <c r="P60">
-        <v>578068971000</v>
+        <v>504409803900</v>
       </c>
     </row>
     <row r="61">
@@ -3416,25 +3416,25 @@
         <v>37700</v>
       </c>
       <c r="E61">
-        <v>20415342000</v>
+        <v>19450008300</v>
       </c>
       <c r="F61">
-        <v>13929332000</v>
+        <v>13212649400</v>
       </c>
       <c r="G61">
-        <v>1167210000</v>
+        <v>1163413800</v>
       </c>
       <c r="H61">
         <v>1993900</v>
       </c>
       <c r="I61">
-        <v>35511884000</v>
+        <v>33826071500</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-17T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4239125610000</v>
+        <v>3817963493700</v>
       </c>
       <c r="L61">
         <v>237940400</v>
@@ -3443,13 +3443,13 @@
         <v>-514400</v>
       </c>
       <c r="N61">
-        <v>-6486010000</v>
+        <v>-6237358900</v>
       </c>
       <c r="O61">
         <v>28126900</v>
       </c>
       <c r="P61">
-        <v>571582961000</v>
+        <v>498172445000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>7400</v>
       </c>
       <c r="E62">
-        <v>13451288000</v>
+        <v>12064875800</v>
       </c>
       <c r="F62">
-        <v>13659716000</v>
+        <v>12868907600</v>
       </c>
       <c r="G62">
         <v>77096000</v>
@@ -3478,13 +3478,13 @@
         <v>1539100</v>
       </c>
       <c r="I62">
-        <v>27188100000</v>
+        <v>25010879400</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-17T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4266313710000</v>
+        <v>3842974373100</v>
       </c>
       <c r="L62">
         <v>239479500</v>
@@ -3493,13 +3493,13 @@
         <v>21300</v>
       </c>
       <c r="N62">
-        <v>208428000</v>
+        <v>804031800</v>
       </c>
       <c r="O62">
         <v>28148200</v>
       </c>
       <c r="P62">
-        <v>571791389000</v>
+        <v>498976476800</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>1100</v>
       </c>
       <c r="E63">
-        <v>21442526000</v>
+        <v>20198171600</v>
       </c>
       <c r="F63">
-        <v>30100190000</v>
+        <v>28470221600</v>
       </c>
       <c r="G63">
         <v>35460000</v>
@@ -3528,13 +3528,13 @@
         <v>2611300</v>
       </c>
       <c r="I63">
-        <v>51578176000</v>
+        <v>48703853200</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-17T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4317891886000</v>
+        <v>3891678226300</v>
       </c>
       <c r="L63">
         <v>242090800</v>
@@ -3543,13 +3543,13 @@
         <v>418800</v>
       </c>
       <c r="N63">
-        <v>8657664000</v>
+        <v>8272050000</v>
       </c>
       <c r="O63">
         <v>28567000</v>
       </c>
       <c r="P63">
-        <v>580449053000</v>
+        <v>507248526800</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>45800</v>
       </c>
       <c r="E64">
-        <v>15710384000</v>
+        <v>13705490900</v>
       </c>
       <c r="F64">
-        <v>39481710000</v>
+        <v>38450542200</v>
       </c>
       <c r="G64">
         <v>673447000</v>
@@ -3578,13 +3578,13 @@
         <v>2982600</v>
       </c>
       <c r="I64">
-        <v>55865541000</v>
+        <v>52829480100</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-17T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4373757427000</v>
+        <v>3944507706400</v>
       </c>
       <c r="L64">
         <v>245073400</v>
@@ -3593,13 +3593,13 @@
         <v>1294600</v>
       </c>
       <c r="N64">
-        <v>23771326000</v>
+        <v>24745051300</v>
       </c>
       <c r="O64">
         <v>29861600</v>
       </c>
       <c r="P64">
-        <v>604220379000</v>
+        <v>531993578100</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>4100</v>
       </c>
       <c r="E65">
-        <v>32239790000</v>
+        <v>31185445400</v>
       </c>
       <c r="F65">
-        <v>27986253000</v>
+        <v>26853387000</v>
       </c>
       <c r="G65">
-        <v>205900000</v>
+        <v>200505400</v>
       </c>
       <c r="H65">
         <v>2965200</v>
       </c>
       <c r="I65">
-        <v>60431943000</v>
+        <v>58239337800</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-17T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4434189370000</v>
+        <v>4002747044200</v>
       </c>
       <c r="L65">
         <v>248038600</v>
@@ -3643,13 +3643,13 @@
         <v>-267100</v>
       </c>
       <c r="N65">
-        <v>-4253537000</v>
+        <v>-4332058400</v>
       </c>
       <c r="O65">
         <v>29594500</v>
       </c>
       <c r="P65">
-        <v>599966842000</v>
+        <v>527661519700</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>22500</v>
       </c>
       <c r="E66">
-        <v>19844797000</v>
+        <v>19073668900</v>
       </c>
       <c r="F66">
-        <v>42817927000</v>
+        <v>34295657800</v>
       </c>
       <c r="G66">
         <v>382184000</v>
@@ -3678,13 +3678,13 @@
         <v>3053800</v>
       </c>
       <c r="I66">
-        <v>63044908000</v>
+        <v>53751510700</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-17T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4497234278000</v>
+        <v>4056498554900</v>
       </c>
       <c r="L66">
         <v>251092400</v>
@@ -3693,13 +3693,13 @@
         <v>815300</v>
       </c>
       <c r="N66">
-        <v>22973130000</v>
+        <v>15221988900</v>
       </c>
       <c r="O66">
         <v>30409800</v>
       </c>
       <c r="P66">
-        <v>622939972000</v>
+        <v>542883508600</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>14559085000</v>
+        <v>13663181800</v>
       </c>
       <c r="F67">
-        <v>30932496000</v>
+        <v>17782059600</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3728,13 +3728,13 @@
         <v>2029600</v>
       </c>
       <c r="I67">
-        <v>45491581000</v>
+        <v>31445241400</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-17T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4542725859000</v>
+        <v>4087943796300</v>
       </c>
       <c r="L67">
         <v>253122000</v>
@@ -3743,13 +3743,13 @@
         <v>628000</v>
       </c>
       <c r="N67">
-        <v>16373411000</v>
+        <v>4118877800</v>
       </c>
       <c r="O67">
         <v>31037800</v>
       </c>
       <c r="P67">
-        <v>639313383000</v>
+        <v>547002386400</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>2000</v>
       </c>
       <c r="E68">
-        <v>24232094000</v>
+        <v>22636691000</v>
       </c>
       <c r="F68">
-        <v>28624846000</v>
+        <v>22911964600</v>
       </c>
       <c r="G68">
         <v>31871000</v>
@@ -3778,13 +3778,13 @@
         <v>2856500</v>
       </c>
       <c r="I68">
-        <v>52888811000</v>
+        <v>45580526600</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-17T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>4595614670000</v>
+        <v>4133524322900</v>
       </c>
       <c r="L68">
         <v>255978500</v>
@@ -3793,13 +3793,13 @@
         <v>135500</v>
       </c>
       <c r="N68">
-        <v>4392752000</v>
+        <v>275273600</v>
       </c>
       <c r="O68">
         <v>31173300</v>
       </c>
       <c r="P68">
-        <v>643706135000</v>
+        <v>547277660000</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>6800</v>
       </c>
       <c r="E69">
-        <v>15734558000</v>
+        <v>13607687000</v>
       </c>
       <c r="F69">
-        <v>37187865000</v>
+        <v>19652318100</v>
       </c>
       <c r="G69">
         <v>99226000</v>
@@ -3828,13 +3828,13 @@
         <v>3045500</v>
       </c>
       <c r="I69">
-        <v>53021649000</v>
+        <v>33359231100</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-17T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>4648636319000</v>
+        <v>4166883554000</v>
       </c>
       <c r="L69">
         <v>259024000</v>
@@ -3843,13 +3843,13 @@
         <v>1424300</v>
       </c>
       <c r="N69">
-        <v>21453307000</v>
+        <v>6044631100</v>
       </c>
       <c r="O69">
         <v>32597600</v>
       </c>
       <c r="P69">
-        <v>665159442000</v>
+        <v>553322291100</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-01-17T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>4649154879000</v>
+        <v>4167402114000</v>
       </c>
       <c r="L70">
         <v>259046500</v>
@@ -3899,7 +3899,7 @@
         <v>32597900</v>
       </c>
       <c r="P70">
-        <v>665189742000</v>
+        <v>553352591100</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>156500</v>
       </c>
       <c r="E71">
-        <v>60366281000</v>
+        <v>56521429700</v>
       </c>
       <c r="F71">
-        <v>60697850000</v>
+        <v>50735722100</v>
       </c>
       <c r="G71">
-        <v>2255114000</v>
+        <v>2063006300</v>
       </c>
       <c r="H71">
         <v>6996000</v>
       </c>
       <c r="I71">
-        <v>123319245000</v>
+        <v>109320158100</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-17T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>4772474124000</v>
+        <v>4276722272100</v>
       </c>
       <c r="L71">
         <v>266042500</v>
@@ -3943,13 +3943,13 @@
         <v>404100</v>
       </c>
       <c r="N71">
-        <v>331569000</v>
+        <v>-5785707600</v>
       </c>
       <c r="O71">
         <v>33002000</v>
       </c>
       <c r="P71">
-        <v>665521311000</v>
+        <v>547566883500</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>2600</v>
       </c>
       <c r="E72">
-        <v>21632911000</v>
+        <v>20269575700</v>
       </c>
       <c r="F72">
-        <v>60603037000</v>
+        <v>33757209700</v>
       </c>
       <c r="G72">
         <v>48129000</v>
@@ -3978,13 +3978,13 @@
         <v>4066000</v>
       </c>
       <c r="I72">
-        <v>82284077000</v>
+        <v>54074914400</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-17T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>4854758201000</v>
+        <v>4330797186500</v>
       </c>
       <c r="L72">
         <v>270108500</v>
@@ -3993,13 +3993,13 @@
         <v>1804400</v>
       </c>
       <c r="N72">
-        <v>38970126000</v>
+        <v>13487634000</v>
       </c>
       <c r="O72">
         <v>34806400</v>
       </c>
       <c r="P72">
-        <v>704491437000</v>
+        <v>561054517500</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>4900</v>
       </c>
       <c r="E73">
-        <v>35937795000</v>
+        <v>32863472400</v>
       </c>
       <c r="F73">
-        <v>75935178000</v>
+        <v>66416905800</v>
       </c>
       <c r="G73">
-        <v>115323000</v>
+        <v>101337000</v>
       </c>
       <c r="H73">
         <v>5318200</v>
       </c>
       <c r="I73">
-        <v>111988296000</v>
+        <v>99381715200</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-17T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>4966746497000</v>
+        <v>4430178901700</v>
       </c>
       <c r="L73">
         <v>275426700</v>
@@ -4043,13 +4043,13 @@
         <v>1662900</v>
       </c>
       <c r="N73">
-        <v>39997383000</v>
+        <v>33553433400</v>
       </c>
       <c r="O73">
         <v>36469300</v>
       </c>
       <c r="P73">
-        <v>744488820000</v>
+        <v>594607950900</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>21300</v>
       </c>
       <c r="E74">
-        <v>13541170000</v>
+        <v>13130581000</v>
       </c>
       <c r="F74">
-        <v>82050137000</v>
+        <v>77313478400</v>
       </c>
       <c r="G74">
-        <v>346967000</v>
+        <v>336977000</v>
       </c>
       <c r="H74">
         <v>4844100</v>
       </c>
       <c r="I74">
-        <v>95938274000</v>
+        <v>90781036400</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-17T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>5062684771000</v>
+        <v>4520959938100</v>
       </c>
       <c r="L74">
         <v>280270800</v>
@@ -4093,13 +4093,13 @@
         <v>3227000</v>
       </c>
       <c r="N74">
-        <v>68508967000</v>
+        <v>64182897400</v>
       </c>
       <c r="O74">
         <v>39696300</v>
       </c>
       <c r="P74">
-        <v>812997787000</v>
+        <v>658790848300</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>2900</v>
       </c>
       <c r="E75">
-        <v>25434213000</v>
+        <v>25014433200</v>
       </c>
       <c r="F75">
-        <v>69902428000</v>
+        <v>65526608200</v>
       </c>
       <c r="G75">
         <v>100340000</v>
@@ -4128,13 +4128,13 @@
         <v>6024200</v>
       </c>
       <c r="I75">
-        <v>95436981000</v>
+        <v>90641381400</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-17T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>5158121752000</v>
+        <v>4611601319500</v>
       </c>
       <c r="L75">
         <v>286295000</v>
@@ -4143,13 +4143,13 @@
         <v>2764900</v>
       </c>
       <c r="N75">
-        <v>44468215000</v>
+        <v>40512175000</v>
       </c>
       <c r="O75">
         <v>42461200</v>
       </c>
       <c r="P75">
-        <v>857466002000</v>
+        <v>699303023300</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>7900</v>
       </c>
       <c r="E76">
-        <v>33574357000</v>
+        <v>32612220100</v>
       </c>
       <c r="F76">
-        <v>43976951000</v>
+        <v>23970577400</v>
       </c>
       <c r="G76">
-        <v>363522000</v>
+        <v>317967600</v>
       </c>
       <c r="H76">
         <v>4528100</v>
       </c>
       <c r="I76">
-        <v>77914830000</v>
+        <v>56900765100</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-17T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5236036582000</v>
+        <v>4668502084600</v>
       </c>
       <c r="L76">
         <v>290823100</v>
@@ -4193,13 +4193,13 @@
         <v>614200</v>
       </c>
       <c r="N76">
-        <v>10402594000</v>
+        <v>-8641642700</v>
       </c>
       <c r="O76">
         <v>43075400</v>
       </c>
       <c r="P76">
-        <v>867868596000</v>
+        <v>690661380600</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>8900</v>
       </c>
       <c r="E77">
-        <v>41584030000</v>
+        <v>35622097900</v>
       </c>
       <c r="F77">
-        <v>42533046000</v>
+        <v>31773616200</v>
       </c>
       <c r="G77">
         <v>202861000</v>
@@ -4228,13 +4228,13 @@
         <v>5244600</v>
       </c>
       <c r="I77">
-        <v>84319937000</v>
+        <v>67598575100</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-17T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5320356519000</v>
+        <v>4736100659700</v>
       </c>
       <c r="L77">
         <v>296067700</v>
@@ -4243,13 +4243,13 @@
         <v>433900</v>
       </c>
       <c r="N77">
-        <v>949016000</v>
+        <v>-3848481700</v>
       </c>
       <c r="O77">
         <v>43509300</v>
       </c>
       <c r="P77">
-        <v>868817612000</v>
+        <v>686812898900</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>13000</v>
       </c>
       <c r="E78">
-        <v>40259320000</v>
+        <v>33835550200</v>
       </c>
       <c r="F78">
-        <v>28389099000</v>
+        <v>24846744900</v>
       </c>
       <c r="G78">
-        <v>551247000</v>
+        <v>481317000</v>
       </c>
       <c r="H78">
         <v>4041300</v>
       </c>
       <c r="I78">
-        <v>69199666000</v>
+        <v>59163612100</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-17T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5389556185000</v>
+        <v>4795264271800</v>
       </c>
       <c r="L78">
         <v>300109000</v>
@@ -4293,13 +4293,13 @@
         <v>-943900</v>
       </c>
       <c r="N78">
-        <v>-11870221000</v>
+        <v>-8988805300</v>
       </c>
       <c r="O78">
         <v>42565400</v>
       </c>
       <c r="P78">
-        <v>856947391000</v>
+        <v>677824093600</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>1200</v>
       </c>
       <c r="E79">
-        <v>26355188000</v>
+        <v>24107937500</v>
       </c>
       <c r="F79">
-        <v>53818471000</v>
+        <v>46570825900</v>
       </c>
       <c r="G79">
         <v>52081000</v>
@@ -4328,13 +4328,13 @@
         <v>4378800</v>
       </c>
       <c r="I79">
-        <v>80225740000</v>
+        <v>70730844400</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-17T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>5469781925000</v>
+        <v>4865995116200</v>
       </c>
       <c r="L79">
         <v>304487800</v>
@@ -4343,13 +4343,13 @@
         <v>1067200</v>
       </c>
       <c r="N79">
-        <v>27463283000</v>
+        <v>22462888400</v>
       </c>
       <c r="O79">
         <v>43632600</v>
       </c>
       <c r="P79">
-        <v>884410674000</v>
+        <v>700286982000</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>25400</v>
       </c>
       <c r="E80">
-        <v>28700141000</v>
+        <v>28476664700</v>
       </c>
       <c r="F80">
-        <v>46990870000</v>
+        <v>44957505400</v>
       </c>
       <c r="G80">
         <v>256316000</v>
@@ -4378,13 +4378,13 @@
         <v>4282900</v>
       </c>
       <c r="I80">
-        <v>75947327000</v>
+        <v>73690486100</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-17T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>5545729252000</v>
+        <v>4939685602300</v>
       </c>
       <c r="L80">
         <v>308770700</v>
@@ -4393,13 +4393,13 @@
         <v>1019700</v>
       </c>
       <c r="N80">
-        <v>18290729000</v>
+        <v>16480840700</v>
       </c>
       <c r="O80">
         <v>44652300</v>
       </c>
       <c r="P80">
-        <v>902701403000</v>
+        <v>716767822700</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>13200</v>
       </c>
       <c r="E81">
-        <v>31903889000</v>
+        <v>29208786800</v>
       </c>
       <c r="F81">
-        <v>67783044000</v>
+        <v>63018613200</v>
       </c>
       <c r="G81">
         <v>188361000</v>
@@ -4428,13 +4428,13 @@
         <v>5343600</v>
       </c>
       <c r="I81">
-        <v>99875294000</v>
+        <v>92415761000</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-17T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>5645604546000</v>
+        <v>5032101363300</v>
       </c>
       <c r="L81">
         <v>314114300</v>
@@ -4443,13 +4443,13 @@
         <v>1946000</v>
       </c>
       <c r="N81">
-        <v>35879155000</v>
+        <v>33809826400</v>
       </c>
       <c r="O81">
         <v>46598300</v>
       </c>
       <c r="P81">
-        <v>938580558000</v>
+        <v>750577649100</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>22600</v>
       </c>
       <c r="E82">
-        <v>21447303000</v>
+        <v>20511939300</v>
       </c>
       <c r="F82">
-        <v>73969903000</v>
+        <v>65800081000</v>
       </c>
       <c r="G82">
-        <v>452628000</v>
+        <v>446234400</v>
       </c>
       <c r="H82">
         <v>5347300</v>
       </c>
       <c r="I82">
-        <v>95869834000</v>
+        <v>86758254700</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-17T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>5741474380000</v>
+        <v>5118859618000</v>
       </c>
       <c r="L82">
         <v>319461600</v>
@@ -4493,13 +4493,13 @@
         <v>2787300</v>
       </c>
       <c r="N82">
-        <v>52522600000</v>
+        <v>45288141700</v>
       </c>
       <c r="O82">
         <v>49385600</v>
       </c>
       <c r="P82">
-        <v>991103158000</v>
+        <v>795865790800</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>46900</v>
       </c>
       <c r="E83">
-        <v>20452516000</v>
+        <v>19368501100</v>
       </c>
       <c r="F83">
-        <v>68160670000</v>
+        <v>66398334100</v>
       </c>
       <c r="G83">
         <v>733093000</v>
@@ -4528,13 +4528,13 @@
         <v>5362300</v>
       </c>
       <c r="I83">
-        <v>89346279000</v>
+        <v>86499928200</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-17T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>5830820659000</v>
+        <v>5205359546200</v>
       </c>
       <c r="L83">
         <v>324823900</v>
@@ -4543,13 +4543,13 @@
         <v>2842800</v>
       </c>
       <c r="N83">
-        <v>47708154000</v>
+        <v>47029833000</v>
       </c>
       <c r="O83">
         <v>52228400</v>
       </c>
       <c r="P83">
-        <v>1038811312000</v>
+        <v>842895623800</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>4500</v>
       </c>
       <c r="E84">
-        <v>30703948000</v>
+        <v>27618236800</v>
       </c>
       <c r="F84">
-        <v>51496014000</v>
+        <v>50678732100</v>
       </c>
       <c r="G84">
         <v>175507000</v>
@@ -4578,13 +4578,13 @@
         <v>4594800</v>
       </c>
       <c r="I84">
-        <v>82375469000</v>
+        <v>78472475900</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-17T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>5913196128000</v>
+        <v>5283832022100</v>
       </c>
       <c r="L84">
         <v>329418700</v>
@@ -4593,13 +4593,13 @@
         <v>1087900</v>
       </c>
       <c r="N84">
-        <v>20792066000</v>
+        <v>23060495300</v>
       </c>
       <c r="O84">
         <v>53316300</v>
       </c>
       <c r="P84">
-        <v>1059603378000</v>
+        <v>865956119100</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>80000</v>
       </c>
       <c r="E85">
-        <v>23250647000</v>
+        <v>23112385400</v>
       </c>
       <c r="F85">
-        <v>68060725000</v>
+        <v>65980607200</v>
       </c>
       <c r="G85">
         <v>723487000</v>
@@ -4628,13 +4628,13 @@
         <v>5130700</v>
       </c>
       <c r="I85">
-        <v>92034859000</v>
+        <v>89816479600</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-17T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>6005230987000</v>
+        <v>5373648501700</v>
       </c>
       <c r="L85">
         <v>334549400</v>
@@ -4643,13 +4643,13 @@
         <v>2009700</v>
       </c>
       <c r="N85">
-        <v>44810078000</v>
+        <v>42868221800</v>
       </c>
       <c r="O85">
         <v>55326000</v>
       </c>
       <c r="P85">
-        <v>1104413456000</v>
+        <v>908824340900</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>12400</v>
       </c>
       <c r="E86">
-        <v>21545604000</v>
+        <v>21286163700</v>
       </c>
       <c r="F86">
-        <v>50422414000</v>
+        <v>41535210100</v>
       </c>
       <c r="G86">
         <v>99740000</v>
@@ -4678,13 +4678,13 @@
         <v>3940800</v>
       </c>
       <c r="I86">
-        <v>72067758000</v>
+        <v>62921113800</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-17T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>6077298745000</v>
+        <v>5436569615500</v>
       </c>
       <c r="L86">
         <v>338490200</v>
@@ -4693,13 +4693,13 @@
         <v>1401000</v>
       </c>
       <c r="N86">
-        <v>28876810000</v>
+        <v>20249046400</v>
       </c>
       <c r="O86">
         <v>56727000</v>
       </c>
       <c r="P86">
-        <v>1133290266000</v>
+        <v>929073387300</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>16600</v>
       </c>
       <c r="E87">
-        <v>24398004000</v>
+        <v>24105197100</v>
       </c>
       <c r="F87">
-        <v>64389003000</v>
+        <v>56210889300</v>
       </c>
       <c r="G87">
         <v>280164000</v>
@@ -4728,13 +4728,13 @@
         <v>4756800</v>
       </c>
       <c r="I87">
-        <v>89067171000</v>
+        <v>80596250400</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-17T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>6166365916000</v>
+        <v>5517165865900</v>
       </c>
       <c r="L87">
         <v>343247000</v>
@@ -4743,13 +4743,13 @@
         <v>1880600</v>
       </c>
       <c r="N87">
-        <v>39990999000</v>
+        <v>32105692200</v>
       </c>
       <c r="O87">
         <v>58607600</v>
       </c>
       <c r="P87">
-        <v>1173281265000</v>
+        <v>961179079500</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>28100</v>
       </c>
       <c r="E88">
-        <v>23394161000</v>
+        <v>21963293300</v>
       </c>
       <c r="F88">
-        <v>57745606000</v>
+        <v>55648305400</v>
       </c>
       <c r="G88">
         <v>491994000</v>
@@ -4778,13 +4778,13 @@
         <v>5456400</v>
       </c>
       <c r="I88">
-        <v>81631761000</v>
+        <v>78103592700</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-17T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>6247997677000</v>
+        <v>5595269458600</v>
       </c>
       <c r="L88">
         <v>348703400</v>
@@ -4793,13 +4793,13 @@
         <v>1991300</v>
       </c>
       <c r="N88">
-        <v>34351445000</v>
+        <v>33685012100</v>
       </c>
       <c r="O88">
         <v>60598900</v>
       </c>
       <c r="P88">
-        <v>1207632710000</v>
+        <v>994864091600</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>15300</v>
       </c>
       <c r="E89">
-        <v>32934926000</v>
+        <v>32489372000</v>
       </c>
       <c r="F89">
-        <v>60101113000</v>
+        <v>55617900700</v>
       </c>
       <c r="G89">
-        <v>541210000</v>
+        <v>524426800</v>
       </c>
       <c r="H89">
         <v>5269600</v>
       </c>
       <c r="I89">
-        <v>93577249000</v>
+        <v>88631699500</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-17T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>6341574926000</v>
+        <v>5683901158100</v>
       </c>
       <c r="L89">
         <v>353973000</v>
@@ -4843,13 +4843,13 @@
         <v>1217500</v>
       </c>
       <c r="N89">
-        <v>27166187000</v>
+        <v>23128528700</v>
       </c>
       <c r="O89">
         <v>61816400</v>
       </c>
       <c r="P89">
-        <v>1234798897000</v>
+        <v>1017992620300</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>4700</v>
       </c>
       <c r="E90">
-        <v>36354278000</v>
+        <v>35342690600</v>
       </c>
       <c r="F90">
-        <v>66909973000</v>
+        <v>64699685500</v>
       </c>
       <c r="G90">
         <v>45773000</v>
@@ -4878,13 +4878,13 @@
         <v>6146200</v>
       </c>
       <c r="I90">
-        <v>103310024000</v>
+        <v>100088149100</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-17T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>6444884950000</v>
+        <v>5783989307200</v>
       </c>
       <c r="L90">
         <v>360119200</v>
@@ -4893,13 +4893,13 @@
         <v>1961500</v>
       </c>
       <c r="N90">
-        <v>30555695000</v>
+        <v>29356994900</v>
       </c>
       <c r="O90">
         <v>63777900</v>
       </c>
       <c r="P90">
-        <v>1265354592000</v>
+        <v>1047349615200</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>4800</v>
       </c>
       <c r="E91">
-        <v>40658327000</v>
+        <v>39593492900</v>
       </c>
       <c r="F91">
-        <v>114791760000</v>
+        <v>86149830600</v>
       </c>
       <c r="G91">
-        <v>148085000</v>
+        <v>139693400</v>
       </c>
       <c r="H91">
         <v>10147700</v>
       </c>
       <c r="I91">
-        <v>155598172000</v>
+        <v>125883016900</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-17T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>6600483122000</v>
+        <v>5909872324100</v>
       </c>
       <c r="L91">
         <v>370266900</v>
@@ -4943,13 +4943,13 @@
         <v>5179900</v>
       </c>
       <c r="N91">
-        <v>74133433000</v>
+        <v>46556337700</v>
       </c>
       <c r="O91">
         <v>68957800</v>
       </c>
       <c r="P91">
-        <v>1339488025000</v>
+        <v>1093905952900</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>8700</v>
       </c>
       <c r="E92">
-        <v>54742971000</v>
+        <v>51675741300</v>
       </c>
       <c r="F92">
-        <v>53112475000</v>
+        <v>52443244900</v>
       </c>
       <c r="G92">
         <v>278577000</v>
@@ -4978,13 +4978,13 @@
         <v>6647000</v>
       </c>
       <c r="I92">
-        <v>108134023000</v>
+        <v>104397563200</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-17T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>6708617145000</v>
+        <v>6014269887300</v>
       </c>
       <c r="L92">
         <v>376913900</v>
@@ -4993,13 +4993,13 @@
         <v>200500</v>
       </c>
       <c r="N92">
-        <v>-1630496000</v>
+        <v>767503600</v>
       </c>
       <c r="O92">
         <v>69158300</v>
       </c>
       <c r="P92">
-        <v>1337857529000</v>
+        <v>1094673456500</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>3400</v>
       </c>
       <c r="E93">
-        <v>46092890000</v>
+        <v>44446737800</v>
       </c>
       <c r="F93">
-        <v>50706576000</v>
+        <v>48249835200</v>
       </c>
       <c r="G93">
-        <v>93395000</v>
+        <v>69419000</v>
       </c>
       <c r="H93">
         <v>5465100</v>
       </c>
       <c r="I93">
-        <v>96892861000</v>
+        <v>92765992000</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-17T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>6805510006000</v>
+        <v>6107035879300</v>
       </c>
       <c r="L93">
         <v>382379000</v>
@@ -5043,13 +5043,13 @@
         <v>-297300</v>
       </c>
       <c r="N93">
-        <v>4613686000</v>
+        <v>3803097400</v>
       </c>
       <c r="O93">
         <v>68861000</v>
       </c>
       <c r="P93">
-        <v>1342471215000</v>
+        <v>1098476553900</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>6700</v>
       </c>
       <c r="E94">
-        <v>45728917000</v>
+        <v>37257696700</v>
       </c>
       <c r="F94">
-        <v>33658754000</v>
+        <v>32385628400</v>
       </c>
       <c r="G94">
-        <v>125868000</v>
+        <v>47646300</v>
       </c>
       <c r="H94">
         <v>5137500</v>
       </c>
       <c r="I94">
-        <v>79513539000</v>
+        <v>69690971400</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-17T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>6885023545000</v>
+        <v>6176726850700</v>
       </c>
       <c r="L94">
         <v>387516500</v>
@@ -5093,13 +5093,13 @@
         <v>-1292000</v>
       </c>
       <c r="N94">
-        <v>-12070163000</v>
+        <v>-4872068300</v>
       </c>
       <c r="O94">
         <v>67569000</v>
       </c>
       <c r="P94">
-        <v>1330401052000</v>
+        <v>1093604485600</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>20200</v>
       </c>
       <c r="E95">
-        <v>44635733000</v>
+        <v>36846929600</v>
       </c>
       <c r="F95">
-        <v>42084525000</v>
+        <v>33670847100</v>
       </c>
       <c r="G95">
-        <v>254370000</v>
+        <v>252871500</v>
       </c>
       <c r="H95">
         <v>5407100</v>
       </c>
       <c r="I95">
-        <v>86974628000</v>
+        <v>70770648200</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-17T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6971998173000</v>
+        <v>6247497498900</v>
       </c>
       <c r="L95">
         <v>392923600</v>
@@ -5143,13 +5143,13 @@
         <v>-261300</v>
       </c>
       <c r="N95">
-        <v>-2551208000</v>
+        <v>-3176082500</v>
       </c>
       <c r="O95">
         <v>67307700</v>
       </c>
       <c r="P95">
-        <v>1327849844000</v>
+        <v>1090428403100</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>16300</v>
       </c>
       <c r="E96">
-        <v>68875415000</v>
+        <v>65826966500</v>
       </c>
       <c r="F96">
-        <v>27926913000</v>
+        <v>24437605800</v>
       </c>
       <c r="G96">
-        <v>230731000</v>
+        <v>102159700</v>
       </c>
       <c r="H96">
         <v>5634200</v>
       </c>
       <c r="I96">
-        <v>97033059000</v>
+        <v>90366732000</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-17T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>7069031232000</v>
+        <v>6337864230900</v>
       </c>
       <c r="L96">
         <v>398557800</v>
@@ -5193,13 +5193,13 @@
         <v>-2090900</v>
       </c>
       <c r="N96">
-        <v>-40948502000</v>
+        <v>-41389360700</v>
       </c>
       <c r="O96">
         <v>65216800</v>
       </c>
       <c r="P96">
-        <v>1286901342000</v>
+        <v>1049039042400</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>16700</v>
       </c>
       <c r="E97">
-        <v>62129551000</v>
+        <v>55619068000</v>
       </c>
       <c r="F97">
-        <v>24020591000</v>
+        <v>19453262900</v>
       </c>
       <c r="G97">
-        <v>172918000</v>
+        <v>171819100</v>
       </c>
       <c r="H97">
         <v>5015700</v>
       </c>
       <c r="I97">
-        <v>86323060000</v>
+        <v>75244150000</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-17T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>7155354292000</v>
+        <v>6413108380900</v>
       </c>
       <c r="L97">
         <v>403573500</v>
@@ -5243,13 +5243,13 @@
         <v>-2038000</v>
       </c>
       <c r="N97">
-        <v>-38108960000</v>
+        <v>-36165805100</v>
       </c>
       <c r="O97">
         <v>63178800</v>
       </c>
       <c r="P97">
-        <v>1248792382000</v>
+        <v>1012873237300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>13400</v>
       </c>
       <c r="E98">
-        <v>50673915000</v>
+        <v>43678117800</v>
       </c>
       <c r="F98">
-        <v>27761934000</v>
+        <v>25282316100</v>
       </c>
       <c r="G98">
-        <v>217135000</v>
+        <v>157195000</v>
       </c>
       <c r="H98">
         <v>4587100</v>
       </c>
       <c r="I98">
-        <v>78652984000</v>
+        <v>69117628900</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-17T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>7234007276000</v>
+        <v>6482226009800</v>
       </c>
       <c r="L98">
         <v>408160600</v>
@@ -5293,13 +5293,13 @@
         <v>-1273900</v>
       </c>
       <c r="N98">
-        <v>-22911981000</v>
+        <v>-18395801700</v>
       </c>
       <c r="O98">
         <v>61904900</v>
       </c>
       <c r="P98">
-        <v>1225880401000</v>
+        <v>994477435600</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>29400</v>
       </c>
       <c r="E99">
-        <v>47706602000</v>
+        <v>43046966300</v>
       </c>
       <c r="F99">
-        <v>17030851000</v>
+        <v>15800382700</v>
       </c>
       <c r="G99">
         <v>531062000</v>
@@ -5328,13 +5328,13 @@
         <v>3906200</v>
       </c>
       <c r="I99">
-        <v>65268515000</v>
+        <v>59378411000</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-17T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>7299275791000</v>
+        <v>6541604420800</v>
       </c>
       <c r="L99">
         <v>412066800</v>
@@ -5343,13 +5343,13 @@
         <v>-1761600</v>
       </c>
       <c r="N99">
-        <v>-30675751000</v>
+        <v>-27246583600</v>
       </c>
       <c r="O99">
         <v>60143300</v>
       </c>
       <c r="P99">
-        <v>1195204650000</v>
+        <v>967230852000</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>200</v>
       </c>
       <c r="E100">
-        <v>25028157000</v>
+        <v>22668119400</v>
       </c>
       <c r="F100">
-        <v>26149478000</v>
+        <v>24935693000</v>
       </c>
       <c r="G100">
         <v>2377000</v>
@@ -5378,13 +5378,13 @@
         <v>2917800</v>
       </c>
       <c r="I100">
-        <v>51180012000</v>
+        <v>47606189400</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-17T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>7350455803000</v>
+        <v>6589210610200</v>
       </c>
       <c r="L100">
         <v>414984600</v>
@@ -5393,13 +5393,13 @@
         <v>75400</v>
       </c>
       <c r="N100">
-        <v>1121321000</v>
+        <v>2267573600</v>
       </c>
       <c r="O100">
         <v>60218700</v>
       </c>
       <c r="P100">
-        <v>1196325971000</v>
+        <v>969498425600</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>9800</v>
       </c>
       <c r="E101">
-        <v>41167669000</v>
+        <v>40527609700</v>
       </c>
       <c r="F101">
-        <v>32097368000</v>
+        <v>27215354900</v>
       </c>
       <c r="G101">
-        <v>163770000</v>
+        <v>102831000</v>
       </c>
       <c r="H101">
         <v>3963000</v>
       </c>
       <c r="I101">
-        <v>73428807000</v>
+        <v>67845795600</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-17T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>7423884610000</v>
+        <v>6657056405800</v>
       </c>
       <c r="L101">
         <v>418947600</v>
@@ -5443,13 +5443,13 @@
         <v>-445400</v>
       </c>
       <c r="N101">
-        <v>-9070301000</v>
+        <v>-13312254800</v>
       </c>
       <c r="O101">
         <v>59773300</v>
       </c>
       <c r="P101">
-        <v>1187255670000</v>
+        <v>956186170800</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>10600</v>
       </c>
       <c r="E102">
-        <v>48047282000</v>
+        <v>45084048200</v>
       </c>
       <c r="F102">
-        <v>25342202000</v>
+        <v>22871175500</v>
       </c>
       <c r="G102">
-        <v>157526000</v>
+        <v>143540000</v>
       </c>
       <c r="H102">
         <v>3952000</v>
       </c>
       <c r="I102">
-        <v>73547010000</v>
+        <v>68098763700</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-17T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>7497431620000</v>
+        <v>6725155169500</v>
       </c>
       <c r="L102">
         <v>422899600</v>
@@ -5493,13 +5493,13 @@
         <v>-1170200</v>
       </c>
       <c r="N102">
-        <v>-22705080000</v>
+        <v>-22212872700</v>
       </c>
       <c r="O102">
         <v>58603100</v>
       </c>
       <c r="P102">
-        <v>1164550590000</v>
+        <v>933973298100</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>9900</v>
       </c>
       <c r="E103">
-        <v>43439280000</v>
+        <v>40266056400</v>
       </c>
       <c r="F103">
-        <v>46005725000</v>
+        <v>41287348100</v>
       </c>
       <c r="G103">
         <v>276978000</v>
@@ -5528,13 +5528,13 @@
         <v>5116200</v>
       </c>
       <c r="I103">
-        <v>89721983000</v>
+        <v>81830382500</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-17T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>7587153603000</v>
+        <v>6806985552000</v>
       </c>
       <c r="L103">
         <v>428015800</v>
@@ -5543,13 +5543,13 @@
         <v>-136100</v>
       </c>
       <c r="N103">
-        <v>2566445000</v>
+        <v>1021291700</v>
       </c>
       <c r="O103">
         <v>58467000</v>
       </c>
       <c r="P103">
-        <v>1167117035000</v>
+        <v>934994589800</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>12600</v>
       </c>
       <c r="E104">
-        <v>40852083000</v>
+        <v>39121215600</v>
       </c>
       <c r="F104">
-        <v>54230961000</v>
+        <v>51464530200</v>
       </c>
       <c r="G104">
-        <v>212880000</v>
+        <v>200692200</v>
       </c>
       <c r="H104">
         <v>5261500</v>
       </c>
       <c r="I104">
-        <v>95295924000</v>
+        <v>90786438000</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-17T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>7682449527000</v>
+        <v>6897771990000</v>
       </c>
       <c r="L104">
         <v>433277300</v>
@@ -5593,13 +5593,13 @@
         <v>393900</v>
       </c>
       <c r="N104">
-        <v>13378878000</v>
+        <v>12343314600</v>
       </c>
       <c r="O104">
         <v>58860900</v>
       </c>
       <c r="P104">
-        <v>1180495913000</v>
+        <v>947337904400</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>25900</v>
       </c>
       <c r="E105">
-        <v>29679104000</v>
+        <v>28617766400</v>
       </c>
       <c r="F105">
-        <v>72106458000</v>
+        <v>65802867900</v>
       </c>
       <c r="G105">
         <v>124605000</v>
@@ -5628,13 +5628,13 @@
         <v>6301000</v>
       </c>
       <c r="I105">
-        <v>101910167000</v>
+        <v>94545239300</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-17T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>7784359694000</v>
+        <v>6992317229300</v>
       </c>
       <c r="L105">
         <v>439578300</v>
@@ -5643,13 +5643,13 @@
         <v>3090700</v>
       </c>
       <c r="N105">
-        <v>42427354000</v>
+        <v>37185101500</v>
       </c>
       <c r="O105">
         <v>61951600</v>
       </c>
       <c r="P105">
-        <v>1222923267000</v>
+        <v>984523005900</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>18600</v>
       </c>
       <c r="E106">
-        <v>29418375000</v>
+        <v>29270622900</v>
       </c>
       <c r="F106">
-        <v>70032734000</v>
+        <v>68923144700</v>
       </c>
       <c r="G106">
-        <v>216185000</v>
+        <v>207793400</v>
       </c>
       <c r="H106">
         <v>6566200</v>
       </c>
       <c r="I106">
-        <v>99667294000</v>
+        <v>98401561000</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-17T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>7884026988000</v>
+        <v>7090718790300</v>
       </c>
       <c r="L106">
         <v>446144500</v>
@@ -5693,13 +5693,13 @@
         <v>2929600</v>
       </c>
       <c r="N106">
-        <v>40614359000</v>
+        <v>39652521800</v>
       </c>
       <c r="O106">
         <v>64881200</v>
       </c>
       <c r="P106">
-        <v>1263537626000</v>
+        <v>1024175527700</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>111200</v>
       </c>
       <c r="E107">
-        <v>25299106000</v>
+        <v>25080125200</v>
       </c>
       <c r="F107">
-        <v>77044142000</v>
+        <v>76793792600</v>
       </c>
       <c r="G107">
         <v>2278577000</v>
@@ -5728,13 +5728,13 @@
         <v>5855000</v>
       </c>
       <c r="I107">
-        <v>104621825000</v>
+        <v>104152494800</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-17T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7988648813000</v>
+        <v>7194871285100</v>
       </c>
       <c r="L107">
         <v>451999500</v>
@@ -5743,13 +5743,13 @@
         <v>2831800</v>
       </c>
       <c r="N107">
-        <v>51745036000</v>
+        <v>51713667400</v>
       </c>
       <c r="O107">
         <v>67713000</v>
       </c>
       <c r="P107">
-        <v>1315282662000</v>
+        <v>1075889195100</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>16300</v>
       </c>
       <c r="E108">
-        <v>35693008000</v>
+        <v>30153153400</v>
       </c>
       <c r="F108">
-        <v>80238558000</v>
+        <v>79968927900</v>
       </c>
       <c r="G108">
         <v>194331000</v>
@@ -5778,13 +5778,13 @@
         <v>6804200</v>
       </c>
       <c r="I108">
-        <v>116125897000</v>
+        <v>110316412300</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-17T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>8104774710000</v>
+        <v>7305187697400</v>
       </c>
       <c r="L108">
         <v>458803700</v>
@@ -5793,13 +5793,13 @@
         <v>1719300</v>
       </c>
       <c r="N108">
-        <v>44545550000</v>
+        <v>49815774500</v>
       </c>
       <c r="O108">
         <v>69432300</v>
       </c>
       <c r="P108">
-        <v>1359828212000</v>
+        <v>1125704969600</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>5100</v>
       </c>
       <c r="E109">
-        <v>36175246000</v>
+        <v>35063758600</v>
       </c>
       <c r="F109">
-        <v>141305980000</v>
+        <v>138855832600</v>
       </c>
       <c r="G109">
         <v>63603000</v>
@@ -5828,13 +5828,13 @@
         <v>9869200</v>
       </c>
       <c r="I109">
-        <v>177544829000</v>
+        <v>173983194200</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-17T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>8282319539000</v>
+        <v>7479170891600</v>
       </c>
       <c r="L109">
         <v>468672900</v>
@@ -5843,13 +5843,13 @@
         <v>5479100</v>
       </c>
       <c r="N109">
-        <v>105130734000</v>
+        <v>103792074000</v>
       </c>
       <c r="O109">
         <v>74911400</v>
       </c>
       <c r="P109">
-        <v>1464958946000</v>
+        <v>1229497043600</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>47400</v>
       </c>
       <c r="E110">
-        <v>28447709000</v>
+        <v>26427431300</v>
       </c>
       <c r="F110">
-        <v>188966619000</v>
+        <v>179418576600</v>
       </c>
       <c r="G110">
         <v>661053000</v>
@@ -5878,13 +5878,13 @@
         <v>11070600</v>
       </c>
       <c r="I110">
-        <v>218075381000</v>
+        <v>206507060900</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-17T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>8500394920000</v>
+        <v>7685677952500</v>
       </c>
       <c r="L110">
         <v>479743500</v>
@@ -5893,13 +5893,13 @@
         <v>7702200</v>
       </c>
       <c r="N110">
-        <v>160518910000</v>
+        <v>152991145300</v>
       </c>
       <c r="O110">
         <v>82613600</v>
       </c>
       <c r="P110">
-        <v>1625477856000</v>
+        <v>1382488188900</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>16800</v>
       </c>
       <c r="E111">
-        <v>42373189000</v>
+        <v>40819744000</v>
       </c>
       <c r="F111">
-        <v>197825303000</v>
+        <v>193112120900</v>
       </c>
       <c r="G111">
         <v>212664000</v>
@@ -5928,13 +5928,13 @@
         <v>12871200</v>
       </c>
       <c r="I111">
-        <v>240411156000</v>
+        <v>234144528900</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-17T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>8740806076000</v>
+        <v>7919822481400</v>
       </c>
       <c r="L111">
         <v>492614700</v>
@@ -5943,13 +5943,13 @@
         <v>7821400</v>
       </c>
       <c r="N111">
-        <v>155452114000</v>
+        <v>152292376900</v>
       </c>
       <c r="O111">
         <v>90435000</v>
       </c>
       <c r="P111">
-        <v>1780929970000</v>
+        <v>1534780565800</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>40000</v>
       </c>
       <c r="E112">
-        <v>52773332000</v>
+        <v>50328878900</v>
       </c>
       <c r="F112">
-        <v>167627622000</v>
+        <v>161796459000</v>
       </c>
       <c r="G112">
-        <v>1105506000</v>
+        <v>1055156400</v>
       </c>
       <c r="H112">
         <v>12772000</v>
       </c>
       <c r="I112">
-        <v>221506460000</v>
+        <v>213180494300</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-17T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>8962312536000</v>
+        <v>8133002975700</v>
       </c>
       <c r="L112">
         <v>505386700</v>
@@ -5993,13 +5993,13 @@
         <v>6203200</v>
       </c>
       <c r="N112">
-        <v>114854290000</v>
+        <v>111467580100</v>
       </c>
       <c r="O112">
         <v>96638200</v>
       </c>
       <c r="P112">
-        <v>1895784260000</v>
+        <v>1646248145900</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>17600</v>
       </c>
       <c r="E113">
-        <v>52446655000</v>
+        <v>48879425800</v>
       </c>
       <c r="F113">
-        <v>89879019000</v>
+        <v>84666237000</v>
       </c>
       <c r="G113">
-        <v>385890000</v>
+        <v>334941000</v>
       </c>
       <c r="H113">
         <v>7729800</v>
       </c>
       <c r="I113">
-        <v>142711564000</v>
+        <v>133880603800</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-17T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>9105024100000</v>
+        <v>8266883579500</v>
       </c>
       <c r="L113">
         <v>513116500</v>
@@ -6043,13 +6043,13 @@
         <v>1888600</v>
       </c>
       <c r="N113">
-        <v>37432364000</v>
+        <v>35786811200</v>
       </c>
       <c r="O113">
         <v>98526800</v>
       </c>
       <c r="P113">
-        <v>1933216624000</v>
+        <v>1682034957100</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>56600</v>
       </c>
       <c r="E114">
-        <v>57777007000</v>
+        <v>55319766700</v>
       </c>
       <c r="F114">
-        <v>116966772000</v>
+        <v>95521838400</v>
       </c>
       <c r="G114">
-        <v>1587366000</v>
+        <v>1521432000</v>
       </c>
       <c r="H114">
         <v>8490400</v>
       </c>
       <c r="I114">
-        <v>176331145000</v>
+        <v>152363037100</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-17T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>9281355245000</v>
+        <v>8419246616600</v>
       </c>
       <c r="L114">
         <v>521606900</v>
@@ -6093,13 +6093,13 @@
         <v>1731000</v>
       </c>
       <c r="N114">
-        <v>59189765000</v>
+        <v>40202071700</v>
       </c>
       <c r="O114">
         <v>100257800</v>
       </c>
       <c r="P114">
-        <v>1992406389000</v>
+        <v>1722237028800</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>52100</v>
       </c>
       <c r="E115">
-        <v>61924623000</v>
+        <v>59086064400</v>
       </c>
       <c r="F115">
-        <v>136872667000</v>
+        <v>117721936900</v>
       </c>
       <c r="G115">
-        <v>1294899000</v>
+        <v>1223470500</v>
       </c>
       <c r="H115">
         <v>10564800</v>
       </c>
       <c r="I115">
-        <v>200092189000</v>
+        <v>178031471800</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-17T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>9481447434000</v>
+        <v>8597278088400</v>
       </c>
       <c r="L115">
         <v>532171700</v>
@@ -6143,13 +6143,13 @@
         <v>2342900</v>
       </c>
       <c r="N115">
-        <v>74948044000</v>
+        <v>58635872500</v>
       </c>
       <c r="O115">
         <v>102600700</v>
       </c>
       <c r="P115">
-        <v>2067354433000</v>
+        <v>1780872901300</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-01-17T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>9483399356000</v>
+        <v>8599230010400</v>
       </c>
       <c r="L116">
         <v>532257000</v>
@@ -6199,7 +6199,7 @@
         <v>102668400</v>
       </c>
       <c r="P116">
-        <v>2068887759000</v>
+        <v>1782406227300</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>25186100</v>
       </c>
       <c r="E117">
-        <v>35708926000</v>
+        <v>35337397900</v>
       </c>
       <c r="F117">
-        <v>92173904000</v>
+        <v>86701581800</v>
       </c>
       <c r="G117">
-        <v>493658324000</v>
+        <v>394473108500</v>
       </c>
       <c r="H117">
         <v>31243800</v>
       </c>
       <c r="I117">
-        <v>621541154000</v>
+        <v>516512088200</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-17T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>10104940510000</v>
+        <v>9115742098600</v>
       </c>
       <c r="L117">
         <v>563500800</v>
@@ -6243,13 +6243,13 @@
         <v>807700</v>
       </c>
       <c r="N117">
-        <v>56464978000</v>
+        <v>51364183900</v>
       </c>
       <c r="O117">
         <v>103476100</v>
       </c>
       <c r="P117">
-        <v>2125352737000</v>
+        <v>1833770411200</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230117/VNINDEX_HOSE_5p_20230117.xlsx
+++ b/name/vnindex/20230117/VNINDEX_HOSE_5p_20230117.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>16715104400</v>
       </c>
+      <c r="Q2">
+        <v>30224460700</v>
+      </c>
+      <c r="R2">
+        <v>13509356300</v>
+      </c>
+      <c r="S2">
+        <v>1732600</v>
+      </c>
+      <c r="T2">
+        <v>1023500</v>
+      </c>
+      <c r="U2">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V2">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W2">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X2">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y2">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z2">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA2">
+        <v>892035.3</v>
+      </c>
+      <c r="AB2">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC2">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>42715542200</v>
       </c>
+      <c r="Q3">
+        <v>68243929000</v>
+      </c>
+      <c r="R3">
+        <v>25528386800</v>
+      </c>
+      <c r="S3">
+        <v>4332700</v>
+      </c>
+      <c r="T3">
+        <v>1883500</v>
+      </c>
+      <c r="U3">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V3">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W3">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X3">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y3">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z3">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA3">
+        <v>892035.3</v>
+      </c>
+      <c r="AB3">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC3">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>69160837900</v>
       </c>
+      <c r="Q4">
+        <v>117894427400</v>
+      </c>
+      <c r="R4">
+        <v>48733589500</v>
+      </c>
+      <c r="S4">
+        <v>7343700</v>
+      </c>
+      <c r="T4">
+        <v>3484800</v>
+      </c>
+      <c r="U4">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V4">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W4">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X4">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y4">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z4">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA4">
+        <v>892035.3</v>
+      </c>
+      <c r="AB4">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC4">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>93485527600</v>
       </c>
+      <c r="Q5">
+        <v>168036028400</v>
+      </c>
+      <c r="R5">
+        <v>74550500800</v>
+      </c>
+      <c r="S5">
+        <v>10557900</v>
+      </c>
+      <c r="T5">
+        <v>5209500</v>
+      </c>
+      <c r="U5">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V5">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W5">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X5">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y5">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z5">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA5">
+        <v>892035.3</v>
+      </c>
+      <c r="AB5">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>110213221100</v>
       </c>
+      <c r="Q6">
+        <v>216234073000</v>
+      </c>
+      <c r="R6">
+        <v>106020851900</v>
+      </c>
+      <c r="S6">
+        <v>13703500</v>
+      </c>
+      <c r="T6">
+        <v>7068700</v>
+      </c>
+      <c r="U6">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V6">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W6">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X6">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y6">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z6">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA6">
+        <v>892035.3</v>
+      </c>
+      <c r="AB6">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>125375238300</v>
       </c>
+      <c r="Q7">
+        <v>261295188400</v>
+      </c>
+      <c r="R7">
+        <v>135919950100</v>
+      </c>
+      <c r="S7">
+        <v>16384700</v>
+      </c>
+      <c r="T7">
+        <v>8949400</v>
+      </c>
+      <c r="U7">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V7">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W7">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X7">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y7">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z7">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA7">
+        <v>892035.3</v>
+      </c>
+      <c r="AB7">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>136037741200</v>
       </c>
+      <c r="Q8">
+        <v>299575269000</v>
+      </c>
+      <c r="R8">
+        <v>163537527800</v>
+      </c>
+      <c r="S8">
+        <v>18528000</v>
+      </c>
+      <c r="T8">
+        <v>10525200</v>
+      </c>
+      <c r="U8">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V8">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W8">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X8">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y8">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z8">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA8">
+        <v>892035.3</v>
+      </c>
+      <c r="AB8">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>156559475900</v>
       </c>
+      <c r="Q9">
+        <v>351931118200</v>
+      </c>
+      <c r="R9">
+        <v>195371642300</v>
+      </c>
+      <c r="S9">
+        <v>21929900</v>
+      </c>
+      <c r="T9">
+        <v>12482000</v>
+      </c>
+      <c r="U9">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V9">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W9">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X9">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y9">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z9">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA9">
+        <v>892035.3</v>
+      </c>
+      <c r="AB9">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC9">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>175584028400</v>
       </c>
+      <c r="Q10">
+        <v>402104000500</v>
+      </c>
+      <c r="R10">
+        <v>226519972100</v>
+      </c>
+      <c r="S10">
+        <v>25501400</v>
+      </c>
+      <c r="T10">
+        <v>14283300</v>
+      </c>
+      <c r="U10">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V10">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W10">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X10">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y10">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z10">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA10">
+        <v>892035.3</v>
+      </c>
+      <c r="AB10">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC10">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>179820440800</v>
       </c>
+      <c r="Q11">
+        <v>440810179600</v>
+      </c>
+      <c r="R11">
+        <v>260989738800</v>
+      </c>
+      <c r="S11">
+        <v>28071200</v>
+      </c>
+      <c r="T11">
+        <v>16367300</v>
+      </c>
+      <c r="U11">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V11">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W11">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X11">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y11">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z11">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA11">
+        <v>892035.3</v>
+      </c>
+      <c r="AB11">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC11">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>181179028100</v>
       </c>
+      <c r="Q12">
+        <v>481919449800</v>
+      </c>
+      <c r="R12">
+        <v>300740421700</v>
+      </c>
+      <c r="S12">
+        <v>30609000</v>
+      </c>
+      <c r="T12">
+        <v>18765800</v>
+      </c>
+      <c r="U12">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V12">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W12">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X12">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y12">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z12">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA12">
+        <v>892035.3</v>
+      </c>
+      <c r="AB12">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC12">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>174371962400</v>
       </c>
+      <c r="Q13">
+        <v>518151954900</v>
+      </c>
+      <c r="R13">
+        <v>343779992500</v>
+      </c>
+      <c r="S13">
+        <v>32674400</v>
+      </c>
+      <c r="T13">
+        <v>21151500</v>
+      </c>
+      <c r="U13">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V13">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W13">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X13">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y13">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z13">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA13">
+        <v>892035.3</v>
+      </c>
+      <c r="AB13">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC13">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>168615239900</v>
       </c>
+      <c r="Q14">
+        <v>547555999600</v>
+      </c>
+      <c r="R14">
+        <v>378940759700</v>
+      </c>
+      <c r="S14">
+        <v>34719300</v>
+      </c>
+      <c r="T14">
+        <v>23520200</v>
+      </c>
+      <c r="U14">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V14">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W14">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X14">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y14">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z14">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA14">
+        <v>892035.3</v>
+      </c>
+      <c r="AB14">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>180008433900</v>
       </c>
+      <c r="Q15">
+        <v>583286533400</v>
+      </c>
+      <c r="R15">
+        <v>403278099500</v>
+      </c>
+      <c r="S15">
+        <v>36826500</v>
+      </c>
+      <c r="T15">
+        <v>25345900</v>
+      </c>
+      <c r="U15">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V15">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W15">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X15">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y15">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z15">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA15">
+        <v>892035.3</v>
+      </c>
+      <c r="AB15">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC15">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>190589665200</v>
       </c>
+      <c r="Q16">
+        <v>619202888200</v>
+      </c>
+      <c r="R16">
+        <v>428613223000</v>
+      </c>
+      <c r="S16">
+        <v>39206200</v>
+      </c>
+      <c r="T16">
+        <v>26823800</v>
+      </c>
+      <c r="U16">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V16">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W16">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X16">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y16">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z16">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA16">
+        <v>892035.3</v>
+      </c>
+      <c r="AB16">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC16">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>200517634200</v>
       </c>
+      <c r="Q17">
+        <v>658835977600</v>
+      </c>
+      <c r="R17">
+        <v>458318343400</v>
+      </c>
+      <c r="S17">
+        <v>41525800</v>
+      </c>
+      <c r="T17">
+        <v>28616600</v>
+      </c>
+      <c r="U17">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V17">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W17">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X17">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y17">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z17">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA17">
+        <v>892035.3</v>
+      </c>
+      <c r="AB17">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC17">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>257586603100</v>
       </c>
+      <c r="Q18">
+        <v>740187660200</v>
+      </c>
+      <c r="R18">
+        <v>482601057100</v>
+      </c>
+      <c r="S18">
+        <v>46291100</v>
+      </c>
+      <c r="T18">
+        <v>30086700</v>
+      </c>
+      <c r="U18">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V18">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W18">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X18">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y18">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z18">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA18">
+        <v>892035.3</v>
+      </c>
+      <c r="AB18">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC18">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>314682807200</v>
       </c>
+      <c r="Q19">
+        <v>817317736900</v>
+      </c>
+      <c r="R19">
+        <v>502634929700</v>
+      </c>
+      <c r="S19">
+        <v>51759500</v>
+      </c>
+      <c r="T19">
+        <v>31581200</v>
+      </c>
+      <c r="U19">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V19">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W19">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X19">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y19">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z19">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA19">
+        <v>892035.3</v>
+      </c>
+      <c r="AB19">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC19">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>393967567300</v>
       </c>
+      <c r="Q20">
+        <v>925653900800</v>
+      </c>
+      <c r="R20">
+        <v>531686333500</v>
+      </c>
+      <c r="S20">
+        <v>58983900</v>
+      </c>
+      <c r="T20">
+        <v>33171600</v>
+      </c>
+      <c r="U20">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V20">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W20">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X20">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y20">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z20">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA20">
+        <v>892035.3</v>
+      </c>
+      <c r="AB20">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>466033401000</v>
       </c>
+      <c r="Q21">
+        <v>1017060701800</v>
+      </c>
+      <c r="R21">
+        <v>551027300800</v>
+      </c>
+      <c r="S21">
+        <v>64237100</v>
+      </c>
+      <c r="T21">
+        <v>34494700</v>
+      </c>
+      <c r="U21">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V21">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W21">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X21">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y21">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z21">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA21">
+        <v>892035.3</v>
+      </c>
+      <c r="AB21">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC21">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>533397345500</v>
       </c>
+      <c r="Q22">
+        <v>1113512754300</v>
+      </c>
+      <c r="R22">
+        <v>580115408800</v>
+      </c>
+      <c r="S22">
+        <v>70356600</v>
+      </c>
+      <c r="T22">
+        <v>36281500</v>
+      </c>
+      <c r="U22">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V22">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W22">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X22">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y22">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z22">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA22">
+        <v>892035.3</v>
+      </c>
+      <c r="AB22">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC22">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>556528986900</v>
       </c>
+      <c r="Q23">
+        <v>1173543038400</v>
+      </c>
+      <c r="R23">
+        <v>617014051500</v>
+      </c>
+      <c r="S23">
+        <v>73805300</v>
+      </c>
+      <c r="T23">
+        <v>38660300</v>
+      </c>
+      <c r="U23">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V23">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W23">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X23">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y23">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z23">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA23">
+        <v>892035.3</v>
+      </c>
+      <c r="AB23">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC23">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>580322844900</v>
       </c>
+      <c r="Q24">
+        <v>1233935236100</v>
+      </c>
+      <c r="R24">
+        <v>653612391200</v>
+      </c>
+      <c r="S24">
+        <v>77262700</v>
+      </c>
+      <c r="T24">
+        <v>41538300</v>
+      </c>
+      <c r="U24">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V24">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W24">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X24">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y24">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z24">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA24">
+        <v>892035.3</v>
+      </c>
+      <c r="AB24">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC24">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>574346981300</v>
       </c>
+      <c r="Q25">
+        <v>1265043558000</v>
+      </c>
+      <c r="R25">
+        <v>690696576700</v>
+      </c>
+      <c r="S25">
+        <v>79200400</v>
+      </c>
+      <c r="T25">
+        <v>43807200</v>
+      </c>
+      <c r="U25">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V25">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W25">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X25">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y25">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z25">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA25">
+        <v>892035.3</v>
+      </c>
+      <c r="AB25">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC25">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>564070099600</v>
       </c>
+      <c r="Q26">
+        <v>1297858168400</v>
+      </c>
+      <c r="R26">
+        <v>733788068800</v>
+      </c>
+      <c r="S26">
+        <v>80987100</v>
+      </c>
+      <c r="T26">
+        <v>46267100</v>
+      </c>
+      <c r="U26">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V26">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W26">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X26">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y26">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z26">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA26">
+        <v>892035.3</v>
+      </c>
+      <c r="AB26">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC26">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>542247176500</v>
       </c>
+      <c r="Q27">
+        <v>1320238354100</v>
+      </c>
+      <c r="R27">
+        <v>777991177600</v>
+      </c>
+      <c r="S27">
+        <v>82282700</v>
+      </c>
+      <c r="T27">
+        <v>48858500</v>
+      </c>
+      <c r="U27">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V27">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W27">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X27">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y27">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z27">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA27">
+        <v>892035.3</v>
+      </c>
+      <c r="AB27">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC27">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>536300501200</v>
       </c>
+      <c r="Q28">
+        <v>1368047768300</v>
+      </c>
+      <c r="R28">
+        <v>831747267100</v>
+      </c>
+      <c r="S28">
+        <v>86437100</v>
+      </c>
+      <c r="T28">
+        <v>52314100</v>
+      </c>
+      <c r="U28">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V28">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W28">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X28">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y28">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z28">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA28">
+        <v>892035.3</v>
+      </c>
+      <c r="AB28">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC28">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>559711528400</v>
       </c>
+      <c r="Q29">
+        <v>1413773531400</v>
+      </c>
+      <c r="R29">
+        <v>854062003000</v>
+      </c>
+      <c r="S29">
+        <v>88986400</v>
+      </c>
+      <c r="T29">
+        <v>53748600</v>
+      </c>
+      <c r="U29">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V29">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W29">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X29">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y29">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z29">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA29">
+        <v>892035.3</v>
+      </c>
+      <c r="AB29">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC29">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>551862600400</v>
       </c>
+      <c r="Q30">
+        <v>1447560839400</v>
+      </c>
+      <c r="R30">
+        <v>895698239000</v>
+      </c>
+      <c r="S30">
+        <v>91297400</v>
+      </c>
+      <c r="T30">
+        <v>56899400</v>
+      </c>
+      <c r="U30">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V30">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W30">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X30">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y30">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z30">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA30">
+        <v>892035.3</v>
+      </c>
+      <c r="AB30">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>563223598200</v>
       </c>
+      <c r="Q31">
+        <v>1494185252900</v>
+      </c>
+      <c r="R31">
+        <v>930961654700</v>
+      </c>
+      <c r="S31">
+        <v>93791900</v>
+      </c>
+      <c r="T31">
+        <v>58893900</v>
+      </c>
+      <c r="U31">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V31">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W31">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X31">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y31">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z31">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA31">
+        <v>892035.3</v>
+      </c>
+      <c r="AB31">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC31">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>576677555800</v>
       </c>
+      <c r="Q32">
+        <v>1533365840600</v>
+      </c>
+      <c r="R32">
+        <v>956688284800</v>
+      </c>
+      <c r="S32">
+        <v>95895200</v>
+      </c>
+      <c r="T32">
+        <v>60721200</v>
+      </c>
+      <c r="U32">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V32">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W32">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X32">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y32">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z32">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA32">
+        <v>892035.3</v>
+      </c>
+      <c r="AB32">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC32">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>581085093500</v>
       </c>
+      <c r="Q33">
+        <v>1562540727000</v>
+      </c>
+      <c r="R33">
+        <v>981455633500</v>
+      </c>
+      <c r="S33">
+        <v>97383300</v>
+      </c>
+      <c r="T33">
+        <v>62568200</v>
+      </c>
+      <c r="U33">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V33">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W33">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X33">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y33">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z33">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA33">
+        <v>892035.3</v>
+      </c>
+      <c r="AB33">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC33">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>592469523900</v>
       </c>
+      <c r="Q34">
+        <v>1594222068900</v>
+      </c>
+      <c r="R34">
+        <v>1001752545000</v>
+      </c>
+      <c r="S34">
+        <v>99015800</v>
+      </c>
+      <c r="T34">
+        <v>63729400</v>
+      </c>
+      <c r="U34">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V34">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W34">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X34">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y34">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z34">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA34">
+        <v>892035.3</v>
+      </c>
+      <c r="AB34">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC34">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>590423939300</v>
       </c>
+      <c r="Q35">
+        <v>1621068643400</v>
+      </c>
+      <c r="R35">
+        <v>1030644704100</v>
+      </c>
+      <c r="S35">
+        <v>100319500</v>
+      </c>
+      <c r="T35">
+        <v>65789300</v>
+      </c>
+      <c r="U35">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V35">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W35">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X35">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y35">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z35">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA35">
+        <v>892035.3</v>
+      </c>
+      <c r="AB35">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC35">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>583464742400</v>
       </c>
+      <c r="Q36">
+        <v>1650602865200</v>
+      </c>
+      <c r="R36">
+        <v>1067138122800</v>
+      </c>
+      <c r="S36">
+        <v>102115400</v>
+      </c>
+      <c r="T36">
+        <v>67949100</v>
+      </c>
+      <c r="U36">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V36">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W36">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X36">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y36">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z36">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA36">
+        <v>892035.3</v>
+      </c>
+      <c r="AB36">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC36">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>589064449700</v>
       </c>
+      <c r="Q37">
+        <v>1675533362500</v>
+      </c>
+      <c r="R37">
+        <v>1086468912800</v>
+      </c>
+      <c r="S37">
+        <v>103582700</v>
+      </c>
+      <c r="T37">
+        <v>69160100</v>
+      </c>
+      <c r="U37">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V37">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W37">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X37">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y37">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z37">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA37">
+        <v>892035.3</v>
+      </c>
+      <c r="AB37">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC37">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>598652251100</v>
       </c>
+      <c r="Q38">
+        <v>1711100893400</v>
+      </c>
+      <c r="R38">
+        <v>1112448642300</v>
+      </c>
+      <c r="S38">
+        <v>105738900</v>
+      </c>
+      <c r="T38">
+        <v>70738800</v>
+      </c>
+      <c r="U38">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V38">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W38">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X38">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y38">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z38">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA38">
+        <v>892035.3</v>
+      </c>
+      <c r="AB38">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC38">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>584148914800</v>
       </c>
+      <c r="Q39">
+        <v>1727553738100</v>
+      </c>
+      <c r="R39">
+        <v>1143404823300</v>
+      </c>
+      <c r="S39">
+        <v>106842400</v>
+      </c>
+      <c r="T39">
+        <v>72587100</v>
+      </c>
+      <c r="U39">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V39">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W39">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X39">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y39">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z39">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA39">
+        <v>892035.3</v>
+      </c>
+      <c r="AB39">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC39">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>570036788200</v>
       </c>
+      <c r="Q40">
+        <v>1742818662100</v>
+      </c>
+      <c r="R40">
+        <v>1172781873900</v>
+      </c>
+      <c r="S40">
+        <v>107831300</v>
+      </c>
+      <c r="T40">
+        <v>74563300</v>
+      </c>
+      <c r="U40">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V40">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W40">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X40">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y40">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z40">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA40">
+        <v>892035.3</v>
+      </c>
+      <c r="AB40">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC40">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>550833453600</v>
       </c>
+      <c r="Q41">
+        <v>1757224040000</v>
+      </c>
+      <c r="R41">
+        <v>1206390586400</v>
+      </c>
+      <c r="S41">
+        <v>108664300</v>
+      </c>
+      <c r="T41">
+        <v>76401300</v>
+      </c>
+      <c r="U41">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V41">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W41">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X41">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y41">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z41">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA41">
+        <v>892035.3</v>
+      </c>
+      <c r="AB41">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC41">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>541784596100</v>
       </c>
+      <c r="Q42">
+        <v>1777201161500</v>
+      </c>
+      <c r="R42">
+        <v>1235416565400</v>
+      </c>
+      <c r="S42">
+        <v>110229400</v>
+      </c>
+      <c r="T42">
+        <v>78061400</v>
+      </c>
+      <c r="U42">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V42">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W42">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X42">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y42">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z42">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA42">
+        <v>892035.3</v>
+      </c>
+      <c r="AB42">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC42">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>540025973600</v>
       </c>
+      <c r="Q43">
+        <v>1795534642700</v>
+      </c>
+      <c r="R43">
+        <v>1255508669100</v>
+      </c>
+      <c r="S43">
+        <v>111479900</v>
+      </c>
+      <c r="T43">
+        <v>79261600</v>
+      </c>
+      <c r="U43">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V43">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W43">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X43">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y43">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z43">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA43">
+        <v>892035.3</v>
+      </c>
+      <c r="AB43">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC43">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>539960548200</v>
       </c>
+      <c r="Q44">
+        <v>1815776385300</v>
+      </c>
+      <c r="R44">
+        <v>1275815837100</v>
+      </c>
+      <c r="S44">
+        <v>112793100</v>
+      </c>
+      <c r="T44">
+        <v>80369900</v>
+      </c>
+      <c r="U44">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V44">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W44">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X44">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y44">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z44">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA44">
+        <v>892035.3</v>
+      </c>
+      <c r="AB44">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>546723933200</v>
       </c>
+      <c r="Q45">
+        <v>1836672494000</v>
+      </c>
+      <c r="R45">
+        <v>1289948560800</v>
+      </c>
+      <c r="S45">
+        <v>114258600</v>
+      </c>
+      <c r="T45">
+        <v>81266900</v>
+      </c>
+      <c r="U45">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V45">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W45">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X45">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y45">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z45">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA45">
+        <v>892035.3</v>
+      </c>
+      <c r="AB45">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC45">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>541633628100</v>
       </c>
+      <c r="Q46">
+        <v>1848283033100</v>
+      </c>
+      <c r="R46">
+        <v>1306649405000</v>
+      </c>
+      <c r="S46">
+        <v>115019900</v>
+      </c>
+      <c r="T46">
+        <v>82605800</v>
+      </c>
+      <c r="U46">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V46">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W46">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X46">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y46">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z46">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA46">
+        <v>892035.3</v>
+      </c>
+      <c r="AB46">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC46">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>530662836500</v>
       </c>
+      <c r="Q47">
+        <v>1856891065100</v>
+      </c>
+      <c r="R47">
+        <v>1326228228600</v>
+      </c>
+      <c r="S47">
+        <v>115581400</v>
+      </c>
+      <c r="T47">
+        <v>84169800</v>
+      </c>
+      <c r="U47">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V47">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W47">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X47">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y47">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z47">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA47">
+        <v>892035.3</v>
+      </c>
+      <c r="AB47">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC47">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>516751376800</v>
       </c>
+      <c r="Q48">
+        <v>1873334621000</v>
+      </c>
+      <c r="R48">
+        <v>1356583244200</v>
+      </c>
+      <c r="S48">
+        <v>116615900</v>
+      </c>
+      <c r="T48">
+        <v>85972400</v>
+      </c>
+      <c r="U48">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V48">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W48">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X48">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y48">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z48">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA48">
+        <v>892035.3</v>
+      </c>
+      <c r="AB48">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC48">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>494782999400</v>
       </c>
+      <c r="Q49">
+        <v>1891038457000</v>
+      </c>
+      <c r="R49">
+        <v>1396255457600</v>
+      </c>
+      <c r="S49">
+        <v>117701400</v>
+      </c>
+      <c r="T49">
+        <v>89004200</v>
+      </c>
+      <c r="U49">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V49">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W49">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X49">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y49">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z49">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA49">
+        <v>892035.3</v>
+      </c>
+      <c r="AB49">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC49">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>487035924400</v>
       </c>
+      <c r="Q50">
+        <v>1909129456900</v>
+      </c>
+      <c r="R50">
+        <v>1422093532500</v>
+      </c>
+      <c r="S50">
+        <v>119115200</v>
+      </c>
+      <c r="T50">
+        <v>90663700</v>
+      </c>
+      <c r="U50">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V50">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W50">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X50">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y50">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z50">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA50">
+        <v>892035.3</v>
+      </c>
+      <c r="AB50">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC50">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>480628109300</v>
       </c>
+      <c r="Q51">
+        <v>1928647167300</v>
+      </c>
+      <c r="R51">
+        <v>1448019058000</v>
+      </c>
+      <c r="S51">
+        <v>120064700</v>
+      </c>
+      <c r="T51">
+        <v>92338200</v>
+      </c>
+      <c r="U51">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V51">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W51">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X51">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y51">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z51">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA51">
+        <v>892035.3</v>
+      </c>
+      <c r="AB51">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC51">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>483636793800</v>
       </c>
+      <c r="Q52">
+        <v>1948105611600</v>
+      </c>
+      <c r="R52">
+        <v>1464468817800</v>
+      </c>
+      <c r="S52">
+        <v>121151600</v>
+      </c>
+      <c r="T52">
+        <v>93449700</v>
+      </c>
+      <c r="U52">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V52">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W52">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X52">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y52">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z52">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA52">
+        <v>892035.3</v>
+      </c>
+      <c r="AB52">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC52">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>486522841600</v>
       </c>
+      <c r="Q53">
+        <v>1972511511600</v>
+      </c>
+      <c r="R53">
+        <v>1485988670000</v>
+      </c>
+      <c r="S53">
+        <v>122470100</v>
+      </c>
+      <c r="T53">
+        <v>94760300</v>
+      </c>
+      <c r="U53">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V53">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W53">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X53">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y53">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z53">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA53">
+        <v>892035.3</v>
+      </c>
+      <c r="AB53">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC53">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>490840421800</v>
       </c>
+      <c r="Q54">
+        <v>1993872282800</v>
+      </c>
+      <c r="R54">
+        <v>1503031861000</v>
+      </c>
+      <c r="S54">
+        <v>123864100</v>
+      </c>
+      <c r="T54">
+        <v>95760900</v>
+      </c>
+      <c r="U54">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V54">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W54">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X54">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y54">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z54">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA54">
+        <v>892035.3</v>
+      </c>
+      <c r="AB54">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC54">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>514869852500</v>
       </c>
+      <c r="Q55">
+        <v>2029061663700</v>
+      </c>
+      <c r="R55">
+        <v>1514191811200</v>
+      </c>
+      <c r="S55">
+        <v>125630300</v>
+      </c>
+      <c r="T55">
+        <v>96344000</v>
+      </c>
+      <c r="U55">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V55">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W55">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X55">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y55">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z55">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA55">
+        <v>892035.3</v>
+      </c>
+      <c r="AB55">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC55">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>528118581800</v>
       </c>
+      <c r="Q56">
+        <v>2055243540400</v>
+      </c>
+      <c r="R56">
+        <v>1527124958600</v>
+      </c>
+      <c r="S56">
+        <v>126931200</v>
+      </c>
+      <c r="T56">
+        <v>97116300</v>
+      </c>
+      <c r="U56">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V56">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W56">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X56">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y56">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z56">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA56">
+        <v>892035.3</v>
+      </c>
+      <c r="AB56">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC56">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>527558424300</v>
       </c>
+      <c r="Q57">
+        <v>2076686198000</v>
+      </c>
+      <c r="R57">
+        <v>1549127773700</v>
+      </c>
+      <c r="S57">
+        <v>128256200</v>
+      </c>
+      <c r="T57">
+        <v>98358100</v>
+      </c>
+      <c r="U57">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V57">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W57">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X57">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y57">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z57">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA57">
+        <v>892035.3</v>
+      </c>
+      <c r="AB57">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>515455396700</v>
       </c>
+      <c r="Q58">
+        <v>2091188949900</v>
+      </c>
+      <c r="R58">
+        <v>1575733553200</v>
+      </c>
+      <c r="S58">
+        <v>129106600</v>
+      </c>
+      <c r="T58">
+        <v>99780700</v>
+      </c>
+      <c r="U58">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V58">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W58">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X58">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y58">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z58">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA58">
+        <v>892035.3</v>
+      </c>
+      <c r="AB58">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC58">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>508752743600</v>
       </c>
+      <c r="Q59">
+        <v>2102852576800</v>
+      </c>
+      <c r="R59">
+        <v>1594099833200</v>
+      </c>
+      <c r="S59">
+        <v>129768700</v>
+      </c>
+      <c r="T59">
+        <v>100913600</v>
+      </c>
+      <c r="U59">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V59">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W59">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X59">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y59">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z59">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA59">
+        <v>892035.3</v>
+      </c>
+      <c r="AB59">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC59">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>504409803900</v>
       </c>
+      <c r="Q60">
+        <v>2121102223800</v>
+      </c>
+      <c r="R60">
+        <v>1616692419900</v>
+      </c>
+      <c r="S60">
+        <v>130808500</v>
+      </c>
+      <c r="T60">
+        <v>102167200</v>
+      </c>
+      <c r="U60">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V60">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W60">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X60">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y60">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z60">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA60">
+        <v>892035.3</v>
+      </c>
+      <c r="AB60">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC60">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>498172445000</v>
       </c>
+      <c r="Q61">
+        <v>2134314873200</v>
+      </c>
+      <c r="R61">
+        <v>1636142428200</v>
+      </c>
+      <c r="S61">
+        <v>131529400</v>
+      </c>
+      <c r="T61">
+        <v>103402500</v>
+      </c>
+      <c r="U61">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V61">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W61">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X61">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y61">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z61">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA61">
+        <v>892035.3</v>
+      </c>
+      <c r="AB61">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC61">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>498976476800</v>
       </c>
+      <c r="Q62">
+        <v>2147183780800</v>
+      </c>
+      <c r="R62">
+        <v>1648207304000</v>
+      </c>
+      <c r="S62">
+        <v>132305900</v>
+      </c>
+      <c r="T62">
+        <v>104157700</v>
+      </c>
+      <c r="U62">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V62">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W62">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X62">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y62">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z62">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA62">
+        <v>892035.3</v>
+      </c>
+      <c r="AB62">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC62">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>507248526800</v>
       </c>
+      <c r="Q63">
+        <v>2175654002400</v>
+      </c>
+      <c r="R63">
+        <v>1668405475600</v>
+      </c>
+      <c r="S63">
+        <v>133820400</v>
+      </c>
+      <c r="T63">
+        <v>105253400</v>
+      </c>
+      <c r="U63">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V63">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W63">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X63">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y63">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z63">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA63">
+        <v>892035.3</v>
+      </c>
+      <c r="AB63">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC63">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>531993578100</v>
       </c>
+      <c r="Q64">
+        <v>2214104544600</v>
+      </c>
+      <c r="R64">
+        <v>1682110966500</v>
+      </c>
+      <c r="S64">
+        <v>135936100</v>
+      </c>
+      <c r="T64">
+        <v>106074500</v>
+      </c>
+      <c r="U64">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V64">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W64">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X64">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y64">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z64">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA64">
+        <v>892035.3</v>
+      </c>
+      <c r="AB64">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC64">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>527661519700</v>
       </c>
+      <c r="Q65">
+        <v>2240957931600</v>
+      </c>
+      <c r="R65">
+        <v>1713296411900</v>
+      </c>
+      <c r="S65">
+        <v>137283100</v>
+      </c>
+      <c r="T65">
+        <v>107688600</v>
+      </c>
+      <c r="U65">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V65">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W65">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X65">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y65">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z65">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA65">
+        <v>892035.3</v>
+      </c>
+      <c r="AB65">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC65">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>542883508600</v>
       </c>
+      <c r="Q66">
+        <v>2275253589400</v>
+      </c>
+      <c r="R66">
+        <v>1732370080800</v>
+      </c>
+      <c r="S66">
+        <v>139206400</v>
+      </c>
+      <c r="T66">
+        <v>108796600</v>
+      </c>
+      <c r="U66">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V66">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W66">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X66">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y66">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z66">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA66">
+        <v>892035.3</v>
+      </c>
+      <c r="AB66">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>547002386400</v>
       </c>
+      <c r="Q67">
+        <v>2293035649000</v>
+      </c>
+      <c r="R67">
+        <v>1746033262600</v>
+      </c>
+      <c r="S67">
+        <v>140535200</v>
+      </c>
+      <c r="T67">
+        <v>109497400</v>
+      </c>
+      <c r="U67">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V67">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W67">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X67">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y67">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z67">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA67">
+        <v>892035.3</v>
+      </c>
+      <c r="AB67">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC67">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>547277660000</v>
       </c>
+      <c r="Q68">
+        <v>2315947613600</v>
+      </c>
+      <c r="R68">
+        <v>1768669953600</v>
+      </c>
+      <c r="S68">
+        <v>142030200</v>
+      </c>
+      <c r="T68">
+        <v>110856900</v>
+      </c>
+      <c r="U68">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V68">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W68">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X68">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y68">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z68">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA68">
+        <v>892035.3</v>
+      </c>
+      <c r="AB68">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>553322291100</v>
       </c>
+      <c r="Q69">
+        <v>2335599931700</v>
+      </c>
+      <c r="R69">
+        <v>1782277640600</v>
+      </c>
+      <c r="S69">
+        <v>144261700</v>
+      </c>
+      <c r="T69">
+        <v>111664100</v>
+      </c>
+      <c r="U69">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V69">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W69">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X69">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y69">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z69">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA69">
+        <v>892035.3</v>
+      </c>
+      <c r="AB69">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC69">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>553352591100</v>
       </c>
+      <c r="Q70">
+        <v>2335874361700</v>
+      </c>
+      <c r="R70">
+        <v>1782521770600</v>
+      </c>
+      <c r="S70">
+        <v>144273100</v>
+      </c>
+      <c r="T70">
+        <v>111675200</v>
+      </c>
+      <c r="U70">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V70">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W70">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X70">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y70">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z70">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA70">
+        <v>892035.3</v>
+      </c>
+      <c r="AB70">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>547566883500</v>
       </c>
+      <c r="Q71">
+        <v>2386610083800</v>
+      </c>
+      <c r="R71">
+        <v>1839043200300</v>
+      </c>
+      <c r="S71">
+        <v>147894900</v>
+      </c>
+      <c r="T71">
+        <v>114892900</v>
+      </c>
+      <c r="U71">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V71">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W71">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X71">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y71">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z71">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA71">
+        <v>892035.3</v>
+      </c>
+      <c r="AB71">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC71">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>561054517500</v>
       </c>
+      <c r="Q72">
+        <v>2420367293500</v>
+      </c>
+      <c r="R72">
+        <v>1859312776000</v>
+      </c>
+      <c r="S72">
+        <v>150828800</v>
+      </c>
+      <c r="T72">
+        <v>116022400</v>
+      </c>
+      <c r="U72">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V72">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W72">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X72">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y72">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z72">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA72">
+        <v>892035.3</v>
+      </c>
+      <c r="AB72">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC72">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>594607950900</v>
       </c>
+      <c r="Q73">
+        <v>2486784199300</v>
+      </c>
+      <c r="R73">
+        <v>1892176248400</v>
+      </c>
+      <c r="S73">
+        <v>154316900</v>
+      </c>
+      <c r="T73">
+        <v>117847600</v>
+      </c>
+      <c r="U73">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V73">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W73">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X73">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y73">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z73">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA73">
+        <v>892035.3</v>
+      </c>
+      <c r="AB73">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC73">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>658790848300</v>
       </c>
+      <c r="Q74">
+        <v>2564097677700</v>
+      </c>
+      <c r="R74">
+        <v>1905306829400</v>
+      </c>
+      <c r="S74">
+        <v>158341800</v>
+      </c>
+      <c r="T74">
+        <v>118645500</v>
+      </c>
+      <c r="U74">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V74">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W74">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X74">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y74">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z74">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA74">
+        <v>892035.3</v>
+      </c>
+      <c r="AB74">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC74">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>699303023300</v>
       </c>
+      <c r="Q75">
+        <v>2629624285900</v>
+      </c>
+      <c r="R75">
+        <v>1930321262600</v>
+      </c>
+      <c r="S75">
+        <v>162734900</v>
+      </c>
+      <c r="T75">
+        <v>120273700</v>
+      </c>
+      <c r="U75">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V75">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W75">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X75">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y75">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z75">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA75">
+        <v>892035.3</v>
+      </c>
+      <c r="AB75">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC75">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>690661380600</v>
       </c>
+      <c r="Q76">
+        <v>2653594863300</v>
+      </c>
+      <c r="R76">
+        <v>1962933482700</v>
+      </c>
+      <c r="S76">
+        <v>165302100</v>
+      </c>
+      <c r="T76">
+        <v>122226700</v>
+      </c>
+      <c r="U76">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V76">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W76">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X76">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y76">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z76">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA76">
+        <v>892035.3</v>
+      </c>
+      <c r="AB76">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC76">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>686812898900</v>
       </c>
+      <c r="Q77">
+        <v>2685368479500</v>
+      </c>
+      <c r="R77">
+        <v>1998555580600</v>
+      </c>
+      <c r="S77">
+        <v>168136900</v>
+      </c>
+      <c r="T77">
+        <v>124627600</v>
+      </c>
+      <c r="U77">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V77">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W77">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X77">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y77">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z77">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA77">
+        <v>892035.3</v>
+      </c>
+      <c r="AB77">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC77">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>677824093600</v>
       </c>
+      <c r="Q78">
+        <v>2710215224400</v>
+      </c>
+      <c r="R78">
+        <v>2032391130800</v>
+      </c>
+      <c r="S78">
+        <v>169679100</v>
+      </c>
+      <c r="T78">
+        <v>127113700</v>
+      </c>
+      <c r="U78">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V78">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W78">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X78">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y78">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z78">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA78">
+        <v>892035.3</v>
+      </c>
+      <c r="AB78">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC78">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>700286982000</v>
       </c>
+      <c r="Q79">
+        <v>2756786050300</v>
+      </c>
+      <c r="R79">
+        <v>2056499068300</v>
+      </c>
+      <c r="S79">
+        <v>172401500</v>
+      </c>
+      <c r="T79">
+        <v>128768900</v>
+      </c>
+      <c r="U79">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V79">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W79">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X79">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y79">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z79">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA79">
+        <v>892035.3</v>
+      </c>
+      <c r="AB79">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC79">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>716767822700</v>
       </c>
+      <c r="Q80">
+        <v>2801743555700</v>
+      </c>
+      <c r="R80">
+        <v>2084975733000</v>
+      </c>
+      <c r="S80">
+        <v>175040100</v>
+      </c>
+      <c r="T80">
+        <v>130387800</v>
+      </c>
+      <c r="U80">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V80">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W80">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X80">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y80">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z80">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA80">
+        <v>892035.3</v>
+      </c>
+      <c r="AB80">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>750577649100</v>
       </c>
+      <c r="Q81">
+        <v>2864762168900</v>
+      </c>
+      <c r="R81">
+        <v>2114184519800</v>
+      </c>
+      <c r="S81">
+        <v>178678300</v>
+      </c>
+      <c r="T81">
+        <v>132080000</v>
+      </c>
+      <c r="U81">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V81">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W81">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X81">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y81">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z81">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA81">
+        <v>892035.3</v>
+      </c>
+      <c r="AB81">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC81">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>795865790800</v>
       </c>
+      <c r="Q82">
+        <v>2930562249900</v>
+      </c>
+      <c r="R82">
+        <v>2134696459100</v>
+      </c>
+      <c r="S82">
+        <v>182734300</v>
+      </c>
+      <c r="T82">
+        <v>133348700</v>
+      </c>
+      <c r="U82">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V82">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W82">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X82">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y82">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z82">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA82">
+        <v>892035.3</v>
+      </c>
+      <c r="AB82">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC82">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>842895623800</v>
       </c>
+      <c r="Q83">
+        <v>2996960584000</v>
+      </c>
+      <c r="R83">
+        <v>2154064960200</v>
+      </c>
+      <c r="S83">
+        <v>186813400</v>
+      </c>
+      <c r="T83">
+        <v>134585000</v>
+      </c>
+      <c r="U83">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V83">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W83">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X83">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y83">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z83">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA83">
+        <v>892035.3</v>
+      </c>
+      <c r="AB83">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC83">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>865956119100</v>
       </c>
+      <c r="Q84">
+        <v>3047639316100</v>
+      </c>
+      <c r="R84">
+        <v>2181683197000</v>
+      </c>
+      <c r="S84">
+        <v>189652500</v>
+      </c>
+      <c r="T84">
+        <v>136336200</v>
+      </c>
+      <c r="U84">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V84">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W84">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X84">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y84">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z84">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA84">
+        <v>892035.3</v>
+      </c>
+      <c r="AB84">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC84">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>908824340900</v>
       </c>
+      <c r="Q85">
+        <v>3113619923300</v>
+      </c>
+      <c r="R85">
+        <v>2204795582400</v>
+      </c>
+      <c r="S85">
+        <v>193182700</v>
+      </c>
+      <c r="T85">
+        <v>137856700</v>
+      </c>
+      <c r="U85">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V85">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W85">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X85">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y85">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z85">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA85">
+        <v>892035.3</v>
+      </c>
+      <c r="AB85">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC85">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>929073387300</v>
       </c>
+      <c r="Q86">
+        <v>3155155133400</v>
+      </c>
+      <c r="R86">
+        <v>2226081746100</v>
+      </c>
+      <c r="S86">
+        <v>195847400</v>
+      </c>
+      <c r="T86">
+        <v>139120400</v>
+      </c>
+      <c r="U86">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V86">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W86">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X86">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y86">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z86">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA86">
+        <v>892035.3</v>
+      </c>
+      <c r="AB86">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC86">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>961179079500</v>
       </c>
+      <c r="Q87">
+        <v>3211366022700</v>
+      </c>
+      <c r="R87">
+        <v>2250186943200</v>
+      </c>
+      <c r="S87">
+        <v>199157800</v>
+      </c>
+      <c r="T87">
+        <v>140550200</v>
+      </c>
+      <c r="U87">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V87">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W87">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X87">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y87">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z87">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA87">
+        <v>892035.3</v>
+      </c>
+      <c r="AB87">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC87">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>994864091600</v>
       </c>
+      <c r="Q88">
+        <v>3267014328100</v>
+      </c>
+      <c r="R88">
+        <v>2272150236500</v>
+      </c>
+      <c r="S88">
+        <v>202867600</v>
+      </c>
+      <c r="T88">
+        <v>142268700</v>
+      </c>
+      <c r="U88">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V88">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W88">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X88">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y88">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z88">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA88">
+        <v>892035.3</v>
+      </c>
+      <c r="AB88">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC88">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>1017992620300</v>
       </c>
+      <c r="Q89">
+        <v>3322632228800</v>
+      </c>
+      <c r="R89">
+        <v>2304639608500</v>
+      </c>
+      <c r="S89">
+        <v>206103500</v>
+      </c>
+      <c r="T89">
+        <v>144287100</v>
+      </c>
+      <c r="U89">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V89">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W89">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X89">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y89">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z89">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA89">
+        <v>892035.3</v>
+      </c>
+      <c r="AB89">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC89">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>1047349615200</v>
       </c>
+      <c r="Q90">
+        <v>3387331914300</v>
+      </c>
+      <c r="R90">
+        <v>2339982299100</v>
+      </c>
+      <c r="S90">
+        <v>210155000</v>
+      </c>
+      <c r="T90">
+        <v>146377100</v>
+      </c>
+      <c r="U90">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V90">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W90">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X90">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y90">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z90">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA90">
+        <v>892035.3</v>
+      </c>
+      <c r="AB90">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC90">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>1093905952900</v>
       </c>
+      <c r="Q91">
+        <v>3473481744900</v>
+      </c>
+      <c r="R91">
+        <v>2379575792000</v>
+      </c>
+      <c r="S91">
+        <v>217816400</v>
+      </c>
+      <c r="T91">
+        <v>148858600</v>
+      </c>
+      <c r="U91">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V91">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W91">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X91">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y91">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z91">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA91">
+        <v>892035.3</v>
+      </c>
+      <c r="AB91">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC91">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>1094673456500</v>
       </c>
+      <c r="Q92">
+        <v>3525924989800</v>
+      </c>
+      <c r="R92">
+        <v>2431251533300</v>
+      </c>
+      <c r="S92">
+        <v>221235800</v>
+      </c>
+      <c r="T92">
+        <v>152077500</v>
+      </c>
+      <c r="U92">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V92">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W92">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X92">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y92">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z92">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA92">
+        <v>892035.3</v>
+      </c>
+      <c r="AB92">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>1098476553900</v>
       </c>
+      <c r="Q93">
+        <v>3574174825000</v>
+      </c>
+      <c r="R93">
+        <v>2475698271100</v>
+      </c>
+      <c r="S93">
+        <v>223818000</v>
+      </c>
+      <c r="T93">
+        <v>154957000</v>
+      </c>
+      <c r="U93">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V93">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W93">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X93">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y93">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z93">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA93">
+        <v>892035.3</v>
+      </c>
+      <c r="AB93">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC93">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>1093604485600</v>
       </c>
+      <c r="Q94">
+        <v>3606560453400</v>
+      </c>
+      <c r="R94">
+        <v>2512955967800</v>
+      </c>
+      <c r="S94">
+        <v>225737400</v>
+      </c>
+      <c r="T94">
+        <v>158168400</v>
+      </c>
+      <c r="U94">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V94">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W94">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X94">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y94">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z94">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA94">
+        <v>892035.3</v>
+      </c>
+      <c r="AB94">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC94">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>1090428403100</v>
       </c>
+      <c r="Q95">
+        <v>3640231300500</v>
+      </c>
+      <c r="R95">
+        <v>2549802897400</v>
+      </c>
+      <c r="S95">
+        <v>228300200</v>
+      </c>
+      <c r="T95">
+        <v>160992500</v>
+      </c>
+      <c r="U95">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V95">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W95">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X95">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y95">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z95">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA95">
+        <v>892035.3</v>
+      </c>
+      <c r="AB95">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC95">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>1049039042400</v>
       </c>
+      <c r="Q96">
+        <v>3664668906300</v>
+      </c>
+      <c r="R96">
+        <v>2615629863900</v>
+      </c>
+      <c r="S96">
+        <v>230063700</v>
+      </c>
+      <c r="T96">
+        <v>164846900</v>
+      </c>
+      <c r="U96">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V96">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W96">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X96">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y96">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z96">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA96">
+        <v>892035.3</v>
+      </c>
+      <c r="AB96">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC96">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>1012873237300</v>
       </c>
+      <c r="Q97">
+        <v>3684122169200</v>
+      </c>
+      <c r="R97">
+        <v>2671248931900</v>
+      </c>
+      <c r="S97">
+        <v>231544200</v>
+      </c>
+      <c r="T97">
+        <v>168365400</v>
+      </c>
+      <c r="U97">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V97">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W97">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X97">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y97">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z97">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA97">
+        <v>892035.3</v>
+      </c>
+      <c r="AB97">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC97">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>994477435600</v>
       </c>
+      <c r="Q98">
+        <v>3709404485300</v>
+      </c>
+      <c r="R98">
+        <v>2714927049700</v>
+      </c>
+      <c r="S98">
+        <v>233194100</v>
+      </c>
+      <c r="T98">
+        <v>171289200</v>
+      </c>
+      <c r="U98">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V98">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W98">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X98">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y98">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z98">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA98">
+        <v>892035.3</v>
+      </c>
+      <c r="AB98">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC98">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>967230852000</v>
       </c>
+      <c r="Q99">
+        <v>3725204868000</v>
+      </c>
+      <c r="R99">
+        <v>2757974016000</v>
+      </c>
+      <c r="S99">
+        <v>234251700</v>
+      </c>
+      <c r="T99">
+        <v>174108400</v>
+      </c>
+      <c r="U99">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V99">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W99">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X99">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y99">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z99">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA99">
+        <v>892035.3</v>
+      </c>
+      <c r="AB99">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC99">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>969498425600</v>
       </c>
+      <c r="Q100">
+        <v>3750140561000</v>
+      </c>
+      <c r="R100">
+        <v>2780642135400</v>
+      </c>
+      <c r="S100">
+        <v>235748200</v>
+      </c>
+      <c r="T100">
+        <v>175529500</v>
+      </c>
+      <c r="U100">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V100">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W100">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X100">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y100">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z100">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA100">
+        <v>892035.3</v>
+      </c>
+      <c r="AB100">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC100">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>956186170800</v>
       </c>
+      <c r="Q101">
+        <v>3777355915900</v>
+      </c>
+      <c r="R101">
+        <v>2821169745100</v>
+      </c>
+      <c r="S101">
+        <v>237502100</v>
+      </c>
+      <c r="T101">
+        <v>177728800</v>
+      </c>
+      <c r="U101">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V101">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W101">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X101">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y101">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z101">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA101">
+        <v>892035.3</v>
+      </c>
+      <c r="AB101">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC101">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>933973298100</v>
       </c>
+      <c r="Q102">
+        <v>3800227091400</v>
+      </c>
+      <c r="R102">
+        <v>2866253793300</v>
+      </c>
+      <c r="S102">
+        <v>238887700</v>
+      </c>
+      <c r="T102">
+        <v>180284600</v>
+      </c>
+      <c r="U102">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V102">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W102">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X102">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y102">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z102">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA102">
+        <v>892035.3</v>
+      </c>
+      <c r="AB102">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC102">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>934994589800</v>
       </c>
+      <c r="Q103">
+        <v>3841514439500</v>
+      </c>
+      <c r="R103">
+        <v>2906519849700</v>
+      </c>
+      <c r="S103">
+        <v>241372800</v>
+      </c>
+      <c r="T103">
+        <v>182905800</v>
+      </c>
+      <c r="U103">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V103">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W103">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X103">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y103">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z103">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA103">
+        <v>892035.3</v>
+      </c>
+      <c r="AB103">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC103">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>947337904400</v>
       </c>
+      <c r="Q104">
+        <v>3892978969700</v>
+      </c>
+      <c r="R104">
+        <v>2945641065300</v>
+      </c>
+      <c r="S104">
+        <v>244194200</v>
+      </c>
+      <c r="T104">
+        <v>185333300</v>
+      </c>
+      <c r="U104">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V104">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W104">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X104">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y104">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z104">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA104">
+        <v>892035.3</v>
+      </c>
+      <c r="AB104">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC104">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>984523005900</v>
       </c>
+      <c r="Q105">
+        <v>3958781837600</v>
+      </c>
+      <c r="R105">
+        <v>2974258831700</v>
+      </c>
+      <c r="S105">
+        <v>248877100</v>
+      </c>
+      <c r="T105">
+        <v>186925500</v>
+      </c>
+      <c r="U105">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V105">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W105">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X105">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y105">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z105">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA105">
+        <v>892035.3</v>
+      </c>
+      <c r="AB105">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC105">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>1024175527700</v>
       </c>
+      <c r="Q106">
+        <v>4027704982300</v>
+      </c>
+      <c r="R106">
+        <v>3003529454600</v>
+      </c>
+      <c r="S106">
+        <v>253615700</v>
+      </c>
+      <c r="T106">
+        <v>188734500</v>
+      </c>
+      <c r="U106">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V106">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W106">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X106">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y106">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z106">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA106">
+        <v>892035.3</v>
+      </c>
+      <c r="AB106">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC106">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>1075889195100</v>
       </c>
+      <c r="Q107">
+        <v>4104498774900</v>
+      </c>
+      <c r="R107">
+        <v>3028609579800</v>
+      </c>
+      <c r="S107">
+        <v>257903500</v>
+      </c>
+      <c r="T107">
+        <v>190190500</v>
+      </c>
+      <c r="U107">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V107">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W107">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X107">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y107">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z107">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA107">
+        <v>892035.3</v>
+      </c>
+      <c r="AB107">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC107">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>1125704969600</v>
       </c>
+      <c r="Q108">
+        <v>4184467702800</v>
+      </c>
+      <c r="R108">
+        <v>3058762733200</v>
+      </c>
+      <c r="S108">
+        <v>262157100</v>
+      </c>
+      <c r="T108">
+        <v>192724800</v>
+      </c>
+      <c r="U108">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V108">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W108">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X108">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y108">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z108">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA108">
+        <v>892035.3</v>
+      </c>
+      <c r="AB108">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC108">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>1229497043600</v>
       </c>
+      <c r="Q109">
+        <v>4323323535400</v>
+      </c>
+      <c r="R109">
+        <v>3093826491800</v>
+      </c>
+      <c r="S109">
+        <v>269828700</v>
+      </c>
+      <c r="T109">
+        <v>194917300</v>
+      </c>
+      <c r="U109">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V109">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W109">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X109">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y109">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z109">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA109">
+        <v>892035.3</v>
+      </c>
+      <c r="AB109">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC109">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>1382488188900</v>
       </c>
+      <c r="Q110">
+        <v>4502742112000</v>
+      </c>
+      <c r="R110">
+        <v>3120253923100</v>
+      </c>
+      <c r="S110">
+        <v>279191400</v>
+      </c>
+      <c r="T110">
+        <v>196577800</v>
+      </c>
+      <c r="U110">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V110">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W110">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X110">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y110">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z110">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA110">
+        <v>892035.3</v>
+      </c>
+      <c r="AB110">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC110">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>1534780565800</v>
       </c>
+      <c r="Q111">
+        <v>4695854232900</v>
+      </c>
+      <c r="R111">
+        <v>3161073667100</v>
+      </c>
+      <c r="S111">
+        <v>289529300</v>
+      </c>
+      <c r="T111">
+        <v>199094300</v>
+      </c>
+      <c r="U111">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V111">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W111">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X111">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y111">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z111">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA111">
+        <v>892035.3</v>
+      </c>
+      <c r="AB111">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC111">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>1646248145900</v>
       </c>
+      <c r="Q112">
+        <v>4857650691900</v>
+      </c>
+      <c r="R112">
+        <v>3211402546000</v>
+      </c>
+      <c r="S112">
+        <v>298996900</v>
+      </c>
+      <c r="T112">
+        <v>202358700</v>
+      </c>
+      <c r="U112">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V112">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W112">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X112">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y112">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z112">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA112">
+        <v>892035.3</v>
+      </c>
+      <c r="AB112">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC112">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>1682034957100</v>
       </c>
+      <c r="Q113">
+        <v>4942316928900</v>
+      </c>
+      <c r="R113">
+        <v>3260281971800</v>
+      </c>
+      <c r="S113">
+        <v>303797300</v>
+      </c>
+      <c r="T113">
+        <v>205270500</v>
+      </c>
+      <c r="U113">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V113">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W113">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X113">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y113">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z113">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA113">
+        <v>892035.3</v>
+      </c>
+      <c r="AB113">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC113">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>1722237028800</v>
       </c>
+      <c r="Q114">
+        <v>5037838767300</v>
+      </c>
+      <c r="R114">
+        <v>3315601738500</v>
+      </c>
+      <c r="S114">
+        <v>308879700</v>
+      </c>
+      <c r="T114">
+        <v>208621900</v>
+      </c>
+      <c r="U114">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V114">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W114">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X114">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y114">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z114">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA114">
+        <v>892035.3</v>
+      </c>
+      <c r="AB114">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC114">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>1780872901300</v>
       </c>
+      <c r="Q115">
+        <v>5155560704200</v>
+      </c>
+      <c r="R115">
+        <v>3374687802900</v>
+      </c>
+      <c r="S115">
+        <v>315307500</v>
+      </c>
+      <c r="T115">
+        <v>212706800</v>
+      </c>
+      <c r="U115">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V115">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W115">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X115">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y115">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z115">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA115">
+        <v>892035.3</v>
+      </c>
+      <c r="AB115">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC115">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>1782406227300</v>
       </c>
+      <c r="Q116">
+        <v>5157303328200</v>
+      </c>
+      <c r="R116">
+        <v>3374897100900</v>
+      </c>
+      <c r="S116">
+        <v>315384000</v>
+      </c>
+      <c r="T116">
+        <v>212715600</v>
+      </c>
+      <c r="U116">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V116">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W116">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X116">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y116">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z116">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA116">
+        <v>892035.3</v>
+      </c>
+      <c r="AB116">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC116">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>1833770411200</v>
       </c>
+      <c r="Q117">
+        <v>5244004910000</v>
+      </c>
+      <c r="R117">
+        <v>3410234498800</v>
+      </c>
+      <c r="S117">
+        <v>318816700</v>
+      </c>
+      <c r="T117">
+        <v>215340600</v>
+      </c>
+      <c r="U117">
+        <v>45206938879.3</v>
+      </c>
+      <c r="V117">
+        <v>29398573265.5</v>
+      </c>
+      <c r="W117">
+        <v>78583983608.6</v>
+      </c>
+      <c r="X117">
+        <v>4857765.5</v>
+      </c>
+      <c r="Y117">
+        <v>2748419.8</v>
+      </c>
+      <c r="Z117">
+        <v>1856384.5</v>
+      </c>
+      <c r="AA117">
+        <v>892035.3</v>
+      </c>
+      <c r="AB117">
+        <v>15808365613.8</v>
+      </c>
+      <c r="AC117">
+        <v>3.2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>